--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫配置_cat.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫配置_cat.xlsx
@@ -15,14 +15,14 @@
     <sheet name="cat" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cat!$C$2:$I$1884</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cat!$C$2:$I$1854</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>小灰猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>小黄猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -60,10 +56,6 @@
   </si>
   <si>
     <t>叮当猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>叮铃猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -84,10 +76,6 @@
   </si>
   <si>
     <t>学者猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>女仆猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -127,10 +115,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>乔巴猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>白胡猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -139,7 +123,57 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>纲手猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹤仙猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜助猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜一猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">可合成
+（固定2只合成1只高1级；不可合成填0）
+</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>超赛猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>小灰猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>叮铃猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔巴猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜美猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>乌索猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>卓洛猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -147,15 +181,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>娜美猫</t>
+    <t>鹰眼猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>卓洛猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹰眼猫</t>
+    <t>我爱猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -167,7 +197,39 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>纲手猫</t>
+    <t>鸣人猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>自来猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蛇猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>春水猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>白哉猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋次猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>一护猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑八猫</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎蜂猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -183,127 +245,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>鹤仙猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛亚猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞影猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻海猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>户愚猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎王猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>仙水猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>白哉猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>恋次猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>死神猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>春水猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>大虚猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜助猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜一猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>市丸猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎蜂猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>山本猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>一护猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑八猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝染猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>假面猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>音速猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>童帝猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>KING猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>僵尸猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑光猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>囚犯猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>我爱猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸣人猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>自来猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>大蛇猫</t>
+    <t>沙鲁猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -311,19 +253,11 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>贝吉猫</t>
+    <t>布欧猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>沙鲁猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>破坏猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>布欧猫</t>
+    <t>贝吉猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -331,61 +265,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>桑原猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏马猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦饭猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>埼玉猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>背心猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>海王猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>饿狼猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>波罗猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>吹雪猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>杰诺猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>獠牙猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>球棒猫</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">可合成
-（固定2只合成1只高1级；不可合成填0）
-</t>
+    <t>破坏猫</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +370,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +581,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1048,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1905"/>
+  <dimension ref="A1:I1875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1077,13 +969,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
@@ -1098,21 +990,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1">
-      <c r="A4" s="6">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="4">
@@ -1129,11 +1021,11 @@
       <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1">
-      <c r="A5" s="6">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
+      <c r="B5" s="30" t="s">
+        <v>31</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -1149,11 +1041,11 @@
       <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1">
-      <c r="A6" s="6">
+      <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
+      <c r="B6" s="30" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
@@ -1169,11 +1061,11 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1">
-      <c r="A7" s="6">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>7</v>
+      <c r="B7" s="30" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -1189,11 +1081,11 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1">
-      <c r="A8" s="6">
+      <c r="A8" s="30">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="B8" s="31" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="4">
         <v>6</v>
@@ -1208,11 +1100,11 @@
       <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
-      <c r="A9" s="6">
+      <c r="A9" s="30">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
+      <c r="B9" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
@@ -1227,11 +1119,11 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1">
-      <c r="A10" s="6">
+      <c r="A10" s="30">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
+      <c r="B10" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="4">
         <v>8</v>
@@ -1246,11 +1138,11 @@
       <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1">
-      <c r="A11" s="6">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
+      <c r="B11" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="4">
         <v>9</v>
@@ -1265,11 +1157,11 @@
       <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:9" s="2" customFormat="1">
-      <c r="A12" s="6">
+      <c r="A12" s="30">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="31" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -1284,11 +1176,11 @@
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1">
-      <c r="A13" s="6">
+      <c r="A13" s="30">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
+      <c r="B13" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>11</v>
@@ -1303,11 +1195,11 @@
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1">
-      <c r="A14" s="6">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
+      <c r="B14" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="4">
         <v>12</v>
@@ -1322,11 +1214,11 @@
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1">
-      <c r="A15" s="6">
+      <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
+      <c r="B15" s="31" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="4">
         <v>13</v>
@@ -1341,11 +1233,11 @@
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1">
-      <c r="A16" s="6">
+      <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
+      <c r="B16" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>14</v>
@@ -1360,11 +1252,11 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1">
-      <c r="A17" s="6">
+      <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
+      <c r="B17" s="31" t="s">
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>15</v>
@@ -1379,11 +1271,11 @@
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1">
-      <c r="A18" s="6">
+      <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
+      <c r="B18" s="31" t="s">
+        <v>8</v>
       </c>
       <c r="C18" s="4">
         <v>16</v>
@@ -1398,11 +1290,11 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1">
-      <c r="A19" s="6">
+      <c r="A19" s="30">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
+      <c r="B19" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="C19" s="4">
         <v>17</v>
@@ -1421,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C20" s="4">
         <v>18</v>
@@ -1440,7 +1332,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4">
         <v>19</v>
@@ -1459,7 +1351,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4">
         <v>20</v>
@@ -1478,7 +1370,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" s="4">
         <v>21</v>
@@ -1491,7 +1383,7 @@
       </c>
       <c r="F23" s="5"/>
       <c r="H23" s="21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1">
@@ -1499,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4">
         <v>22</v>
@@ -1518,7 +1410,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" s="4">
         <v>23</v>
@@ -1537,7 +1429,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4">
         <v>24</v>
@@ -1556,7 +1448,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4">
         <v>25</v>
@@ -1575,7 +1467,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4">
         <v>26</v>
@@ -1594,7 +1486,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4">
         <v>27</v>
@@ -1613,7 +1505,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="4">
         <v>28</v>
@@ -1632,7 +1524,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4">
         <v>29</v>
@@ -1651,7 +1543,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4">
         <v>30</v>
@@ -1670,7 +1562,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C33" s="4">
         <v>31</v>
@@ -1689,7 +1581,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4">
         <v>32</v>
@@ -1708,7 +1600,7 @@
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C35" s="4">
         <v>33</v>
@@ -1727,7 +1619,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4">
         <v>34</v>
@@ -1746,7 +1638,7 @@
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4">
         <v>35</v>
@@ -1765,7 +1657,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4">
         <v>36</v>
@@ -1784,7 +1676,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4">
         <v>37</v>
@@ -1803,7 +1695,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C40" s="4">
         <v>38</v>
@@ -1822,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C41" s="4">
         <v>39</v>
@@ -1841,7 +1733,7 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4">
         <v>40</v>
@@ -1860,7 +1752,7 @@
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4">
         <v>41</v>
@@ -1879,7 +1771,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4">
         <v>42</v>
@@ -1898,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="C45" s="4">
         <v>43</v>
@@ -1917,7 +1809,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C46" s="4">
         <v>44</v>
@@ -1936,7 +1828,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C47" s="4">
         <v>45</v>
@@ -1955,7 +1847,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C48" s="4">
         <v>46</v>
@@ -1974,7 +1866,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C49" s="4">
         <v>47</v>
@@ -1993,7 +1885,7 @@
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C50" s="4">
         <v>48</v>
@@ -2012,7 +1904,7 @@
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C51" s="4">
         <v>49</v>
@@ -2031,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4">
         <v>50</v>
@@ -2050,10 +1942,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C53" s="4">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D53" s="29">
         <v>4.9000000000000004</v>
@@ -2065,660 +1957,300 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8" s="2" customFormat="1">
-      <c r="A54" s="6">
-        <v>51</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="4">
-        <v>52</v>
-      </c>
-      <c r="D54" s="29">
-        <v>5</v>
-      </c>
-      <c r="E54" s="4">
-        <v>51</v>
-      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
       <c r="F54" s="5"/>
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8" s="2" customFormat="1">
-      <c r="A55" s="6">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="4">
-        <v>53</v>
-      </c>
-      <c r="D55" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E55" s="4">
-        <v>52</v>
-      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
       <c r="F55" s="5"/>
       <c r="H55" s="21"/>
     </row>
     <row r="56" spans="1:8" s="2" customFormat="1">
-      <c r="A56" s="6">
-        <v>53</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="4">
-        <v>54</v>
-      </c>
-      <c r="D56" s="29">
-        <v>5.2</v>
-      </c>
-      <c r="E56" s="4">
-        <v>53</v>
-      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
       <c r="F56" s="5"/>
       <c r="H56" s="21"/>
     </row>
     <row r="57" spans="1:8" s="2" customFormat="1">
-      <c r="A57" s="6">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="4">
-        <v>55</v>
-      </c>
-      <c r="D57" s="29">
-        <v>5.3</v>
-      </c>
-      <c r="E57" s="4">
-        <v>54</v>
-      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="5"/>
       <c r="H57" s="21"/>
     </row>
     <row r="58" spans="1:8" s="2" customFormat="1">
-      <c r="A58" s="6">
-        <v>55</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C58" s="4">
-        <v>56</v>
-      </c>
-      <c r="D58" s="29">
-        <v>5.4</v>
-      </c>
-      <c r="E58" s="4">
-        <v>55</v>
-      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
       <c r="F58" s="5"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="1:8" s="2" customFormat="1">
-      <c r="A59" s="6">
-        <v>56</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="4">
-        <v>57</v>
-      </c>
-      <c r="D59" s="29">
-        <v>5.5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>56</v>
-      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
       <c r="F59" s="5"/>
       <c r="H59" s="21"/>
     </row>
     <row r="60" spans="1:8" s="2" customFormat="1">
-      <c r="A60" s="6">
-        <v>57</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="4">
-        <v>58</v>
-      </c>
-      <c r="D60" s="29">
-        <v>5.6</v>
-      </c>
-      <c r="E60" s="4">
-        <v>57</v>
-      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
       <c r="F60" s="5"/>
       <c r="H60" s="21"/>
     </row>
     <row r="61" spans="1:8" s="2" customFormat="1">
-      <c r="A61" s="6">
-        <v>58</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C61" s="4">
-        <v>59</v>
-      </c>
-      <c r="D61" s="29">
-        <v>5.7</v>
-      </c>
-      <c r="E61" s="4">
-        <v>58</v>
-      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
       <c r="F61" s="5"/>
       <c r="H61" s="21"/>
     </row>
     <row r="62" spans="1:8" s="2" customFormat="1">
-      <c r="A62" s="6">
-        <v>59</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="4">
-        <v>60</v>
-      </c>
-      <c r="D62" s="29">
-        <v>5.8</v>
-      </c>
-      <c r="E62" s="4">
-        <v>59</v>
-      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
       <c r="F62" s="5"/>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="1:8" s="2" customFormat="1">
-      <c r="A63" s="6">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C63" s="4">
-        <v>61</v>
-      </c>
-      <c r="D63" s="29">
-        <v>5.9</v>
-      </c>
-      <c r="E63" s="4">
-        <v>60</v>
-      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
       <c r="F63" s="5"/>
       <c r="H63" s="21"/>
     </row>
     <row r="64" spans="1:8" s="2" customFormat="1">
-      <c r="A64" s="6">
-        <v>61</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="4">
-        <v>62</v>
-      </c>
-      <c r="D64" s="29">
-        <v>6</v>
-      </c>
-      <c r="E64" s="4">
-        <v>61</v>
-      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
       <c r="F64" s="5"/>
       <c r="H64" s="21"/>
     </row>
-    <row r="65" spans="1:8" s="2" customFormat="1">
-      <c r="A65" s="6">
-        <v>62</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="4">
-        <v>63</v>
-      </c>
-      <c r="D65" s="29">
-        <v>6.1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>62</v>
-      </c>
+    <row r="65" spans="3:8" s="2" customFormat="1">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
       <c r="F65" s="5"/>
       <c r="H65" s="21"/>
     </row>
-    <row r="66" spans="1:8" s="2" customFormat="1">
-      <c r="A66" s="6">
-        <v>63</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="4">
-        <v>64</v>
-      </c>
-      <c r="D66" s="29">
-        <v>6.2</v>
-      </c>
-      <c r="E66" s="4">
-        <v>63</v>
-      </c>
+    <row r="66" spans="3:8" s="2" customFormat="1">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
       <c r="F66" s="5"/>
       <c r="H66" s="21"/>
     </row>
-    <row r="67" spans="1:8" s="2" customFormat="1">
-      <c r="A67" s="6">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C67" s="4">
-        <v>65</v>
-      </c>
-      <c r="D67" s="29">
-        <v>6.3</v>
-      </c>
-      <c r="E67" s="4">
-        <v>64</v>
-      </c>
+    <row r="67" spans="3:8" s="2" customFormat="1">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
       <c r="F67" s="5"/>
       <c r="H67" s="21"/>
     </row>
-    <row r="68" spans="1:8" s="2" customFormat="1">
-      <c r="A68" s="6">
-        <v>65</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="4">
-        <v>66</v>
-      </c>
-      <c r="D68" s="29">
-        <v>6.4</v>
-      </c>
-      <c r="E68" s="4">
-        <v>65</v>
-      </c>
+    <row r="68" spans="3:8" s="2" customFormat="1">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="5"/>
       <c r="H68" s="21"/>
     </row>
-    <row r="69" spans="1:8" s="2" customFormat="1">
-      <c r="A69" s="6">
-        <v>66</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="4">
-        <v>67</v>
-      </c>
-      <c r="D69" s="29">
-        <v>6.5</v>
-      </c>
-      <c r="E69" s="4">
-        <v>66</v>
-      </c>
+    <row r="69" spans="3:8" s="2" customFormat="1">
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="5"/>
       <c r="H69" s="21"/>
     </row>
-    <row r="70" spans="1:8" s="2" customFormat="1">
-      <c r="A70" s="6">
-        <v>67</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" s="4">
-        <v>68</v>
-      </c>
-      <c r="D70" s="29">
-        <v>6.6</v>
-      </c>
-      <c r="E70" s="4">
-        <v>67</v>
-      </c>
+    <row r="70" spans="3:8" s="2" customFormat="1">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
       <c r="F70" s="5"/>
       <c r="H70" s="21"/>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1">
-      <c r="A71" s="6">
-        <v>68</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="4">
-        <v>69</v>
-      </c>
-      <c r="D71" s="29">
-        <v>6.7</v>
-      </c>
-      <c r="E71" s="4">
-        <v>68</v>
-      </c>
+    <row r="71" spans="3:8" s="2" customFormat="1">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
       <c r="F71" s="5"/>
       <c r="H71" s="21"/>
     </row>
-    <row r="72" spans="1:8" s="2" customFormat="1">
-      <c r="A72" s="6">
-        <v>69</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="4">
-        <v>70</v>
-      </c>
-      <c r="D72" s="29">
-        <v>6.8</v>
-      </c>
-      <c r="E72" s="4">
-        <v>69</v>
-      </c>
+    <row r="72" spans="3:8" s="2" customFormat="1">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
       <c r="F72" s="5"/>
       <c r="H72" s="21"/>
     </row>
-    <row r="73" spans="1:8" s="2" customFormat="1">
-      <c r="A73" s="6">
-        <v>70</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="4">
-        <v>71</v>
-      </c>
-      <c r="D73" s="29">
-        <v>6.9</v>
-      </c>
-      <c r="E73" s="4">
-        <v>70</v>
-      </c>
+    <row r="73" spans="3:8" s="2" customFormat="1">
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
       <c r="F73" s="5"/>
       <c r="H73" s="21"/>
     </row>
-    <row r="74" spans="1:8" s="2" customFormat="1">
-      <c r="A74" s="6">
-        <v>71</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="4">
-        <v>72</v>
-      </c>
-      <c r="D74" s="29">
-        <v>7</v>
-      </c>
-      <c r="E74" s="4">
-        <v>71</v>
-      </c>
+    <row r="74" spans="3:8" s="2" customFormat="1">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
       <c r="F74" s="5"/>
       <c r="H74" s="21"/>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1">
-      <c r="A75" s="6">
-        <v>72</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="4">
-        <v>73</v>
-      </c>
-      <c r="D75" s="29">
-        <v>7.1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>72</v>
-      </c>
+    <row r="75" spans="3:8" s="2" customFormat="1">
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
       <c r="F75" s="5"/>
       <c r="H75" s="21"/>
     </row>
-    <row r="76" spans="1:8" s="2" customFormat="1">
-      <c r="A76" s="6">
-        <v>73</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="4">
-        <v>74</v>
-      </c>
-      <c r="D76" s="29">
-        <v>7.2</v>
-      </c>
-      <c r="E76" s="4">
-        <v>73</v>
-      </c>
+    <row r="76" spans="3:8" s="2" customFormat="1">
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
       <c r="F76" s="5"/>
       <c r="H76" s="21"/>
     </row>
-    <row r="77" spans="1:8" s="2" customFormat="1">
-      <c r="A77" s="6">
-        <v>74</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="4">
-        <v>75</v>
-      </c>
-      <c r="D77" s="29">
-        <v>7.3</v>
-      </c>
-      <c r="E77" s="4">
-        <v>74</v>
-      </c>
+    <row r="77" spans="3:8" s="2" customFormat="1">
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
       <c r="F77" s="5"/>
       <c r="H77" s="21"/>
     </row>
-    <row r="78" spans="1:8" s="2" customFormat="1">
-      <c r="A78" s="6">
-        <v>75</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C78" s="4">
-        <v>76</v>
-      </c>
-      <c r="D78" s="29">
-        <v>7.4</v>
-      </c>
-      <c r="E78" s="4">
-        <v>75</v>
-      </c>
+    <row r="78" spans="3:8" s="2" customFormat="1">
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
       <c r="F78" s="5"/>
       <c r="H78" s="21"/>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1">
-      <c r="A79" s="6">
-        <v>76</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="4">
-        <v>77</v>
-      </c>
-      <c r="D79" s="29">
-        <v>7.5</v>
-      </c>
-      <c r="E79" s="4">
-        <v>76</v>
-      </c>
+    <row r="79" spans="3:8" s="2" customFormat="1">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
       <c r="F79" s="5"/>
       <c r="H79" s="21"/>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1">
-      <c r="A80" s="6">
-        <v>77</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="4">
-        <v>78</v>
-      </c>
-      <c r="D80" s="29">
-        <v>7.6</v>
-      </c>
-      <c r="E80" s="4">
-        <v>77</v>
-      </c>
+    <row r="80" spans="3:8" s="2" customFormat="1">
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
       <c r="F80" s="5"/>
       <c r="H80" s="21"/>
     </row>
-    <row r="81" spans="1:8" s="2" customFormat="1">
-      <c r="A81" s="6">
-        <v>78</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C81" s="4">
-        <v>79</v>
-      </c>
-      <c r="D81" s="29">
-        <v>7.7</v>
-      </c>
-      <c r="E81" s="4">
-        <v>78</v>
-      </c>
+    <row r="81" spans="3:8" s="2" customFormat="1">
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
       <c r="F81" s="5"/>
       <c r="H81" s="21"/>
     </row>
-    <row r="82" spans="1:8" s="2" customFormat="1">
-      <c r="A82" s="6">
-        <v>79</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82" s="4">
-        <v>80</v>
-      </c>
-      <c r="D82" s="29">
-        <v>7.8</v>
-      </c>
-      <c r="E82" s="4">
-        <v>79</v>
-      </c>
+    <row r="82" spans="3:8" s="2" customFormat="1">
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
       <c r="F82" s="5"/>
       <c r="H82" s="21"/>
     </row>
-    <row r="83" spans="1:8" s="2" customFormat="1">
-      <c r="A83" s="6">
-        <v>80</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-      <c r="D83" s="29">
-        <v>7.9</v>
-      </c>
-      <c r="E83" s="4">
-        <v>80</v>
-      </c>
+    <row r="83" spans="3:8" s="2" customFormat="1">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
       <c r="F83" s="5"/>
       <c r="H83" s="21"/>
     </row>
-    <row r="84" spans="1:8" s="2" customFormat="1">
+    <row r="84" spans="3:8" s="2" customFormat="1">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="5"/>
       <c r="H84" s="21"/>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1">
+    <row r="85" spans="3:8" s="2" customFormat="1">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="5"/>
       <c r="H85" s="21"/>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1">
+    <row r="86" spans="3:8" s="2" customFormat="1">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="5"/>
       <c r="H86" s="21"/>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1">
+    <row r="87" spans="3:8" s="2" customFormat="1">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="5"/>
       <c r="H87" s="21"/>
     </row>
-    <row r="88" spans="1:8" s="2" customFormat="1">
+    <row r="88" spans="3:8" s="2" customFormat="1">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
       <c r="H88" s="21"/>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1">
+    <row r="89" spans="3:8" s="2" customFormat="1">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="5"/>
       <c r="H89" s="21"/>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1">
+    <row r="90" spans="3:8" s="2" customFormat="1">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="5"/>
       <c r="H90" s="21"/>
     </row>
-    <row r="91" spans="1:8" s="2" customFormat="1">
+    <row r="91" spans="3:8" s="2" customFormat="1">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="5"/>
       <c r="H91" s="21"/>
     </row>
-    <row r="92" spans="1:8" s="2" customFormat="1">
+    <row r="92" spans="3:8" s="2" customFormat="1">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="5"/>
       <c r="H92" s="21"/>
     </row>
-    <row r="93" spans="1:8" s="2" customFormat="1">
+    <row r="93" spans="3:8" s="2" customFormat="1">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="F93" s="5"/>
       <c r="H93" s="21"/>
     </row>
-    <row r="94" spans="1:8" s="2" customFormat="1">
+    <row r="94" spans="3:8" s="2" customFormat="1">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="5"/>
       <c r="H94" s="21"/>
     </row>
-    <row r="95" spans="1:8" s="2" customFormat="1">
+    <row r="95" spans="3:8" s="2" customFormat="1">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="6"/>
       <c r="F95" s="5"/>
       <c r="H95" s="21"/>
     </row>
-    <row r="96" spans="1:8" s="2" customFormat="1">
+    <row r="96" spans="3:8" s="2" customFormat="1">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="6"/>
@@ -3439,12 +2971,9 @@
       <c r="F198" s="5"/>
       <c r="H198" s="21"/>
     </row>
-    <row r="199" spans="3:8" s="2" customFormat="1">
-      <c r="C199" s="5"/>
-      <c r="D199" s="5"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="5"/>
-      <c r="H199" s="21"/>
+    <row r="199" spans="3:8" s="12" customFormat="1">
+      <c r="E199" s="22"/>
+      <c r="H199" s="23"/>
     </row>
     <row r="200" spans="3:8" s="2" customFormat="1">
       <c r="C200" s="5"/>
@@ -3649,9 +3178,12 @@
       <c r="F228" s="5"/>
       <c r="H228" s="21"/>
     </row>
-    <row r="229" spans="3:8" s="12" customFormat="1">
-      <c r="E229" s="22"/>
-      <c r="H229" s="23"/>
+    <row r="229" spans="3:8" s="2" customFormat="1">
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="5"/>
+      <c r="H229" s="21"/>
     </row>
     <row r="230" spans="3:8" s="2" customFormat="1">
       <c r="C230" s="5"/>
@@ -4031,612 +3563,492 @@
       <c r="F283" s="5"/>
       <c r="H283" s="21"/>
     </row>
-    <row r="284" spans="3:8" s="2" customFormat="1">
+    <row r="284" spans="3:8" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="6"/>
       <c r="F284" s="5"/>
       <c r="H284" s="21"/>
     </row>
-    <row r="285" spans="3:8" s="2" customFormat="1">
-      <c r="C285" s="5"/>
-      <c r="D285" s="5"/>
+    <row r="285" spans="3:8" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="E285" s="6"/>
-      <c r="F285" s="5"/>
       <c r="H285" s="21"/>
     </row>
-    <row r="286" spans="3:8" s="2" customFormat="1">
-      <c r="C286" s="5"/>
-      <c r="D286" s="5"/>
+    <row r="286" spans="3:8" s="2" customFormat="1" ht="33.75" customHeight="1">
       <c r="E286" s="6"/>
-      <c r="F286" s="5"/>
       <c r="H286" s="21"/>
     </row>
-    <row r="287" spans="3:8" s="2" customFormat="1">
-      <c r="C287" s="5"/>
-      <c r="D287" s="5"/>
+    <row r="287" spans="3:8" s="2" customFormat="1" ht="46.5" customHeight="1">
       <c r="E287" s="6"/>
-      <c r="F287" s="5"/>
       <c r="H287" s="21"/>
     </row>
-    <row r="288" spans="3:8" s="2" customFormat="1">
-      <c r="C288" s="5"/>
-      <c r="D288" s="5"/>
+    <row r="288" spans="3:8" s="2" customFormat="1" ht="43.5" customHeight="1">
       <c r="E288" s="6"/>
-      <c r="F288" s="5"/>
       <c r="H288" s="21"/>
     </row>
-    <row r="289" spans="3:8" s="2" customFormat="1">
-      <c r="C289" s="5"/>
-      <c r="D289" s="5"/>
+    <row r="289" spans="5:8" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="E289" s="6"/>
-      <c r="F289" s="5"/>
       <c r="H289" s="21"/>
     </row>
-    <row r="290" spans="3:8" s="2" customFormat="1">
-      <c r="C290" s="5"/>
-      <c r="D290" s="5"/>
+    <row r="290" spans="5:8" s="2" customFormat="1" ht="36.75" customHeight="1">
       <c r="E290" s="6"/>
-      <c r="F290" s="5"/>
       <c r="H290" s="21"/>
     </row>
-    <row r="291" spans="3:8" s="2" customFormat="1">
-      <c r="C291" s="5"/>
-      <c r="D291" s="5"/>
+    <row r="291" spans="5:8" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="E291" s="6"/>
-      <c r="F291" s="5"/>
       <c r="H291" s="21"/>
     </row>
-    <row r="292" spans="3:8" s="2" customFormat="1">
-      <c r="C292" s="5"/>
-      <c r="D292" s="5"/>
+    <row r="292" spans="5:8" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="E292" s="6"/>
-      <c r="F292" s="5"/>
       <c r="H292" s="21"/>
     </row>
-    <row r="293" spans="3:8" s="2" customFormat="1">
-      <c r="C293" s="5"/>
-      <c r="D293" s="5"/>
+    <row r="293" spans="5:8" s="2" customFormat="1" ht="46.5" customHeight="1">
       <c r="E293" s="6"/>
-      <c r="F293" s="5"/>
       <c r="H293" s="21"/>
     </row>
-    <row r="294" spans="3:8" s="2" customFormat="1">
-      <c r="C294" s="5"/>
-      <c r="D294" s="5"/>
+    <row r="294" spans="5:8" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="E294" s="6"/>
-      <c r="F294" s="5"/>
       <c r="H294" s="21"/>
     </row>
-    <row r="295" spans="3:8" s="2" customFormat="1">
-      <c r="C295" s="5"/>
-      <c r="D295" s="5"/>
+    <row r="295" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="E295" s="6"/>
-      <c r="F295" s="5"/>
       <c r="H295" s="21"/>
     </row>
-    <row r="296" spans="3:8" s="2" customFormat="1">
-      <c r="C296" s="5"/>
-      <c r="D296" s="5"/>
+    <row r="296" spans="5:8" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="E296" s="6"/>
-      <c r="F296" s="5"/>
       <c r="H296" s="21"/>
     </row>
-    <row r="297" spans="3:8" s="2" customFormat="1">
-      <c r="C297" s="5"/>
-      <c r="D297" s="5"/>
+    <row r="297" spans="5:8" s="2" customFormat="1" ht="42.75" customHeight="1">
       <c r="E297" s="6"/>
-      <c r="F297" s="5"/>
       <c r="H297" s="21"/>
     </row>
-    <row r="298" spans="3:8" s="2" customFormat="1">
-      <c r="C298" s="5"/>
-      <c r="D298" s="5"/>
+    <row r="298" spans="5:8" s="2" customFormat="1" ht="44.25" customHeight="1">
       <c r="E298" s="6"/>
-      <c r="F298" s="5"/>
       <c r="H298" s="21"/>
     </row>
-    <row r="299" spans="3:8" s="2" customFormat="1">
-      <c r="C299" s="5"/>
-      <c r="D299" s="5"/>
+    <row r="299" spans="5:8" s="2" customFormat="1" ht="56.25" customHeight="1">
       <c r="E299" s="6"/>
-      <c r="F299" s="5"/>
       <c r="H299" s="21"/>
     </row>
-    <row r="300" spans="3:8" s="2" customFormat="1">
-      <c r="C300" s="5"/>
-      <c r="D300" s="5"/>
+    <row r="300" spans="5:8" s="2" customFormat="1" ht="55.5" customHeight="1">
       <c r="E300" s="6"/>
-      <c r="F300" s="5"/>
       <c r="H300" s="21"/>
     </row>
-    <row r="301" spans="3:8" s="2" customFormat="1">
-      <c r="C301" s="5"/>
-      <c r="D301" s="5"/>
+    <row r="301" spans="5:8" s="2" customFormat="1" ht="40.5" customHeight="1">
       <c r="E301" s="6"/>
-      <c r="F301" s="5"/>
       <c r="H301" s="21"/>
     </row>
-    <row r="302" spans="3:8" s="2" customFormat="1">
-      <c r="C302" s="5"/>
-      <c r="D302" s="5"/>
+    <row r="302" spans="5:8" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="E302" s="6"/>
-      <c r="F302" s="5"/>
       <c r="H302" s="21"/>
     </row>
-    <row r="303" spans="3:8" s="2" customFormat="1">
-      <c r="C303" s="5"/>
-      <c r="D303" s="5"/>
+    <row r="303" spans="5:8" s="2" customFormat="1" ht="53.25" customHeight="1">
       <c r="E303" s="6"/>
-      <c r="F303" s="5"/>
       <c r="H303" s="21"/>
     </row>
-    <row r="304" spans="3:8" s="2" customFormat="1">
-      <c r="C304" s="5"/>
-      <c r="D304" s="5"/>
+    <row r="304" spans="5:8" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="E304" s="6"/>
-      <c r="F304" s="5"/>
       <c r="H304" s="21"/>
     </row>
-    <row r="305" spans="3:8" s="2" customFormat="1">
-      <c r="C305" s="5"/>
-      <c r="D305" s="5"/>
+    <row r="305" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="E305" s="6"/>
-      <c r="F305" s="5"/>
       <c r="H305" s="21"/>
     </row>
-    <row r="306" spans="3:8" s="2" customFormat="1">
-      <c r="C306" s="5"/>
-      <c r="D306" s="5"/>
+    <row r="306" spans="5:8" s="2" customFormat="1" ht="59.25" customHeight="1">
       <c r="E306" s="6"/>
-      <c r="F306" s="5"/>
       <c r="H306" s="21"/>
     </row>
-    <row r="307" spans="3:8" s="2" customFormat="1">
-      <c r="C307" s="5"/>
-      <c r="D307" s="5"/>
+    <row r="307" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="E307" s="6"/>
-      <c r="F307" s="5"/>
       <c r="H307" s="21"/>
     </row>
-    <row r="308" spans="3:8" s="2" customFormat="1">
-      <c r="C308" s="5"/>
-      <c r="D308" s="5"/>
+    <row r="308" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="E308" s="6"/>
-      <c r="F308" s="5"/>
       <c r="H308" s="21"/>
     </row>
-    <row r="309" spans="3:8" s="2" customFormat="1">
-      <c r="C309" s="5"/>
-      <c r="D309" s="5"/>
+    <row r="309" spans="5:8" s="2" customFormat="1" ht="51.75" customHeight="1">
       <c r="E309" s="6"/>
-      <c r="F309" s="5"/>
       <c r="H309" s="21"/>
     </row>
-    <row r="310" spans="3:8" s="2" customFormat="1">
-      <c r="C310" s="5"/>
-      <c r="D310" s="5"/>
+    <row r="310" spans="5:8" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="E310" s="6"/>
-      <c r="F310" s="5"/>
       <c r="H310" s="21"/>
     </row>
-    <row r="311" spans="3:8" s="2" customFormat="1">
-      <c r="C311" s="5"/>
-      <c r="D311" s="5"/>
+    <row r="311" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="E311" s="6"/>
-      <c r="F311" s="5"/>
       <c r="H311" s="21"/>
     </row>
-    <row r="312" spans="3:8" s="2" customFormat="1">
-      <c r="C312" s="5"/>
-      <c r="D312" s="5"/>
+    <row r="312" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
       <c r="E312" s="6"/>
-      <c r="F312" s="5"/>
       <c r="H312" s="21"/>
     </row>
-    <row r="313" spans="3:8" s="2" customFormat="1">
-      <c r="C313" s="5"/>
-      <c r="D313" s="5"/>
+    <row r="313" spans="5:8" s="2" customFormat="1" ht="69.75" customHeight="1">
       <c r="E313" s="6"/>
-      <c r="F313" s="5"/>
       <c r="H313" s="21"/>
     </row>
-    <row r="314" spans="3:8" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="C314" s="5"/>
-      <c r="D314" s="5"/>
+    <row r="314" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="E314" s="6"/>
-      <c r="F314" s="5"/>
       <c r="H314" s="21"/>
     </row>
-    <row r="315" spans="3:8" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="315" spans="5:8" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="E315" s="6"/>
       <c r="H315" s="21"/>
     </row>
-    <row r="316" spans="3:8" s="2" customFormat="1" ht="33.75" customHeight="1">
+    <row r="316" spans="5:8" s="2" customFormat="1" ht="44.25" customHeight="1">
       <c r="E316" s="6"/>
       <c r="H316" s="21"/>
     </row>
-    <row r="317" spans="3:8" s="2" customFormat="1" ht="46.5" customHeight="1">
+    <row r="317" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="E317" s="6"/>
       <c r="H317" s="21"/>
     </row>
-    <row r="318" spans="3:8" s="2" customFormat="1" ht="43.5" customHeight="1">
+    <row r="318" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="E318" s="6"/>
       <c r="H318" s="21"/>
     </row>
-    <row r="319" spans="3:8" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="319" spans="5:8" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="E319" s="6"/>
       <c r="H319" s="21"/>
     </row>
-    <row r="320" spans="3:8" s="2" customFormat="1" ht="36.75" customHeight="1">
+    <row r="320" spans="5:8" s="2" customFormat="1" ht="42" customHeight="1">
       <c r="E320" s="6"/>
       <c r="H320" s="21"/>
     </row>
-    <row r="321" spans="5:8" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="321" spans="3:8" s="2" customFormat="1" ht="47.25" customHeight="1">
       <c r="E321" s="6"/>
       <c r="H321" s="21"/>
     </row>
-    <row r="322" spans="5:8" s="2" customFormat="1" ht="45.75" customHeight="1">
+    <row r="322" spans="3:8" s="2" customFormat="1" ht="49.5" customHeight="1">
       <c r="E322" s="6"/>
       <c r="H322" s="21"/>
     </row>
-    <row r="323" spans="5:8" s="2" customFormat="1" ht="46.5" customHeight="1">
+    <row r="323" spans="3:8" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="E323" s="6"/>
       <c r="H323" s="21"/>
     </row>
-    <row r="324" spans="5:8" s="2" customFormat="1" ht="47.25" customHeight="1">
+    <row r="324" spans="3:8" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="E324" s="6"/>
       <c r="H324" s="21"/>
     </row>
-    <row r="325" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
+    <row r="325" spans="3:8" s="2" customFormat="1" ht="39.75" customHeight="1">
       <c r="E325" s="6"/>
       <c r="H325" s="21"/>
     </row>
-    <row r="326" spans="5:8" s="2" customFormat="1" ht="42" customHeight="1">
+    <row r="326" spans="3:8" s="2" customFormat="1">
+      <c r="C326" s="5"/>
+      <c r="D326" s="5"/>
       <c r="E326" s="6"/>
+      <c r="F326" s="5"/>
+      <c r="G326" s="3"/>
       <c r="H326" s="21"/>
     </row>
-    <row r="327" spans="5:8" s="2" customFormat="1" ht="42.75" customHeight="1">
+    <row r="327" spans="3:8" s="2" customFormat="1">
+      <c r="C327" s="5"/>
+      <c r="D327" s="5"/>
       <c r="E327" s="6"/>
+      <c r="F327" s="5"/>
+      <c r="G327" s="3"/>
       <c r="H327" s="21"/>
     </row>
-    <row r="328" spans="5:8" s="2" customFormat="1" ht="44.25" customHeight="1">
+    <row r="328" spans="3:8" s="2" customFormat="1">
+      <c r="C328" s="5"/>
+      <c r="D328" s="5"/>
       <c r="E328" s="6"/>
+      <c r="F328" s="5"/>
+      <c r="G328" s="3"/>
       <c r="H328" s="21"/>
     </row>
-    <row r="329" spans="5:8" s="2" customFormat="1" ht="56.25" customHeight="1">
+    <row r="329" spans="3:8" s="2" customFormat="1">
+      <c r="C329" s="5"/>
+      <c r="D329" s="5"/>
       <c r="E329" s="6"/>
+      <c r="F329" s="5"/>
+      <c r="G329" s="3"/>
       <c r="H329" s="21"/>
     </row>
-    <row r="330" spans="5:8" s="2" customFormat="1" ht="55.5" customHeight="1">
+    <row r="330" spans="3:8" s="2" customFormat="1">
+      <c r="C330" s="5"/>
+      <c r="D330" s="5"/>
       <c r="E330" s="6"/>
+      <c r="F330" s="5"/>
+      <c r="G330" s="3"/>
       <c r="H330" s="21"/>
     </row>
-    <row r="331" spans="5:8" s="2" customFormat="1" ht="40.5" customHeight="1">
+    <row r="331" spans="3:8" s="2" customFormat="1">
+      <c r="C331" s="5"/>
+      <c r="D331" s="5"/>
       <c r="E331" s="6"/>
+      <c r="F331" s="5"/>
+      <c r="G331" s="3"/>
       <c r="H331" s="21"/>
     </row>
-    <row r="332" spans="5:8" s="2" customFormat="1" ht="48.75" customHeight="1">
+    <row r="332" spans="3:8" s="2" customFormat="1">
+      <c r="C332" s="5"/>
+      <c r="D332" s="5"/>
       <c r="E332" s="6"/>
+      <c r="F332" s="5"/>
+      <c r="G332" s="3"/>
       <c r="H332" s="21"/>
     </row>
-    <row r="333" spans="5:8" s="2" customFormat="1" ht="53.25" customHeight="1">
+    <row r="333" spans="3:8" s="2" customFormat="1">
+      <c r="C333" s="5"/>
+      <c r="D333" s="5"/>
       <c r="E333" s="6"/>
+      <c r="F333" s="5"/>
+      <c r="G333" s="3"/>
       <c r="H333" s="21"/>
     </row>
-    <row r="334" spans="5:8" s="2" customFormat="1" ht="51.75" customHeight="1">
+    <row r="334" spans="3:8" s="2" customFormat="1">
+      <c r="C334" s="5"/>
+      <c r="D334" s="5"/>
       <c r="E334" s="6"/>
+      <c r="F334" s="5"/>
+      <c r="G334" s="3"/>
       <c r="H334" s="21"/>
     </row>
-    <row r="335" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
+    <row r="335" spans="3:8" s="2" customFormat="1">
+      <c r="C335" s="5"/>
+      <c r="D335" s="5"/>
       <c r="E335" s="6"/>
+      <c r="F335" s="5"/>
+      <c r="G335" s="3"/>
       <c r="H335" s="21"/>
     </row>
-    <row r="336" spans="5:8" s="2" customFormat="1" ht="59.25" customHeight="1">
+    <row r="336" spans="3:8" s="2" customFormat="1">
+      <c r="C336" s="5"/>
+      <c r="D336" s="5"/>
       <c r="E336" s="6"/>
+      <c r="F336" s="5"/>
+      <c r="G336" s="3"/>
       <c r="H336" s="21"/>
     </row>
-    <row r="337" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
+    <row r="337" spans="3:8" s="2" customFormat="1">
+      <c r="C337" s="5"/>
+      <c r="D337" s="5"/>
       <c r="E337" s="6"/>
+      <c r="F337" s="5"/>
+      <c r="G337" s="3"/>
       <c r="H337" s="21"/>
     </row>
-    <row r="338" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
+    <row r="338" spans="3:8" s="2" customFormat="1">
+      <c r="C338" s="5"/>
+      <c r="D338" s="5"/>
       <c r="E338" s="6"/>
+      <c r="F338" s="5"/>
+      <c r="G338" s="3"/>
       <c r="H338" s="21"/>
     </row>
-    <row r="339" spans="5:8" s="2" customFormat="1" ht="51.75" customHeight="1">
+    <row r="339" spans="3:8" s="2" customFormat="1">
+      <c r="C339" s="5"/>
+      <c r="D339" s="5"/>
       <c r="E339" s="6"/>
+      <c r="F339" s="5"/>
       <c r="H339" s="21"/>
     </row>
-    <row r="340" spans="5:8" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="E340" s="6"/>
-      <c r="H340" s="21"/>
-    </row>
-    <row r="341" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
-      <c r="E341" s="6"/>
-      <c r="H341" s="21"/>
-    </row>
-    <row r="342" spans="5:8" s="2" customFormat="1" ht="57.75" customHeight="1">
-      <c r="E342" s="6"/>
-      <c r="H342" s="21"/>
-    </row>
-    <row r="343" spans="5:8" s="2" customFormat="1" ht="69.75" customHeight="1">
-      <c r="E343" s="6"/>
-      <c r="H343" s="21"/>
-    </row>
-    <row r="344" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
-      <c r="E344" s="6"/>
-      <c r="H344" s="21"/>
-    </row>
-    <row r="345" spans="5:8" s="2" customFormat="1" ht="47.25" customHeight="1">
+    <row r="340" spans="3:8" s="2" customFormat="1">
+      <c r="E340" s="4"/>
+      <c r="H340" s="7"/>
+    </row>
+    <row r="341" spans="3:8" s="2" customFormat="1">
+      <c r="E341" s="4"/>
+      <c r="H341" s="7"/>
+    </row>
+    <row r="342" spans="3:8" s="2" customFormat="1">
+      <c r="E342" s="4"/>
+      <c r="H342" s="7"/>
+    </row>
+    <row r="343" spans="3:8" s="2" customFormat="1">
+      <c r="E343" s="4"/>
+      <c r="H343" s="7"/>
+    </row>
+    <row r="344" spans="3:8" s="2" customFormat="1">
+      <c r="E344" s="4"/>
+      <c r="H344" s="7"/>
+    </row>
+    <row r="345" spans="3:8" s="2" customFormat="1">
       <c r="E345" s="6"/>
-      <c r="H345" s="21"/>
-    </row>
-    <row r="346" spans="5:8" s="2" customFormat="1" ht="44.25" customHeight="1">
+      <c r="H345" s="7"/>
+    </row>
+    <row r="346" spans="3:8" s="2" customFormat="1">
       <c r="E346" s="6"/>
-      <c r="H346" s="21"/>
-    </row>
-    <row r="347" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="H346" s="7"/>
+    </row>
+    <row r="347" spans="3:8" s="2" customFormat="1">
       <c r="E347" s="6"/>
-      <c r="H347" s="21"/>
-    </row>
-    <row r="348" spans="5:8" s="2" customFormat="1" ht="45" customHeight="1">
+      <c r="H347" s="7"/>
+    </row>
+    <row r="348" spans="3:8" s="2" customFormat="1">
       <c r="E348" s="6"/>
-      <c r="H348" s="21"/>
-    </row>
-    <row r="349" spans="5:8" s="2" customFormat="1" ht="49.5" customHeight="1">
+      <c r="H348" s="7"/>
+    </row>
+    <row r="349" spans="3:8" s="2" customFormat="1">
       <c r="E349" s="6"/>
-      <c r="H349" s="21"/>
-    </row>
-    <row r="350" spans="5:8" s="2" customFormat="1" ht="42" customHeight="1">
+      <c r="H349" s="7"/>
+    </row>
+    <row r="350" spans="3:8" s="2" customFormat="1">
       <c r="E350" s="6"/>
-      <c r="H350" s="21"/>
-    </row>
-    <row r="351" spans="5:8" s="2" customFormat="1" ht="47.25" customHeight="1">
+      <c r="H350" s="7"/>
+    </row>
+    <row r="351" spans="3:8" s="2" customFormat="1">
       <c r="E351" s="6"/>
-      <c r="H351" s="21"/>
-    </row>
-    <row r="352" spans="5:8" s="2" customFormat="1" ht="49.5" customHeight="1">
+      <c r="H351" s="7"/>
+    </row>
+    <row r="352" spans="3:8" s="2" customFormat="1">
       <c r="E352" s="6"/>
-      <c r="H352" s="21"/>
-    </row>
-    <row r="353" spans="3:8" s="2" customFormat="1" ht="45.75" customHeight="1">
+      <c r="H352" s="7"/>
+    </row>
+    <row r="353" spans="5:8" s="2" customFormat="1">
       <c r="E353" s="6"/>
-      <c r="H353" s="21"/>
-    </row>
-    <row r="354" spans="3:8" s="2" customFormat="1" ht="39.75" customHeight="1">
+      <c r="H353" s="7"/>
+    </row>
+    <row r="354" spans="5:8" s="2" customFormat="1">
       <c r="E354" s="6"/>
-      <c r="H354" s="21"/>
-    </row>
-    <row r="355" spans="3:8" s="2" customFormat="1" ht="39.75" customHeight="1">
+      <c r="H354" s="7"/>
+    </row>
+    <row r="355" spans="5:8" s="2" customFormat="1">
       <c r="E355" s="6"/>
-      <c r="H355" s="21"/>
-    </row>
-    <row r="356" spans="3:8" s="2" customFormat="1">
-      <c r="C356" s="5"/>
-      <c r="D356" s="5"/>
+      <c r="H355" s="7"/>
+    </row>
+    <row r="356" spans="5:8" s="2" customFormat="1">
       <c r="E356" s="6"/>
-      <c r="F356" s="5"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="21"/>
-    </row>
-    <row r="357" spans="3:8" s="2" customFormat="1">
-      <c r="C357" s="5"/>
-      <c r="D357" s="5"/>
+      <c r="H356" s="7"/>
+    </row>
+    <row r="357" spans="5:8" s="2" customFormat="1">
       <c r="E357" s="6"/>
-      <c r="F357" s="5"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="21"/>
-    </row>
-    <row r="358" spans="3:8" s="2" customFormat="1">
-      <c r="C358" s="5"/>
-      <c r="D358" s="5"/>
+      <c r="H357" s="7"/>
+    </row>
+    <row r="358" spans="5:8" s="2" customFormat="1">
       <c r="E358" s="6"/>
-      <c r="F358" s="5"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="21"/>
-    </row>
-    <row r="359" spans="3:8" s="2" customFormat="1">
-      <c r="C359" s="5"/>
-      <c r="D359" s="5"/>
+      <c r="H358" s="7"/>
+    </row>
+    <row r="359" spans="5:8" s="2" customFormat="1">
       <c r="E359" s="6"/>
-      <c r="F359" s="5"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="21"/>
-    </row>
-    <row r="360" spans="3:8" s="2" customFormat="1">
-      <c r="C360" s="5"/>
-      <c r="D360" s="5"/>
+      <c r="H359" s="7"/>
+    </row>
+    <row r="360" spans="5:8" s="2" customFormat="1">
       <c r="E360" s="6"/>
-      <c r="F360" s="5"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="21"/>
-    </row>
-    <row r="361" spans="3:8" s="2" customFormat="1">
-      <c r="C361" s="5"/>
-      <c r="D361" s="5"/>
+      <c r="H360" s="7"/>
+    </row>
+    <row r="361" spans="5:8" s="2" customFormat="1">
       <c r="E361" s="6"/>
-      <c r="F361" s="5"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="21"/>
-    </row>
-    <row r="362" spans="3:8" s="2" customFormat="1">
-      <c r="C362" s="5"/>
-      <c r="D362" s="5"/>
+      <c r="H361" s="7"/>
+    </row>
+    <row r="362" spans="5:8" s="2" customFormat="1">
       <c r="E362" s="6"/>
-      <c r="F362" s="5"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="21"/>
-    </row>
-    <row r="363" spans="3:8" s="2" customFormat="1">
-      <c r="C363" s="5"/>
-      <c r="D363" s="5"/>
-      <c r="E363" s="6"/>
-      <c r="F363" s="5"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="21"/>
-    </row>
-    <row r="364" spans="3:8" s="2" customFormat="1">
-      <c r="C364" s="5"/>
-      <c r="D364" s="5"/>
-      <c r="E364" s="6"/>
-      <c r="F364" s="5"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="21"/>
-    </row>
-    <row r="365" spans="3:8" s="2" customFormat="1">
-      <c r="C365" s="5"/>
-      <c r="D365" s="5"/>
-      <c r="E365" s="6"/>
-      <c r="F365" s="5"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="21"/>
-    </row>
-    <row r="366" spans="3:8" s="2" customFormat="1">
-      <c r="C366" s="5"/>
-      <c r="D366" s="5"/>
-      <c r="E366" s="6"/>
-      <c r="F366" s="5"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="21"/>
-    </row>
-    <row r="367" spans="3:8" s="2" customFormat="1">
-      <c r="C367" s="5"/>
-      <c r="D367" s="5"/>
-      <c r="E367" s="6"/>
-      <c r="F367" s="5"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="21"/>
-    </row>
-    <row r="368" spans="3:8" s="2" customFormat="1">
-      <c r="C368" s="5"/>
-      <c r="D368" s="5"/>
-      <c r="E368" s="6"/>
-      <c r="F368" s="5"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="21"/>
-    </row>
-    <row r="369" spans="3:8" s="2" customFormat="1">
-      <c r="C369" s="5"/>
-      <c r="D369" s="5"/>
-      <c r="E369" s="6"/>
-      <c r="F369" s="5"/>
-      <c r="H369" s="21"/>
-    </row>
-    <row r="370" spans="3:8" s="2" customFormat="1">
-      <c r="E370" s="4"/>
+      <c r="H362" s="7"/>
+    </row>
+    <row r="363" spans="5:8" s="2" customFormat="1">
+      <c r="H363" s="7"/>
+    </row>
+    <row r="364" spans="5:8" s="2" customFormat="1">
+      <c r="H364" s="7"/>
+    </row>
+    <row r="365" spans="5:8" s="2" customFormat="1">
+      <c r="H365" s="7"/>
+    </row>
+    <row r="366" spans="5:8" s="2" customFormat="1">
+      <c r="H366" s="7"/>
+    </row>
+    <row r="367" spans="5:8" s="2" customFormat="1">
+      <c r="H367" s="7"/>
+    </row>
+    <row r="368" spans="5:8" s="2" customFormat="1">
+      <c r="H368" s="7"/>
+    </row>
+    <row r="369" spans="8:8" s="2" customFormat="1">
+      <c r="H369" s="7"/>
+    </row>
+    <row r="370" spans="8:8" s="2" customFormat="1">
       <c r="H370" s="7"/>
     </row>
-    <row r="371" spans="3:8" s="2" customFormat="1">
-      <c r="E371" s="4"/>
+    <row r="371" spans="8:8" s="2" customFormat="1">
       <c r="H371" s="7"/>
     </row>
-    <row r="372" spans="3:8" s="2" customFormat="1">
-      <c r="E372" s="4"/>
+    <row r="372" spans="8:8" s="2" customFormat="1">
       <c r="H372" s="7"/>
     </row>
-    <row r="373" spans="3:8" s="2" customFormat="1">
-      <c r="E373" s="4"/>
+    <row r="373" spans="8:8" s="2" customFormat="1">
       <c r="H373" s="7"/>
     </row>
-    <row r="374" spans="3:8" s="2" customFormat="1">
-      <c r="E374" s="4"/>
+    <row r="374" spans="8:8" s="2" customFormat="1">
       <c r="H374" s="7"/>
     </row>
-    <row r="375" spans="3:8" s="2" customFormat="1">
-      <c r="E375" s="6"/>
+    <row r="375" spans="8:8" s="2" customFormat="1">
       <c r="H375" s="7"/>
     </row>
-    <row r="376" spans="3:8" s="2" customFormat="1">
-      <c r="E376" s="6"/>
+    <row r="376" spans="8:8" s="2" customFormat="1">
       <c r="H376" s="7"/>
     </row>
-    <row r="377" spans="3:8" s="2" customFormat="1">
-      <c r="E377" s="6"/>
+    <row r="377" spans="8:8" s="2" customFormat="1">
       <c r="H377" s="7"/>
     </row>
-    <row r="378" spans="3:8" s="2" customFormat="1">
-      <c r="E378" s="6"/>
+    <row r="378" spans="8:8" s="2" customFormat="1">
       <c r="H378" s="7"/>
     </row>
-    <row r="379" spans="3:8" s="2" customFormat="1">
-      <c r="E379" s="6"/>
+    <row r="379" spans="8:8" s="2" customFormat="1">
       <c r="H379" s="7"/>
     </row>
-    <row r="380" spans="3:8" s="2" customFormat="1">
-      <c r="E380" s="6"/>
+    <row r="380" spans="8:8" s="2" customFormat="1">
       <c r="H380" s="7"/>
     </row>
-    <row r="381" spans="3:8" s="2" customFormat="1">
-      <c r="E381" s="6"/>
+    <row r="381" spans="8:8" s="2" customFormat="1">
       <c r="H381" s="7"/>
     </row>
-    <row r="382" spans="3:8" s="2" customFormat="1">
-      <c r="E382" s="6"/>
+    <row r="382" spans="8:8" s="2" customFormat="1">
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="3:8" s="2" customFormat="1">
-      <c r="E383" s="6"/>
+    <row r="383" spans="8:8" s="2" customFormat="1">
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="3:8" s="2" customFormat="1">
-      <c r="E384" s="6"/>
+    <row r="384" spans="8:8" s="2" customFormat="1">
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="5:8" s="2" customFormat="1">
-      <c r="E385" s="6"/>
+    <row r="385" spans="8:8" s="2" customFormat="1">
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="5:8" s="2" customFormat="1">
-      <c r="E386" s="6"/>
+    <row r="386" spans="8:8" s="2" customFormat="1">
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="5:8" s="2" customFormat="1">
-      <c r="E387" s="6"/>
+    <row r="387" spans="8:8" s="2" customFormat="1">
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="5:8" s="2" customFormat="1">
-      <c r="E388" s="6"/>
+    <row r="388" spans="8:8" s="2" customFormat="1">
       <c r="H388" s="7"/>
     </row>
-    <row r="389" spans="5:8" s="2" customFormat="1">
-      <c r="E389" s="6"/>
+    <row r="389" spans="8:8" s="2" customFormat="1">
       <c r="H389" s="7"/>
     </row>
-    <row r="390" spans="5:8" s="2" customFormat="1">
-      <c r="E390" s="6"/>
+    <row r="390" spans="8:8" s="2" customFormat="1">
       <c r="H390" s="7"/>
     </row>
-    <row r="391" spans="5:8" s="2" customFormat="1">
-      <c r="E391" s="6"/>
+    <row r="391" spans="8:8" s="2" customFormat="1">
       <c r="H391" s="7"/>
     </row>
-    <row r="392" spans="5:8" s="2" customFormat="1">
-      <c r="E392" s="6"/>
+    <row r="392" spans="8:8" s="2" customFormat="1">
       <c r="H392" s="7"/>
     </row>
-    <row r="393" spans="5:8" s="2" customFormat="1">
+    <row r="393" spans="8:8" s="2" customFormat="1">
       <c r="H393" s="7"/>
     </row>
-    <row r="394" spans="5:8" s="2" customFormat="1">
+    <row r="394" spans="8:8" s="2" customFormat="1">
       <c r="H394" s="7"/>
     </row>
-    <row r="395" spans="5:8" s="2" customFormat="1">
+    <row r="395" spans="8:8" s="2" customFormat="1">
       <c r="H395" s="7"/>
     </row>
-    <row r="396" spans="5:8" s="2" customFormat="1">
+    <row r="396" spans="8:8" s="2" customFormat="1">
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="5:8" s="2" customFormat="1">
+    <row r="397" spans="8:8" s="2" customFormat="1">
       <c r="H397" s="7"/>
     </row>
-    <row r="398" spans="5:8" s="2" customFormat="1">
+    <row r="398" spans="8:8" s="2" customFormat="1">
       <c r="H398" s="7"/>
     </row>
-    <row r="399" spans="5:8" s="2" customFormat="1">
+    <row r="399" spans="8:8" s="2" customFormat="1">
       <c r="H399" s="7"/>
     </row>
-    <row r="400" spans="5:8" s="2" customFormat="1">
+    <row r="400" spans="8:8" s="2" customFormat="1">
       <c r="H400" s="7"/>
     </row>
     <row r="401" spans="8:8" s="2" customFormat="1">
@@ -4795,8 +4207,8 @@
     <row r="452" spans="8:8" s="2" customFormat="1">
       <c r="H452" s="7"/>
     </row>
-    <row r="453" spans="8:8" s="2" customFormat="1">
-      <c r="H453" s="7"/>
+    <row r="453" spans="8:8" s="11" customFormat="1">
+      <c r="H453" s="24"/>
     </row>
     <row r="454" spans="8:8" s="2" customFormat="1">
       <c r="H454" s="7"/>
@@ -4885,8 +4297,8 @@
     <row r="482" spans="8:8" s="2" customFormat="1">
       <c r="H482" s="7"/>
     </row>
-    <row r="483" spans="8:8" s="11" customFormat="1">
-      <c r="H483" s="24"/>
+    <row r="483" spans="8:8" s="2" customFormat="1">
+      <c r="H483" s="7"/>
     </row>
     <row r="484" spans="8:8" s="2" customFormat="1">
       <c r="H484" s="7"/>
@@ -4933,8 +4345,8 @@
     <row r="498" spans="8:8" s="2" customFormat="1">
       <c r="H498" s="7"/>
     </row>
-    <row r="499" spans="8:8" s="2" customFormat="1">
-      <c r="H499" s="7"/>
+    <row r="499" spans="8:8" s="11" customFormat="1">
+      <c r="H499" s="24"/>
     </row>
     <row r="500" spans="8:8" s="2" customFormat="1">
       <c r="H500" s="7"/>
@@ -4948,8 +4360,8 @@
     <row r="503" spans="8:8" s="2" customFormat="1">
       <c r="H503" s="7"/>
     </row>
-    <row r="504" spans="8:8" s="2" customFormat="1">
-      <c r="H504" s="7"/>
+    <row r="504" spans="8:8" s="11" customFormat="1">
+      <c r="H504" s="24"/>
     </row>
     <row r="505" spans="8:8" s="2" customFormat="1">
       <c r="H505" s="7"/>
@@ -4963,8 +4375,8 @@
     <row r="508" spans="8:8" s="2" customFormat="1">
       <c r="H508" s="7"/>
     </row>
-    <row r="509" spans="8:8" s="2" customFormat="1">
-      <c r="H509" s="7"/>
+    <row r="509" spans="8:8" s="11" customFormat="1">
+      <c r="H509" s="24"/>
     </row>
     <row r="510" spans="8:8" s="2" customFormat="1">
       <c r="H510" s="7"/>
@@ -4978,8 +4390,8 @@
     <row r="513" spans="8:8" s="2" customFormat="1">
       <c r="H513" s="7"/>
     </row>
-    <row r="514" spans="8:8" s="2" customFormat="1">
-      <c r="H514" s="7"/>
+    <row r="514" spans="8:8" s="11" customFormat="1">
+      <c r="H514" s="24"/>
     </row>
     <row r="515" spans="8:8" s="2" customFormat="1">
       <c r="H515" s="7"/>
@@ -4993,8 +4405,8 @@
     <row r="518" spans="8:8" s="2" customFormat="1">
       <c r="H518" s="7"/>
     </row>
-    <row r="519" spans="8:8" s="2" customFormat="1">
-      <c r="H519" s="7"/>
+    <row r="519" spans="8:8" s="11" customFormat="1">
+      <c r="H519" s="24"/>
     </row>
     <row r="520" spans="8:8" s="2" customFormat="1">
       <c r="H520" s="7"/>
@@ -5008,8 +4420,8 @@
     <row r="523" spans="8:8" s="2" customFormat="1">
       <c r="H523" s="7"/>
     </row>
-    <row r="524" spans="8:8" s="2" customFormat="1">
-      <c r="H524" s="7"/>
+    <row r="524" spans="8:8" s="11" customFormat="1">
+      <c r="H524" s="24"/>
     </row>
     <row r="525" spans="8:8" s="2" customFormat="1">
       <c r="H525" s="7"/>
@@ -5023,100 +4435,116 @@
     <row r="528" spans="8:8" s="2" customFormat="1">
       <c r="H528" s="7"/>
     </row>
-    <row r="529" spans="8:8" s="11" customFormat="1">
+    <row r="529" spans="3:8" s="11" customFormat="1">
       <c r="H529" s="24"/>
     </row>
-    <row r="530" spans="8:8" s="2" customFormat="1">
+    <row r="530" spans="3:8" s="2" customFormat="1">
       <c r="H530" s="7"/>
     </row>
-    <row r="531" spans="8:8" s="2" customFormat="1">
+    <row r="531" spans="3:8" s="2" customFormat="1">
       <c r="H531" s="7"/>
     </row>
-    <row r="532" spans="8:8" s="2" customFormat="1">
+    <row r="532" spans="3:8" s="2" customFormat="1">
       <c r="H532" s="7"/>
     </row>
-    <row r="533" spans="8:8" s="2" customFormat="1">
+    <row r="533" spans="3:8" s="2" customFormat="1">
       <c r="H533" s="7"/>
     </row>
-    <row r="534" spans="8:8" s="11" customFormat="1">
+    <row r="534" spans="3:8" s="11" customFormat="1">
       <c r="H534" s="24"/>
     </row>
-    <row r="535" spans="8:8" s="2" customFormat="1">
+    <row r="535" spans="3:8" s="2" customFormat="1">
       <c r="H535" s="7"/>
     </row>
-    <row r="536" spans="8:8" s="2" customFormat="1">
+    <row r="536" spans="3:8" s="2" customFormat="1">
       <c r="H536" s="7"/>
     </row>
-    <row r="537" spans="8:8" s="2" customFormat="1">
+    <row r="537" spans="3:8" s="2" customFormat="1">
       <c r="H537" s="7"/>
     </row>
-    <row r="538" spans="8:8" s="2" customFormat="1">
+    <row r="538" spans="3:8" s="2" customFormat="1">
       <c r="H538" s="7"/>
     </row>
-    <row r="539" spans="8:8" s="11" customFormat="1">
+    <row r="539" spans="3:8" s="11" customFormat="1">
       <c r="H539" s="24"/>
     </row>
-    <row r="540" spans="8:8" s="2" customFormat="1">
+    <row r="540" spans="3:8" s="2" customFormat="1">
       <c r="H540" s="7"/>
     </row>
-    <row r="541" spans="8:8" s="2" customFormat="1">
+    <row r="541" spans="3:8" s="2" customFormat="1">
       <c r="H541" s="7"/>
     </row>
-    <row r="542" spans="8:8" s="2" customFormat="1">
+    <row r="542" spans="3:8" s="2" customFormat="1">
       <c r="H542" s="7"/>
     </row>
-    <row r="543" spans="8:8" s="2" customFormat="1">
+    <row r="543" spans="3:8" s="2" customFormat="1">
       <c r="H543" s="7"/>
     </row>
-    <row r="544" spans="8:8" s="11" customFormat="1">
+    <row r="544" spans="3:8" s="11" customFormat="1">
+      <c r="C544" s="2"/>
+      <c r="D544" s="2"/>
+      <c r="F544" s="2"/>
+      <c r="G544" s="2"/>
       <c r="H544" s="24"/>
     </row>
-    <row r="545" spans="8:8" s="2" customFormat="1">
+    <row r="545" spans="3:8" s="2" customFormat="1">
       <c r="H545" s="7"/>
     </row>
-    <row r="546" spans="8:8" s="2" customFormat="1">
+    <row r="546" spans="3:8" s="2" customFormat="1">
       <c r="H546" s="7"/>
     </row>
-    <row r="547" spans="8:8" s="2" customFormat="1">
+    <row r="547" spans="3:8" s="2" customFormat="1">
       <c r="H547" s="7"/>
     </row>
-    <row r="548" spans="8:8" s="2" customFormat="1">
+    <row r="548" spans="3:8" s="2" customFormat="1">
       <c r="H548" s="7"/>
     </row>
-    <row r="549" spans="8:8" s="11" customFormat="1">
+    <row r="549" spans="3:8" s="11" customFormat="1">
+      <c r="C549" s="2"/>
+      <c r="D549" s="2"/>
+      <c r="F549" s="2"/>
+      <c r="G549" s="2"/>
       <c r="H549" s="24"/>
     </row>
-    <row r="550" spans="8:8" s="2" customFormat="1">
+    <row r="550" spans="3:8" s="2" customFormat="1">
       <c r="H550" s="7"/>
     </row>
-    <row r="551" spans="8:8" s="2" customFormat="1">
+    <row r="551" spans="3:8" s="2" customFormat="1">
       <c r="H551" s="7"/>
     </row>
-    <row r="552" spans="8:8" s="2" customFormat="1">
+    <row r="552" spans="3:8" s="2" customFormat="1">
       <c r="H552" s="7"/>
     </row>
-    <row r="553" spans="8:8" s="2" customFormat="1">
+    <row r="553" spans="3:8" s="2" customFormat="1">
       <c r="H553" s="7"/>
     </row>
-    <row r="554" spans="8:8" s="11" customFormat="1">
+    <row r="554" spans="3:8" s="11" customFormat="1">
+      <c r="C554" s="2"/>
+      <c r="D554" s="2"/>
+      <c r="F554" s="2"/>
+      <c r="G554" s="2"/>
       <c r="H554" s="24"/>
     </row>
-    <row r="555" spans="8:8" s="2" customFormat="1">
+    <row r="555" spans="3:8" s="2" customFormat="1">
       <c r="H555" s="7"/>
     </row>
-    <row r="556" spans="8:8" s="2" customFormat="1">
+    <row r="556" spans="3:8" s="2" customFormat="1">
       <c r="H556" s="7"/>
     </row>
-    <row r="557" spans="8:8" s="2" customFormat="1">
+    <row r="557" spans="3:8" s="2" customFormat="1">
       <c r="H557" s="7"/>
     </row>
-    <row r="558" spans="8:8" s="2" customFormat="1">
+    <row r="558" spans="3:8" s="2" customFormat="1">
       <c r="H558" s="7"/>
     </row>
-    <row r="559" spans="8:8" s="11" customFormat="1">
+    <row r="559" spans="3:8" s="11" customFormat="1">
+      <c r="C559" s="2"/>
+      <c r="D559" s="2"/>
+      <c r="F559" s="2"/>
+      <c r="G559" s="2"/>
       <c r="H559" s="24"/>
     </row>
-    <row r="560" spans="8:8" s="2" customFormat="1">
+    <row r="560" spans="3:8" s="2" customFormat="1">
       <c r="H560" s="7"/>
     </row>
     <row r="561" spans="3:8" s="2" customFormat="1">
@@ -5129,6 +4557,10 @@
       <c r="H563" s="7"/>
     </row>
     <row r="564" spans="3:8" s="11" customFormat="1">
+      <c r="C564" s="2"/>
+      <c r="D564" s="2"/>
+      <c r="F564" s="2"/>
+      <c r="G564" s="2"/>
       <c r="H564" s="24"/>
     </row>
     <row r="565" spans="3:8" s="2" customFormat="1">
@@ -5144,6 +4576,10 @@
       <c r="H568" s="7"/>
     </row>
     <row r="569" spans="3:8" s="11" customFormat="1">
+      <c r="C569" s="2"/>
+      <c r="D569" s="2"/>
+      <c r="F569" s="2"/>
+      <c r="G569" s="2"/>
       <c r="H569" s="24"/>
     </row>
     <row r="570" spans="3:8" s="2" customFormat="1">
@@ -5216,10 +4652,6 @@
       <c r="H588" s="7"/>
     </row>
     <row r="589" spans="3:8" s="11" customFormat="1">
-      <c r="C589" s="2"/>
-      <c r="D589" s="2"/>
-      <c r="F589" s="2"/>
-      <c r="G589" s="2"/>
       <c r="H589" s="24"/>
     </row>
     <row r="590" spans="3:8" s="2" customFormat="1">
@@ -5231,234 +4663,244 @@
     <row r="592" spans="3:8" s="2" customFormat="1">
       <c r="H592" s="7"/>
     </row>
-    <row r="593" spans="3:8" s="2" customFormat="1">
+    <row r="593" spans="8:8" s="2" customFormat="1">
       <c r="H593" s="7"/>
     </row>
-    <row r="594" spans="3:8" s="11" customFormat="1">
-      <c r="C594" s="2"/>
-      <c r="D594" s="2"/>
-      <c r="F594" s="2"/>
-      <c r="G594" s="2"/>
+    <row r="594" spans="8:8" s="11" customFormat="1">
       <c r="H594" s="24"/>
     </row>
-    <row r="595" spans="3:8" s="2" customFormat="1">
+    <row r="595" spans="8:8" s="2" customFormat="1">
       <c r="H595" s="7"/>
     </row>
-    <row r="596" spans="3:8" s="2" customFormat="1">
+    <row r="596" spans="8:8" s="2" customFormat="1">
       <c r="H596" s="7"/>
     </row>
-    <row r="597" spans="3:8" s="2" customFormat="1">
+    <row r="597" spans="8:8" s="2" customFormat="1">
       <c r="H597" s="7"/>
     </row>
-    <row r="598" spans="3:8" s="2" customFormat="1">
+    <row r="598" spans="8:8" s="2" customFormat="1">
       <c r="H598" s="7"/>
     </row>
-    <row r="599" spans="3:8" s="11" customFormat="1">
-      <c r="C599" s="2"/>
-      <c r="D599" s="2"/>
-      <c r="F599" s="2"/>
-      <c r="G599" s="2"/>
+    <row r="599" spans="8:8" s="11" customFormat="1">
       <c r="H599" s="24"/>
     </row>
-    <row r="600" spans="3:8" s="2" customFormat="1">
+    <row r="600" spans="8:8" s="2" customFormat="1">
       <c r="H600" s="7"/>
     </row>
-    <row r="601" spans="3:8" s="2" customFormat="1">
+    <row r="601" spans="8:8" s="2" customFormat="1">
       <c r="H601" s="7"/>
     </row>
-    <row r="602" spans="3:8" s="2" customFormat="1">
+    <row r="602" spans="8:8" s="2" customFormat="1">
       <c r="H602" s="7"/>
     </row>
-    <row r="603" spans="3:8" s="2" customFormat="1">
+    <row r="603" spans="8:8" s="2" customFormat="1">
       <c r="H603" s="7"/>
     </row>
-    <row r="604" spans="3:8" s="11" customFormat="1">
-      <c r="C604" s="2"/>
-      <c r="D604" s="2"/>
-      <c r="F604" s="2"/>
-      <c r="G604" s="2"/>
+    <row r="604" spans="8:8" s="11" customFormat="1">
       <c r="H604" s="24"/>
     </row>
-    <row r="605" spans="3:8" s="2" customFormat="1">
+    <row r="605" spans="8:8" s="2" customFormat="1">
       <c r="H605" s="7"/>
     </row>
-    <row r="606" spans="3:8" s="2" customFormat="1">
+    <row r="606" spans="8:8" s="2" customFormat="1">
       <c r="H606" s="7"/>
     </row>
-    <row r="607" spans="3:8" s="2" customFormat="1">
+    <row r="607" spans="8:8" s="2" customFormat="1">
       <c r="H607" s="7"/>
     </row>
-    <row r="608" spans="3:8" s="2" customFormat="1">
+    <row r="608" spans="8:8" s="2" customFormat="1">
       <c r="H608" s="7"/>
     </row>
-    <row r="609" spans="3:8" s="11" customFormat="1">
-      <c r="C609" s="2"/>
-      <c r="D609" s="2"/>
-      <c r="F609" s="2"/>
-      <c r="G609" s="2"/>
+    <row r="609" spans="8:8" s="11" customFormat="1">
       <c r="H609" s="24"/>
     </row>
-    <row r="610" spans="3:8" s="2" customFormat="1">
+    <row r="610" spans="8:8" s="2" customFormat="1">
       <c r="H610" s="7"/>
     </row>
-    <row r="611" spans="3:8" s="2" customFormat="1">
+    <row r="611" spans="8:8" s="2" customFormat="1">
       <c r="H611" s="7"/>
     </row>
-    <row r="612" spans="3:8" s="2" customFormat="1">
+    <row r="612" spans="8:8" s="2" customFormat="1">
       <c r="H612" s="7"/>
     </row>
-    <row r="613" spans="3:8" s="2" customFormat="1">
+    <row r="613" spans="8:8" s="2" customFormat="1">
       <c r="H613" s="7"/>
     </row>
-    <row r="614" spans="3:8" s="11" customFormat="1">
-      <c r="C614" s="2"/>
-      <c r="D614" s="2"/>
-      <c r="F614" s="2"/>
-      <c r="G614" s="2"/>
+    <row r="614" spans="8:8" s="11" customFormat="1">
       <c r="H614" s="24"/>
     </row>
-    <row r="615" spans="3:8" s="2" customFormat="1">
+    <row r="615" spans="8:8" s="2" customFormat="1">
       <c r="H615" s="7"/>
     </row>
-    <row r="616" spans="3:8" s="2" customFormat="1">
+    <row r="616" spans="8:8" s="2" customFormat="1">
       <c r="H616" s="7"/>
     </row>
-    <row r="617" spans="3:8" s="2" customFormat="1">
+    <row r="617" spans="8:8" s="2" customFormat="1">
       <c r="H617" s="7"/>
     </row>
-    <row r="618" spans="3:8" s="2" customFormat="1">
+    <row r="618" spans="8:8" s="2" customFormat="1">
       <c r="H618" s="7"/>
     </row>
-    <row r="619" spans="3:8" s="11" customFormat="1">
-      <c r="H619" s="24"/>
-    </row>
-    <row r="620" spans="3:8" s="2" customFormat="1">
-      <c r="H620" s="7"/>
-    </row>
-    <row r="621" spans="3:8" s="2" customFormat="1">
+    <row r="619" spans="8:8" s="2" customFormat="1">
+      <c r="H619" s="7"/>
+    </row>
+    <row r="620" spans="8:8" s="11" customFormat="1">
+      <c r="H620" s="24"/>
+    </row>
+    <row r="621" spans="8:8" s="2" customFormat="1">
       <c r="H621" s="7"/>
     </row>
-    <row r="622" spans="3:8" s="2" customFormat="1">
+    <row r="622" spans="8:8" s="2" customFormat="1">
       <c r="H622" s="7"/>
     </row>
-    <row r="623" spans="3:8" s="2" customFormat="1">
+    <row r="623" spans="8:8" s="2" customFormat="1">
       <c r="H623" s="7"/>
     </row>
-    <row r="624" spans="3:8" s="11" customFormat="1">
-      <c r="H624" s="24"/>
-    </row>
-    <row r="625" spans="8:8" s="2" customFormat="1">
+    <row r="624" spans="8:8" s="2" customFormat="1">
+      <c r="H624" s="7"/>
+    </row>
+    <row r="625" spans="7:8" s="2" customFormat="1">
       <c r="H625" s="7"/>
     </row>
-    <row r="626" spans="8:8" s="2" customFormat="1">
-      <c r="H626" s="7"/>
-    </row>
-    <row r="627" spans="8:8" s="2" customFormat="1">
+    <row r="626" spans="7:8" s="11" customFormat="1">
+      <c r="H626" s="24"/>
+    </row>
+    <row r="627" spans="7:8" s="2" customFormat="1">
       <c r="H627" s="7"/>
     </row>
-    <row r="628" spans="8:8" s="2" customFormat="1">
+    <row r="628" spans="7:8" s="2" customFormat="1">
       <c r="H628" s="7"/>
     </row>
-    <row r="629" spans="8:8" s="11" customFormat="1">
-      <c r="H629" s="24"/>
-    </row>
-    <row r="630" spans="8:8" s="2" customFormat="1">
+    <row r="629" spans="7:8" s="2" customFormat="1">
+      <c r="H629" s="7"/>
+    </row>
+    <row r="630" spans="7:8" s="2" customFormat="1">
       <c r="H630" s="7"/>
     </row>
-    <row r="631" spans="8:8" s="2" customFormat="1">
+    <row r="631" spans="7:8" s="2" customFormat="1">
       <c r="H631" s="7"/>
     </row>
-    <row r="632" spans="8:8" s="2" customFormat="1">
-      <c r="H632" s="7"/>
-    </row>
-    <row r="633" spans="8:8" s="2" customFormat="1">
-      <c r="H633" s="7"/>
-    </row>
-    <row r="634" spans="8:8" s="11" customFormat="1">
+    <row r="632" spans="7:8" s="11" customFormat="1">
+      <c r="H632" s="24"/>
+    </row>
+    <row r="633" spans="7:8" s="11" customFormat="1">
+      <c r="G633" s="2"/>
+      <c r="H633" s="24"/>
+    </row>
+    <row r="634" spans="7:8" s="11" customFormat="1">
+      <c r="G634" s="2"/>
       <c r="H634" s="24"/>
     </row>
-    <row r="635" spans="8:8" s="2" customFormat="1">
-      <c r="H635" s="7"/>
-    </row>
-    <row r="636" spans="8:8" s="2" customFormat="1">
-      <c r="H636" s="7"/>
-    </row>
-    <row r="637" spans="8:8" s="2" customFormat="1">
-      <c r="H637" s="7"/>
-    </row>
-    <row r="638" spans="8:8" s="2" customFormat="1">
-      <c r="H638" s="7"/>
-    </row>
-    <row r="639" spans="8:8" s="11" customFormat="1">
+    <row r="635" spans="7:8" s="11" customFormat="1">
+      <c r="G635" s="2"/>
+      <c r="H635" s="24"/>
+    </row>
+    <row r="636" spans="7:8" s="11" customFormat="1">
+      <c r="G636" s="2"/>
+      <c r="H636" s="24"/>
+    </row>
+    <row r="637" spans="7:8" s="11" customFormat="1">
+      <c r="G637" s="2"/>
+      <c r="H637" s="24"/>
+    </row>
+    <row r="638" spans="7:8" s="11" customFormat="1">
+      <c r="G638" s="2"/>
+      <c r="H638" s="24"/>
+    </row>
+    <row r="639" spans="7:8" s="11" customFormat="1">
+      <c r="G639" s="2"/>
       <c r="H639" s="24"/>
     </row>
-    <row r="640" spans="8:8" s="2" customFormat="1">
-      <c r="H640" s="7"/>
-    </row>
-    <row r="641" spans="8:8" s="2" customFormat="1">
-      <c r="H641" s="7"/>
-    </row>
-    <row r="642" spans="8:8" s="2" customFormat="1">
-      <c r="H642" s="7"/>
-    </row>
-    <row r="643" spans="8:8" s="2" customFormat="1">
-      <c r="H643" s="7"/>
-    </row>
-    <row r="644" spans="8:8" s="11" customFormat="1">
+    <row r="640" spans="7:8" s="11" customFormat="1">
+      <c r="G640" s="2"/>
+      <c r="H640" s="24"/>
+    </row>
+    <row r="641" spans="7:8" s="11" customFormat="1">
+      <c r="G641" s="2"/>
+      <c r="H641" s="24"/>
+    </row>
+    <row r="642" spans="7:8" s="11" customFormat="1">
+      <c r="G642" s="2"/>
+      <c r="H642" s="24"/>
+    </row>
+    <row r="643" spans="7:8" s="11" customFormat="1">
+      <c r="G643" s="2"/>
+      <c r="H643" s="24"/>
+    </row>
+    <row r="644" spans="7:8" s="11" customFormat="1">
+      <c r="G644" s="2"/>
       <c r="H644" s="24"/>
     </row>
-    <row r="645" spans="8:8" s="2" customFormat="1">
-      <c r="H645" s="7"/>
-    </row>
-    <row r="646" spans="8:8" s="2" customFormat="1">
-      <c r="H646" s="7"/>
-    </row>
-    <row r="647" spans="8:8" s="2" customFormat="1">
-      <c r="H647" s="7"/>
-    </row>
-    <row r="648" spans="8:8" s="2" customFormat="1">
-      <c r="H648" s="7"/>
-    </row>
-    <row r="649" spans="8:8" s="2" customFormat="1">
-      <c r="H649" s="7"/>
-    </row>
-    <row r="650" spans="8:8" s="11" customFormat="1">
+    <row r="645" spans="7:8" s="11" customFormat="1">
+      <c r="G645" s="2"/>
+      <c r="H645" s="24"/>
+    </row>
+    <row r="646" spans="7:8" s="11" customFormat="1">
+      <c r="G646" s="2"/>
+      <c r="H646" s="24"/>
+    </row>
+    <row r="647" spans="7:8" s="11" customFormat="1">
+      <c r="G647" s="2"/>
+      <c r="H647" s="24"/>
+    </row>
+    <row r="648" spans="7:8" s="11" customFormat="1">
+      <c r="G648" s="2"/>
+      <c r="H648" s="24"/>
+    </row>
+    <row r="649" spans="7:8" s="11" customFormat="1">
+      <c r="G649" s="2"/>
+      <c r="H649" s="24"/>
+    </row>
+    <row r="650" spans="7:8" s="11" customFormat="1">
+      <c r="G650" s="2"/>
       <c r="H650" s="24"/>
     </row>
-    <row r="651" spans="8:8" s="2" customFormat="1">
-      <c r="H651" s="7"/>
-    </row>
-    <row r="652" spans="8:8" s="2" customFormat="1">
-      <c r="H652" s="7"/>
-    </row>
-    <row r="653" spans="8:8" s="2" customFormat="1">
-      <c r="H653" s="7"/>
-    </row>
-    <row r="654" spans="8:8" s="2" customFormat="1">
-      <c r="H654" s="7"/>
-    </row>
-    <row r="655" spans="8:8" s="2" customFormat="1">
-      <c r="H655" s="7"/>
-    </row>
-    <row r="656" spans="8:8" s="11" customFormat="1">
+    <row r="651" spans="7:8" s="11" customFormat="1">
+      <c r="G651" s="2"/>
+      <c r="H651" s="24"/>
+    </row>
+    <row r="652" spans="7:8" s="11" customFormat="1">
+      <c r="G652" s="2"/>
+      <c r="H652" s="24"/>
+    </row>
+    <row r="653" spans="7:8" s="11" customFormat="1">
+      <c r="G653" s="2"/>
+      <c r="H653" s="24"/>
+    </row>
+    <row r="654" spans="7:8" s="11" customFormat="1">
+      <c r="G654" s="2"/>
+      <c r="H654" s="24"/>
+    </row>
+    <row r="655" spans="7:8" s="11" customFormat="1">
+      <c r="G655" s="2"/>
+      <c r="H655" s="24"/>
+    </row>
+    <row r="656" spans="7:8" s="11" customFormat="1">
+      <c r="G656" s="2"/>
       <c r="H656" s="24"/>
     </row>
-    <row r="657" spans="7:8" s="2" customFormat="1">
-      <c r="H657" s="7"/>
-    </row>
-    <row r="658" spans="7:8" s="2" customFormat="1">
-      <c r="H658" s="7"/>
-    </row>
-    <row r="659" spans="7:8" s="2" customFormat="1">
-      <c r="H659" s="7"/>
-    </row>
-    <row r="660" spans="7:8" s="2" customFormat="1">
-      <c r="H660" s="7"/>
-    </row>
-    <row r="661" spans="7:8" s="2" customFormat="1">
-      <c r="H661" s="7"/>
+    <row r="657" spans="7:8" s="11" customFormat="1">
+      <c r="G657" s="2"/>
+      <c r="H657" s="24"/>
+    </row>
+    <row r="658" spans="7:8" s="11" customFormat="1">
+      <c r="G658" s="2"/>
+      <c r="H658" s="24"/>
+    </row>
+    <row r="659" spans="7:8" s="11" customFormat="1">
+      <c r="G659" s="2"/>
+      <c r="H659" s="24"/>
+    </row>
+    <row r="660" spans="7:8" s="11" customFormat="1">
+      <c r="G660" s="2"/>
+      <c r="H660" s="24"/>
+    </row>
+    <row r="661" spans="7:8" s="11" customFormat="1">
+      <c r="G661" s="2"/>
+      <c r="H661" s="24"/>
     </row>
     <row r="662" spans="7:8" s="11" customFormat="1">
+      <c r="G662" s="2"/>
       <c r="H662" s="24"/>
     </row>
     <row r="663" spans="7:8" s="11" customFormat="1">
@@ -6141,131 +5583,224 @@
       <c r="G832" s="2"/>
       <c r="H832" s="24"/>
     </row>
-    <row r="833" spans="7:8" s="11" customFormat="1">
-      <c r="G833" s="2"/>
+    <row r="833" spans="3:8" s="11" customFormat="1">
       <c r="H833" s="24"/>
     </row>
-    <row r="834" spans="7:8" s="11" customFormat="1">
-      <c r="G834" s="2"/>
+    <row r="834" spans="3:8" s="11" customFormat="1">
       <c r="H834" s="24"/>
     </row>
-    <row r="835" spans="7:8" s="11" customFormat="1">
-      <c r="G835" s="2"/>
-      <c r="H835" s="24"/>
-    </row>
-    <row r="836" spans="7:8" s="11" customFormat="1">
-      <c r="G836" s="2"/>
-      <c r="H836" s="24"/>
-    </row>
-    <row r="837" spans="7:8" s="11" customFormat="1">
-      <c r="G837" s="2"/>
-      <c r="H837" s="24"/>
-    </row>
-    <row r="838" spans="7:8" s="11" customFormat="1">
-      <c r="G838" s="2"/>
-      <c r="H838" s="24"/>
-    </row>
-    <row r="839" spans="7:8" s="11" customFormat="1">
-      <c r="G839" s="2"/>
-      <c r="H839" s="24"/>
-    </row>
-    <row r="840" spans="7:8" s="11" customFormat="1">
-      <c r="G840" s="2"/>
-      <c r="H840" s="24"/>
-    </row>
-    <row r="841" spans="7:8" s="11" customFormat="1">
-      <c r="G841" s="2"/>
-      <c r="H841" s="24"/>
-    </row>
-    <row r="842" spans="7:8" s="11" customFormat="1">
-      <c r="G842" s="2"/>
-      <c r="H842" s="24"/>
-    </row>
-    <row r="843" spans="7:8" s="11" customFormat="1">
-      <c r="G843" s="2"/>
-      <c r="H843" s="24"/>
-    </row>
-    <row r="844" spans="7:8" s="11" customFormat="1">
-      <c r="G844" s="2"/>
-      <c r="H844" s="24"/>
-    </row>
-    <row r="845" spans="7:8" s="11" customFormat="1">
-      <c r="G845" s="2"/>
-      <c r="H845" s="24"/>
-    </row>
-    <row r="846" spans="7:8" s="11" customFormat="1">
-      <c r="G846" s="2"/>
-      <c r="H846" s="24"/>
-    </row>
-    <row r="847" spans="7:8" s="11" customFormat="1">
-      <c r="G847" s="2"/>
-      <c r="H847" s="24"/>
-    </row>
-    <row r="848" spans="7:8" s="11" customFormat="1">
-      <c r="G848" s="2"/>
-      <c r="H848" s="24"/>
-    </row>
-    <row r="849" spans="7:8" s="11" customFormat="1">
-      <c r="G849" s="2"/>
-      <c r="H849" s="24"/>
-    </row>
-    <row r="850" spans="7:8" s="11" customFormat="1">
-      <c r="G850" s="2"/>
-      <c r="H850" s="24"/>
-    </row>
-    <row r="851" spans="7:8" s="11" customFormat="1">
-      <c r="G851" s="2"/>
-      <c r="H851" s="24"/>
-    </row>
-    <row r="852" spans="7:8" s="11" customFormat="1">
-      <c r="G852" s="2"/>
-      <c r="H852" s="24"/>
-    </row>
-    <row r="853" spans="7:8" s="11" customFormat="1">
-      <c r="G853" s="2"/>
-      <c r="H853" s="24"/>
-    </row>
-    <row r="854" spans="7:8" s="11" customFormat="1">
-      <c r="G854" s="2"/>
-      <c r="H854" s="24"/>
-    </row>
-    <row r="855" spans="7:8" s="11" customFormat="1">
-      <c r="G855" s="2"/>
-      <c r="H855" s="24"/>
-    </row>
-    <row r="856" spans="7:8" s="11" customFormat="1">
-      <c r="G856" s="2"/>
-      <c r="H856" s="24"/>
-    </row>
-    <row r="857" spans="7:8" s="11" customFormat="1">
-      <c r="G857" s="2"/>
-      <c r="H857" s="24"/>
-    </row>
-    <row r="858" spans="7:8" s="11" customFormat="1">
-      <c r="G858" s="2"/>
-      <c r="H858" s="24"/>
-    </row>
-    <row r="859" spans="7:8" s="11" customFormat="1">
-      <c r="G859" s="2"/>
-      <c r="H859" s="24"/>
-    </row>
-    <row r="860" spans="7:8" s="11" customFormat="1">
-      <c r="G860" s="2"/>
+    <row r="835" spans="3:8" s="2" customFormat="1">
+      <c r="C835" s="11"/>
+      <c r="D835" s="11"/>
+      <c r="E835" s="11"/>
+      <c r="F835" s="11"/>
+      <c r="G835" s="11"/>
+      <c r="H835" s="7"/>
+    </row>
+    <row r="836" spans="3:8" s="2" customFormat="1">
+      <c r="C836" s="11"/>
+      <c r="D836" s="11"/>
+      <c r="E836" s="11"/>
+      <c r="F836" s="11"/>
+      <c r="G836" s="11"/>
+      <c r="H836" s="7"/>
+    </row>
+    <row r="837" spans="3:8" s="2" customFormat="1">
+      <c r="C837" s="11"/>
+      <c r="D837" s="11"/>
+      <c r="E837" s="11"/>
+      <c r="F837" s="11"/>
+      <c r="G837" s="11"/>
+      <c r="H837" s="7"/>
+    </row>
+    <row r="838" spans="3:8" s="2" customFormat="1">
+      <c r="C838" s="11"/>
+      <c r="D838" s="11"/>
+      <c r="E838" s="11"/>
+      <c r="F838" s="11"/>
+      <c r="G838" s="11"/>
+      <c r="H838" s="7"/>
+    </row>
+    <row r="839" spans="3:8" s="2" customFormat="1">
+      <c r="C839" s="11"/>
+      <c r="D839" s="11"/>
+      <c r="E839" s="11"/>
+      <c r="F839" s="11"/>
+      <c r="G839" s="11"/>
+      <c r="H839" s="7"/>
+    </row>
+    <row r="840" spans="3:8" s="2" customFormat="1">
+      <c r="C840" s="11"/>
+      <c r="D840" s="11"/>
+      <c r="E840" s="11"/>
+      <c r="F840" s="11"/>
+      <c r="G840" s="11"/>
+      <c r="H840" s="7"/>
+    </row>
+    <row r="841" spans="3:8" s="2" customFormat="1">
+      <c r="C841" s="11"/>
+      <c r="D841" s="11"/>
+      <c r="E841" s="11"/>
+      <c r="F841" s="11"/>
+      <c r="G841" s="11"/>
+      <c r="H841" s="7"/>
+    </row>
+    <row r="842" spans="3:8" s="2" customFormat="1">
+      <c r="C842" s="11"/>
+      <c r="D842" s="11"/>
+      <c r="E842" s="11"/>
+      <c r="F842" s="11"/>
+      <c r="G842" s="11"/>
+      <c r="H842" s="7"/>
+    </row>
+    <row r="843" spans="3:8" s="2" customFormat="1">
+      <c r="C843" s="11"/>
+      <c r="D843" s="11"/>
+      <c r="E843" s="11"/>
+      <c r="F843" s="11"/>
+      <c r="G843" s="11"/>
+      <c r="H843" s="7"/>
+    </row>
+    <row r="844" spans="3:8" s="2" customFormat="1">
+      <c r="C844" s="11"/>
+      <c r="D844" s="11"/>
+      <c r="E844" s="11"/>
+      <c r="F844" s="11"/>
+      <c r="G844" s="11"/>
+      <c r="H844" s="7"/>
+    </row>
+    <row r="845" spans="3:8" s="2" customFormat="1">
+      <c r="C845" s="11"/>
+      <c r="D845" s="11"/>
+      <c r="E845" s="11"/>
+      <c r="F845" s="11"/>
+      <c r="G845" s="11"/>
+      <c r="H845" s="7"/>
+    </row>
+    <row r="846" spans="3:8" s="2" customFormat="1">
+      <c r="C846" s="11"/>
+      <c r="D846" s="11"/>
+      <c r="E846" s="11"/>
+      <c r="F846" s="11"/>
+      <c r="G846" s="11"/>
+      <c r="H846" s="7"/>
+    </row>
+    <row r="847" spans="3:8" s="2" customFormat="1">
+      <c r="C847" s="11"/>
+      <c r="D847" s="11"/>
+      <c r="E847" s="11"/>
+      <c r="F847" s="11"/>
+      <c r="G847" s="11"/>
+      <c r="H847" s="7"/>
+    </row>
+    <row r="848" spans="3:8" s="2" customFormat="1">
+      <c r="C848" s="11"/>
+      <c r="D848" s="11"/>
+      <c r="E848" s="11"/>
+      <c r="F848" s="11"/>
+      <c r="G848" s="11"/>
+      <c r="H848" s="7"/>
+    </row>
+    <row r="849" spans="3:8" s="2" customFormat="1">
+      <c r="C849" s="11"/>
+      <c r="D849" s="11"/>
+      <c r="E849" s="11"/>
+      <c r="F849" s="11"/>
+      <c r="G849" s="11"/>
+      <c r="H849" s="7"/>
+    </row>
+    <row r="850" spans="3:8" s="2" customFormat="1">
+      <c r="C850" s="11"/>
+      <c r="D850" s="11"/>
+      <c r="E850" s="11"/>
+      <c r="F850" s="11"/>
+      <c r="H850" s="7"/>
+    </row>
+    <row r="851" spans="3:8" s="2" customFormat="1">
+      <c r="C851" s="11"/>
+      <c r="D851" s="11"/>
+      <c r="E851" s="11"/>
+      <c r="F851" s="11"/>
+      <c r="H851" s="7"/>
+    </row>
+    <row r="852" spans="3:8" s="2" customFormat="1">
+      <c r="C852" s="11"/>
+      <c r="D852" s="11"/>
+      <c r="E852" s="11"/>
+      <c r="F852" s="11"/>
+      <c r="H852" s="7"/>
+    </row>
+    <row r="853" spans="3:8" s="2" customFormat="1">
+      <c r="C853" s="11"/>
+      <c r="D853" s="11"/>
+      <c r="F853" s="11"/>
+      <c r="H853" s="7"/>
+    </row>
+    <row r="854" spans="3:8" s="2" customFormat="1">
+      <c r="C854" s="11"/>
+      <c r="D854" s="11"/>
+      <c r="F854" s="11"/>
+      <c r="H854" s="7"/>
+    </row>
+    <row r="855" spans="3:8" s="2" customFormat="1">
+      <c r="C855" s="11"/>
+      <c r="D855" s="11"/>
+      <c r="F855" s="11"/>
+      <c r="H855" s="7"/>
+    </row>
+    <row r="856" spans="3:8" s="2" customFormat="1">
+      <c r="C856" s="11"/>
+      <c r="D856" s="11"/>
+      <c r="F856" s="11"/>
+      <c r="H856" s="7"/>
+    </row>
+    <row r="857" spans="3:8" s="2" customFormat="1">
+      <c r="C857" s="11"/>
+      <c r="D857" s="11"/>
+      <c r="F857" s="11"/>
+      <c r="H857" s="7"/>
+    </row>
+    <row r="858" spans="3:8" s="2" customFormat="1">
+      <c r="C858" s="11"/>
+      <c r="D858" s="11"/>
+      <c r="F858" s="11"/>
+      <c r="H858" s="7"/>
+    </row>
+    <row r="859" spans="3:8" s="2" customFormat="1">
+      <c r="C859" s="11"/>
+      <c r="D859" s="11"/>
+      <c r="F859" s="11"/>
+      <c r="H859" s="7"/>
+    </row>
+    <row r="860" spans="3:8" s="11" customFormat="1">
       <c r="H860" s="24"/>
     </row>
-    <row r="861" spans="7:8" s="11" customFormat="1">
-      <c r="G861" s="2"/>
+    <row r="861" spans="3:8" s="11" customFormat="1">
       <c r="H861" s="24"/>
     </row>
-    <row r="862" spans="7:8" s="11" customFormat="1">
-      <c r="G862" s="2"/>
-      <c r="H862" s="24"/>
-    </row>
-    <row r="863" spans="7:8" s="11" customFormat="1">
-      <c r="H863" s="24"/>
-    </row>
-    <row r="864" spans="7:8" s="11" customFormat="1">
-      <c r="H864" s="24"/>
+    <row r="862" spans="3:8" s="2" customFormat="1">
+      <c r="C862" s="11"/>
+      <c r="D862" s="11"/>
+      <c r="E862" s="11"/>
+      <c r="F862" s="11"/>
+      <c r="G862" s="11"/>
+      <c r="H862" s="7"/>
+    </row>
+    <row r="863" spans="3:8" s="2" customFormat="1">
+      <c r="C863" s="11"/>
+      <c r="D863" s="11"/>
+      <c r="E863" s="11"/>
+      <c r="F863" s="11"/>
+      <c r="G863" s="11"/>
+      <c r="H863" s="7"/>
+    </row>
+    <row r="864" spans="3:8" s="2" customFormat="1">
+      <c r="C864" s="11"/>
+      <c r="D864" s="11"/>
+      <c r="E864" s="11"/>
+      <c r="F864" s="11"/>
+      <c r="G864" s="11"/>
+      <c r="H864" s="7"/>
     </row>
     <row r="865" spans="3:8" s="2" customFormat="1">
       <c r="C865" s="11"/>
@@ -6331,21 +5866,11 @@
       <c r="G872" s="11"/>
       <c r="H872" s="7"/>
     </row>
-    <row r="873" spans="3:8" s="2" customFormat="1">
-      <c r="C873" s="11"/>
-      <c r="D873" s="11"/>
-      <c r="E873" s="11"/>
-      <c r="F873" s="11"/>
-      <c r="G873" s="11"/>
-      <c r="H873" s="7"/>
-    </row>
-    <row r="874" spans="3:8" s="2" customFormat="1">
-      <c r="C874" s="11"/>
-      <c r="D874" s="11"/>
-      <c r="E874" s="11"/>
-      <c r="F874" s="11"/>
-      <c r="G874" s="11"/>
-      <c r="H874" s="7"/>
+    <row r="873" spans="3:8" s="11" customFormat="1">
+      <c r="H873" s="24"/>
+    </row>
+    <row r="874" spans="3:8" s="11" customFormat="1">
+      <c r="H874" s="24"/>
     </row>
     <row r="875" spans="3:8" s="2" customFormat="1">
       <c r="C875" s="11"/>
@@ -6392,6 +5917,7 @@
       <c r="D880" s="11"/>
       <c r="E880" s="11"/>
       <c r="F880" s="11"/>
+      <c r="G880" s="11"/>
       <c r="H880" s="7"/>
     </row>
     <row r="881" spans="3:8" s="2" customFormat="1">
@@ -6399,6 +5925,7 @@
       <c r="D881" s="11"/>
       <c r="E881" s="11"/>
       <c r="F881" s="11"/>
+      <c r="G881" s="11"/>
       <c r="H881" s="7"/>
     </row>
     <row r="882" spans="3:8" s="2" customFormat="1">
@@ -6406,49 +5933,44 @@
       <c r="D882" s="11"/>
       <c r="E882" s="11"/>
       <c r="F882" s="11"/>
+      <c r="G882" s="11"/>
       <c r="H882" s="7"/>
     </row>
     <row r="883" spans="3:8" s="2" customFormat="1">
       <c r="C883" s="11"/>
       <c r="D883" s="11"/>
+      <c r="E883" s="11"/>
       <c r="F883" s="11"/>
+      <c r="G883" s="11"/>
       <c r="H883" s="7"/>
     </row>
     <row r="884" spans="3:8" s="2" customFormat="1">
       <c r="C884" s="11"/>
       <c r="D884" s="11"/>
+      <c r="E884" s="11"/>
       <c r="F884" s="11"/>
+      <c r="G884" s="11"/>
       <c r="H884" s="7"/>
     </row>
     <row r="885" spans="3:8" s="2" customFormat="1">
       <c r="C885" s="11"/>
       <c r="D885" s="11"/>
+      <c r="E885" s="11"/>
       <c r="F885" s="11"/>
+      <c r="G885" s="11"/>
       <c r="H885" s="7"/>
     </row>
-    <row r="886" spans="3:8" s="2" customFormat="1">
-      <c r="C886" s="11"/>
-      <c r="D886" s="11"/>
-      <c r="F886" s="11"/>
-      <c r="H886" s="7"/>
-    </row>
-    <row r="887" spans="3:8" s="2" customFormat="1">
-      <c r="C887" s="11"/>
-      <c r="D887" s="11"/>
-      <c r="F887" s="11"/>
-      <c r="H887" s="7"/>
-    </row>
-    <row r="888" spans="3:8" s="2" customFormat="1">
-      <c r="C888" s="11"/>
-      <c r="D888" s="11"/>
-      <c r="F888" s="11"/>
-      <c r="H888" s="7"/>
-    </row>
-    <row r="889" spans="3:8" s="2" customFormat="1">
-      <c r="C889" s="11"/>
-      <c r="D889" s="11"/>
-      <c r="F889" s="11"/>
-      <c r="H889" s="7"/>
+    <row r="886" spans="3:8" s="11" customFormat="1">
+      <c r="H886" s="24"/>
+    </row>
+    <row r="887" spans="3:8" s="11" customFormat="1">
+      <c r="H887" s="24"/>
+    </row>
+    <row r="888" spans="3:8" s="11" customFormat="1">
+      <c r="H888" s="24"/>
+    </row>
+    <row r="889" spans="3:8" s="11" customFormat="1">
+      <c r="H889" s="24"/>
     </row>
     <row r="890" spans="3:8" s="11" customFormat="1">
       <c r="H890" s="24"/>
@@ -6456,225 +5978,115 @@
     <row r="891" spans="3:8" s="11" customFormat="1">
       <c r="H891" s="24"/>
     </row>
-    <row r="892" spans="3:8" s="2" customFormat="1">
-      <c r="C892" s="11"/>
-      <c r="D892" s="11"/>
-      <c r="E892" s="11"/>
-      <c r="F892" s="11"/>
-      <c r="G892" s="11"/>
-      <c r="H892" s="7"/>
-    </row>
-    <row r="893" spans="3:8" s="2" customFormat="1">
-      <c r="C893" s="11"/>
-      <c r="D893" s="11"/>
-      <c r="E893" s="11"/>
-      <c r="F893" s="11"/>
-      <c r="G893" s="11"/>
-      <c r="H893" s="7"/>
-    </row>
-    <row r="894" spans="3:8" s="2" customFormat="1">
-      <c r="C894" s="11"/>
-      <c r="D894" s="11"/>
-      <c r="E894" s="11"/>
-      <c r="F894" s="11"/>
-      <c r="G894" s="11"/>
-      <c r="H894" s="7"/>
-    </row>
-    <row r="895" spans="3:8" s="2" customFormat="1">
-      <c r="C895" s="11"/>
-      <c r="D895" s="11"/>
-      <c r="E895" s="11"/>
-      <c r="F895" s="11"/>
-      <c r="G895" s="11"/>
-      <c r="H895" s="7"/>
-    </row>
-    <row r="896" spans="3:8" s="2" customFormat="1">
-      <c r="C896" s="11"/>
-      <c r="D896" s="11"/>
-      <c r="E896" s="11"/>
-      <c r="F896" s="11"/>
-      <c r="G896" s="11"/>
-      <c r="H896" s="7"/>
-    </row>
-    <row r="897" spans="3:8" s="2" customFormat="1">
-      <c r="C897" s="11"/>
-      <c r="D897" s="11"/>
-      <c r="E897" s="11"/>
-      <c r="F897" s="11"/>
-      <c r="G897" s="11"/>
-      <c r="H897" s="7"/>
-    </row>
-    <row r="898" spans="3:8" s="2" customFormat="1">
-      <c r="C898" s="11"/>
-      <c r="D898" s="11"/>
-      <c r="E898" s="11"/>
-      <c r="F898" s="11"/>
-      <c r="G898" s="11"/>
-      <c r="H898" s="7"/>
-    </row>
-    <row r="899" spans="3:8" s="2" customFormat="1">
-      <c r="C899" s="11"/>
-      <c r="D899" s="11"/>
-      <c r="E899" s="11"/>
-      <c r="F899" s="11"/>
-      <c r="G899" s="11"/>
-      <c r="H899" s="7"/>
-    </row>
-    <row r="900" spans="3:8" s="2" customFormat="1">
-      <c r="C900" s="11"/>
-      <c r="D900" s="11"/>
-      <c r="E900" s="11"/>
-      <c r="F900" s="11"/>
-      <c r="G900" s="11"/>
-      <c r="H900" s="7"/>
-    </row>
-    <row r="901" spans="3:8" s="2" customFormat="1">
-      <c r="C901" s="11"/>
-      <c r="D901" s="11"/>
-      <c r="E901" s="11"/>
-      <c r="F901" s="11"/>
-      <c r="G901" s="11"/>
-      <c r="H901" s="7"/>
-    </row>
-    <row r="902" spans="3:8" s="2" customFormat="1">
-      <c r="C902" s="11"/>
-      <c r="D902" s="11"/>
-      <c r="E902" s="11"/>
-      <c r="F902" s="11"/>
-      <c r="G902" s="11"/>
-      <c r="H902" s="7"/>
-    </row>
-    <row r="903" spans="3:8" s="11" customFormat="1">
+    <row r="892" spans="3:8" s="11" customFormat="1">
+      <c r="H892" s="24"/>
+    </row>
+    <row r="893" spans="3:8" s="11" customFormat="1">
+      <c r="H893" s="24"/>
+    </row>
+    <row r="894" spans="3:8" s="11" customFormat="1">
+      <c r="H894" s="24"/>
+    </row>
+    <row r="895" spans="3:8" s="11" customFormat="1">
+      <c r="H895" s="24"/>
+    </row>
+    <row r="896" spans="3:8" s="11" customFormat="1">
+      <c r="H896" s="24"/>
+    </row>
+    <row r="897" spans="8:8" s="11" customFormat="1">
+      <c r="H897" s="24"/>
+    </row>
+    <row r="898" spans="8:8" s="11" customFormat="1">
+      <c r="H898" s="24"/>
+    </row>
+    <row r="899" spans="8:8" s="11" customFormat="1">
+      <c r="H899" s="24"/>
+    </row>
+    <row r="900" spans="8:8" s="11" customFormat="1">
+      <c r="H900" s="24"/>
+    </row>
+    <row r="901" spans="8:8" s="11" customFormat="1">
+      <c r="H901" s="24"/>
+    </row>
+    <row r="902" spans="8:8" s="11" customFormat="1">
+      <c r="H902" s="24"/>
+    </row>
+    <row r="903" spans="8:8" s="11" customFormat="1">
       <c r="H903" s="24"/>
     </row>
-    <row r="904" spans="3:8" s="11" customFormat="1">
+    <row r="904" spans="8:8" s="11" customFormat="1">
       <c r="H904" s="24"/>
     </row>
-    <row r="905" spans="3:8" s="2" customFormat="1">
-      <c r="C905" s="11"/>
-      <c r="D905" s="11"/>
-      <c r="E905" s="11"/>
-      <c r="F905" s="11"/>
-      <c r="G905" s="11"/>
-      <c r="H905" s="7"/>
-    </row>
-    <row r="906" spans="3:8" s="2" customFormat="1">
-      <c r="C906" s="11"/>
-      <c r="D906" s="11"/>
-      <c r="E906" s="11"/>
-      <c r="F906" s="11"/>
-      <c r="G906" s="11"/>
+    <row r="905" spans="8:8" s="11" customFormat="1">
+      <c r="H905" s="24"/>
+    </row>
+    <row r="906" spans="8:8" s="2" customFormat="1">
       <c r="H906" s="7"/>
     </row>
-    <row r="907" spans="3:8" s="2" customFormat="1">
-      <c r="C907" s="11"/>
-      <c r="D907" s="11"/>
-      <c r="E907" s="11"/>
-      <c r="F907" s="11"/>
-      <c r="G907" s="11"/>
+    <row r="907" spans="8:8" s="2" customFormat="1">
       <c r="H907" s="7"/>
     </row>
-    <row r="908" spans="3:8" s="2" customFormat="1">
-      <c r="C908" s="11"/>
-      <c r="D908" s="11"/>
-      <c r="E908" s="11"/>
-      <c r="F908" s="11"/>
-      <c r="G908" s="11"/>
+    <row r="908" spans="8:8" s="2" customFormat="1">
       <c r="H908" s="7"/>
     </row>
-    <row r="909" spans="3:8" s="2" customFormat="1">
-      <c r="C909" s="11"/>
-      <c r="D909" s="11"/>
-      <c r="E909" s="11"/>
-      <c r="F909" s="11"/>
-      <c r="G909" s="11"/>
+    <row r="909" spans="8:8" s="2" customFormat="1">
       <c r="H909" s="7"/>
     </row>
-    <row r="910" spans="3:8" s="2" customFormat="1">
-      <c r="C910" s="11"/>
-      <c r="D910" s="11"/>
-      <c r="E910" s="11"/>
-      <c r="F910" s="11"/>
-      <c r="G910" s="11"/>
+    <row r="910" spans="8:8" s="2" customFormat="1">
       <c r="H910" s="7"/>
     </row>
-    <row r="911" spans="3:8" s="2" customFormat="1">
-      <c r="C911" s="11"/>
-      <c r="D911" s="11"/>
-      <c r="E911" s="11"/>
-      <c r="F911" s="11"/>
-      <c r="G911" s="11"/>
+    <row r="911" spans="8:8" s="2" customFormat="1">
       <c r="H911" s="7"/>
     </row>
-    <row r="912" spans="3:8" s="2" customFormat="1">
-      <c r="C912" s="11"/>
-      <c r="D912" s="11"/>
-      <c r="E912" s="11"/>
-      <c r="F912" s="11"/>
-      <c r="G912" s="11"/>
+    <row r="912" spans="8:8" s="2" customFormat="1">
       <c r="H912" s="7"/>
     </row>
-    <row r="913" spans="3:8" s="2" customFormat="1">
-      <c r="C913" s="11"/>
-      <c r="D913" s="11"/>
-      <c r="E913" s="11"/>
-      <c r="F913" s="11"/>
-      <c r="G913" s="11"/>
-      <c r="H913" s="7"/>
-    </row>
-    <row r="914" spans="3:8" s="2" customFormat="1">
-      <c r="C914" s="11"/>
-      <c r="D914" s="11"/>
-      <c r="E914" s="11"/>
-      <c r="F914" s="11"/>
-      <c r="G914" s="11"/>
-      <c r="H914" s="7"/>
-    </row>
-    <row r="915" spans="3:8" s="2" customFormat="1">
-      <c r="C915" s="11"/>
-      <c r="D915" s="11"/>
-      <c r="E915" s="11"/>
-      <c r="F915" s="11"/>
-      <c r="G915" s="11"/>
-      <c r="H915" s="7"/>
-    </row>
-    <row r="916" spans="3:8" s="11" customFormat="1">
+    <row r="913" spans="8:8" s="11" customFormat="1">
+      <c r="H913" s="24"/>
+    </row>
+    <row r="914" spans="8:8" s="11" customFormat="1">
+      <c r="H914" s="24"/>
+    </row>
+    <row r="915" spans="8:8" s="11" customFormat="1">
+      <c r="H915" s="24"/>
+    </row>
+    <row r="916" spans="8:8" s="11" customFormat="1">
       <c r="H916" s="24"/>
     </row>
-    <row r="917" spans="3:8" s="11" customFormat="1">
+    <row r="917" spans="8:8" s="11" customFormat="1">
       <c r="H917" s="24"/>
     </row>
-    <row r="918" spans="3:8" s="11" customFormat="1">
+    <row r="918" spans="8:8" s="11" customFormat="1">
       <c r="H918" s="24"/>
     </row>
-    <row r="919" spans="3:8" s="11" customFormat="1">
+    <row r="919" spans="8:8" s="11" customFormat="1">
       <c r="H919" s="24"/>
     </row>
-    <row r="920" spans="3:8" s="11" customFormat="1">
+    <row r="920" spans="8:8" s="11" customFormat="1">
       <c r="H920" s="24"/>
     </row>
-    <row r="921" spans="3:8" s="11" customFormat="1">
+    <row r="921" spans="8:8" s="11" customFormat="1">
       <c r="H921" s="24"/>
     </row>
-    <row r="922" spans="3:8" s="11" customFormat="1">
+    <row r="922" spans="8:8" s="11" customFormat="1">
       <c r="H922" s="24"/>
     </row>
-    <row r="923" spans="3:8" s="11" customFormat="1">
+    <row r="923" spans="8:8" s="11" customFormat="1">
       <c r="H923" s="24"/>
     </row>
-    <row r="924" spans="3:8" s="11" customFormat="1">
+    <row r="924" spans="8:8" s="11" customFormat="1">
       <c r="H924" s="24"/>
     </row>
-    <row r="925" spans="3:8" s="11" customFormat="1">
+    <row r="925" spans="8:8" s="11" customFormat="1">
       <c r="H925" s="24"/>
     </row>
-    <row r="926" spans="3:8" s="11" customFormat="1">
+    <row r="926" spans="8:8" s="11" customFormat="1">
       <c r="H926" s="24"/>
     </row>
-    <row r="927" spans="3:8" s="11" customFormat="1">
+    <row r="927" spans="8:8" s="11" customFormat="1">
       <c r="H927" s="24"/>
     </row>
-    <row r="928" spans="3:8" s="11" customFormat="1">
+    <row r="928" spans="8:8" s="11" customFormat="1">
       <c r="H928" s="24"/>
     </row>
     <row r="929" spans="8:8" s="11" customFormat="1">
@@ -6698,26 +6110,26 @@
     <row r="935" spans="8:8" s="11" customFormat="1">
       <c r="H935" s="24"/>
     </row>
-    <row r="936" spans="8:8" s="2" customFormat="1">
-      <c r="H936" s="7"/>
-    </row>
-    <row r="937" spans="8:8" s="2" customFormat="1">
-      <c r="H937" s="7"/>
-    </row>
-    <row r="938" spans="8:8" s="2" customFormat="1">
-      <c r="H938" s="7"/>
-    </row>
-    <row r="939" spans="8:8" s="2" customFormat="1">
-      <c r="H939" s="7"/>
-    </row>
-    <row r="940" spans="8:8" s="2" customFormat="1">
-      <c r="H940" s="7"/>
-    </row>
-    <row r="941" spans="8:8" s="2" customFormat="1">
-      <c r="H941" s="7"/>
-    </row>
-    <row r="942" spans="8:8" s="2" customFormat="1">
-      <c r="H942" s="7"/>
+    <row r="936" spans="8:8" s="11" customFormat="1">
+      <c r="H936" s="24"/>
+    </row>
+    <row r="937" spans="8:8" s="11" customFormat="1">
+      <c r="H937" s="24"/>
+    </row>
+    <row r="938" spans="8:8" s="11" customFormat="1">
+      <c r="H938" s="24"/>
+    </row>
+    <row r="939" spans="8:8" s="11" customFormat="1">
+      <c r="H939" s="24"/>
+    </row>
+    <row r="940" spans="8:8" s="11" customFormat="1">
+      <c r="H940" s="24"/>
+    </row>
+    <row r="941" spans="8:8" s="11" customFormat="1">
+      <c r="H941" s="24"/>
+    </row>
+    <row r="942" spans="8:8" s="11" customFormat="1">
+      <c r="H942" s="24"/>
     </row>
     <row r="943" spans="8:8" s="11" customFormat="1">
       <c r="H943" s="24"/>
@@ -6768,34 +6180,34 @@
       <c r="H958" s="24"/>
     </row>
     <row r="959" spans="8:8" s="11" customFormat="1">
-      <c r="H959" s="24"/>
+      <c r="H959" s="7"/>
     </row>
     <row r="960" spans="8:8" s="11" customFormat="1">
-      <c r="H960" s="24"/>
+      <c r="H960" s="7"/>
     </row>
     <row r="961" spans="8:8" s="11" customFormat="1">
-      <c r="H961" s="24"/>
-    </row>
-    <row r="962" spans="8:8" s="11" customFormat="1">
-      <c r="H962" s="24"/>
-    </row>
-    <row r="963" spans="8:8" s="11" customFormat="1">
-      <c r="H963" s="24"/>
-    </row>
-    <row r="964" spans="8:8" s="11" customFormat="1">
-      <c r="H964" s="24"/>
-    </row>
-    <row r="965" spans="8:8" s="11" customFormat="1">
-      <c r="H965" s="24"/>
-    </row>
-    <row r="966" spans="8:8" s="11" customFormat="1">
-      <c r="H966" s="24"/>
-    </row>
-    <row r="967" spans="8:8" s="11" customFormat="1">
-      <c r="H967" s="24"/>
-    </row>
-    <row r="968" spans="8:8" s="11" customFormat="1">
-      <c r="H968" s="24"/>
+      <c r="H961" s="7"/>
+    </row>
+    <row r="962" spans="8:8" s="2" customFormat="1">
+      <c r="H962" s="7"/>
+    </row>
+    <row r="963" spans="8:8" s="2" customFormat="1">
+      <c r="H963" s="7"/>
+    </row>
+    <row r="964" spans="8:8" s="2" customFormat="1">
+      <c r="H964" s="7"/>
+    </row>
+    <row r="965" spans="8:8" s="2" customFormat="1">
+      <c r="H965" s="7"/>
+    </row>
+    <row r="966" spans="8:8" s="2" customFormat="1">
+      <c r="H966" s="7"/>
+    </row>
+    <row r="967" spans="8:8" s="2" customFormat="1">
+      <c r="H967" s="7"/>
+    </row>
+    <row r="968" spans="8:8" s="2" customFormat="1">
+      <c r="H968" s="7"/>
     </row>
     <row r="969" spans="8:8" s="11" customFormat="1">
       <c r="H969" s="24"/>
@@ -6858,112 +6270,128 @@
       <c r="H988" s="24"/>
     </row>
     <row r="989" spans="8:8" s="11" customFormat="1">
-      <c r="H989" s="7"/>
+      <c r="H989" s="24"/>
     </row>
     <row r="990" spans="8:8" s="11" customFormat="1">
-      <c r="H990" s="7"/>
+      <c r="H990" s="24"/>
     </row>
     <row r="991" spans="8:8" s="11" customFormat="1">
-      <c r="H991" s="7"/>
-    </row>
-    <row r="992" spans="8:8" s="2" customFormat="1">
-      <c r="H992" s="7"/>
-    </row>
-    <row r="993" spans="8:8" s="2" customFormat="1">
-      <c r="H993" s="7"/>
-    </row>
-    <row r="994" spans="8:8" s="2" customFormat="1">
-      <c r="H994" s="7"/>
-    </row>
-    <row r="995" spans="8:8" s="2" customFormat="1">
+      <c r="H991" s="24"/>
+    </row>
+    <row r="992" spans="8:8" s="11" customFormat="1">
+      <c r="H992" s="24"/>
+    </row>
+    <row r="993" spans="7:8" s="11" customFormat="1">
+      <c r="H993" s="24"/>
+    </row>
+    <row r="994" spans="7:8" s="11" customFormat="1">
+      <c r="H994" s="24"/>
+    </row>
+    <row r="995" spans="7:8" s="2" customFormat="1">
+      <c r="G995" s="1"/>
       <c r="H995" s="7"/>
     </row>
-    <row r="996" spans="8:8" s="2" customFormat="1">
+    <row r="996" spans="7:8" s="2" customFormat="1">
+      <c r="G996" s="1"/>
       <c r="H996" s="7"/>
     </row>
-    <row r="997" spans="8:8" s="2" customFormat="1">
+    <row r="997" spans="7:8" s="2" customFormat="1">
+      <c r="G997" s="1"/>
       <c r="H997" s="7"/>
     </row>
-    <row r="998" spans="8:8" s="2" customFormat="1">
+    <row r="998" spans="7:8" s="2" customFormat="1">
+      <c r="G998" s="1"/>
       <c r="H998" s="7"/>
     </row>
-    <row r="999" spans="8:8" s="11" customFormat="1">
-      <c r="H999" s="24"/>
-    </row>
-    <row r="1000" spans="8:8" s="11" customFormat="1">
-      <c r="H1000" s="24"/>
-    </row>
-    <row r="1001" spans="8:8" s="11" customFormat="1">
-      <c r="H1001" s="24"/>
-    </row>
-    <row r="1002" spans="8:8" s="11" customFormat="1">
-      <c r="H1002" s="24"/>
-    </row>
-    <row r="1003" spans="8:8" s="11" customFormat="1">
-      <c r="H1003" s="24"/>
-    </row>
-    <row r="1004" spans="8:8" s="11" customFormat="1">
-      <c r="H1004" s="24"/>
-    </row>
-    <row r="1005" spans="8:8" s="11" customFormat="1">
-      <c r="H1005" s="24"/>
-    </row>
-    <row r="1006" spans="8:8" s="11" customFormat="1">
-      <c r="H1006" s="24"/>
-    </row>
-    <row r="1007" spans="8:8" s="11" customFormat="1">
-      <c r="H1007" s="24"/>
-    </row>
-    <row r="1008" spans="8:8" s="11" customFormat="1">
-      <c r="H1008" s="24"/>
-    </row>
-    <row r="1009" spans="8:8" s="11" customFormat="1">
-      <c r="H1009" s="24"/>
-    </row>
-    <row r="1010" spans="8:8" s="11" customFormat="1">
-      <c r="H1010" s="24"/>
-    </row>
-    <row r="1011" spans="8:8" s="11" customFormat="1">
-      <c r="H1011" s="24"/>
-    </row>
-    <row r="1012" spans="8:8" s="11" customFormat="1">
-      <c r="H1012" s="24"/>
-    </row>
-    <row r="1013" spans="8:8" s="11" customFormat="1">
-      <c r="H1013" s="24"/>
-    </row>
-    <row r="1014" spans="8:8" s="11" customFormat="1">
-      <c r="H1014" s="24"/>
-    </row>
-    <row r="1015" spans="8:8" s="11" customFormat="1">
-      <c r="H1015" s="24"/>
-    </row>
-    <row r="1016" spans="8:8" s="11" customFormat="1">
-      <c r="H1016" s="24"/>
-    </row>
-    <row r="1017" spans="8:8" s="11" customFormat="1">
-      <c r="H1017" s="24"/>
-    </row>
-    <row r="1018" spans="8:8" s="11" customFormat="1">
-      <c r="H1018" s="24"/>
-    </row>
-    <row r="1019" spans="8:8" s="11" customFormat="1">
-      <c r="H1019" s="24"/>
-    </row>
-    <row r="1020" spans="8:8" s="11" customFormat="1">
-      <c r="H1020" s="24"/>
-    </row>
-    <row r="1021" spans="8:8" s="11" customFormat="1">
-      <c r="H1021" s="24"/>
-    </row>
-    <row r="1022" spans="8:8" s="11" customFormat="1">
-      <c r="H1022" s="24"/>
-    </row>
-    <row r="1023" spans="8:8" s="11" customFormat="1">
-      <c r="H1023" s="24"/>
-    </row>
-    <row r="1024" spans="8:8" s="11" customFormat="1">
-      <c r="H1024" s="24"/>
+    <row r="999" spans="7:8" s="2" customFormat="1">
+      <c r="G999" s="1"/>
+      <c r="H999" s="7"/>
+    </row>
+    <row r="1000" spans="7:8" s="2" customFormat="1">
+      <c r="G1000" s="1"/>
+      <c r="H1000" s="7"/>
+    </row>
+    <row r="1001" spans="7:8" s="2" customFormat="1">
+      <c r="G1001" s="1"/>
+      <c r="H1001" s="7"/>
+    </row>
+    <row r="1002" spans="7:8" s="2" customFormat="1">
+      <c r="G1002" s="1"/>
+      <c r="H1002" s="7"/>
+    </row>
+    <row r="1003" spans="7:8" s="2" customFormat="1">
+      <c r="G1003" s="1"/>
+      <c r="H1003" s="7"/>
+    </row>
+    <row r="1004" spans="7:8" s="2" customFormat="1">
+      <c r="G1004" s="1"/>
+      <c r="H1004" s="7"/>
+    </row>
+    <row r="1005" spans="7:8" s="2" customFormat="1">
+      <c r="G1005" s="1"/>
+      <c r="H1005" s="7"/>
+    </row>
+    <row r="1006" spans="7:8" s="2" customFormat="1">
+      <c r="G1006" s="1"/>
+      <c r="H1006" s="7"/>
+    </row>
+    <row r="1007" spans="7:8" s="2" customFormat="1">
+      <c r="G1007" s="1"/>
+      <c r="H1007" s="7"/>
+    </row>
+    <row r="1008" spans="7:8" s="2" customFormat="1">
+      <c r="H1008" s="7"/>
+    </row>
+    <row r="1009" spans="7:8" s="2" customFormat="1">
+      <c r="H1009" s="7"/>
+    </row>
+    <row r="1010" spans="7:8" s="2" customFormat="1">
+      <c r="H1010" s="7"/>
+    </row>
+    <row r="1011" spans="7:8" s="2" customFormat="1">
+      <c r="H1011" s="7"/>
+    </row>
+    <row r="1012" spans="7:8" s="2" customFormat="1">
+      <c r="H1012" s="7"/>
+    </row>
+    <row r="1013" spans="7:8" s="2" customFormat="1">
+      <c r="H1013" s="7"/>
+    </row>
+    <row r="1014" spans="7:8" s="2" customFormat="1">
+      <c r="H1014" s="7"/>
+    </row>
+    <row r="1015" spans="7:8" s="2" customFormat="1">
+      <c r="H1015" s="7"/>
+    </row>
+    <row r="1016" spans="7:8" s="2" customFormat="1">
+      <c r="H1016" s="7"/>
+    </row>
+    <row r="1017" spans="7:8" s="2" customFormat="1">
+      <c r="H1017" s="7"/>
+    </row>
+    <row r="1018" spans="7:8" s="2" customFormat="1">
+      <c r="H1018" s="7"/>
+    </row>
+    <row r="1019" spans="7:8" s="2" customFormat="1">
+      <c r="H1019" s="7"/>
+    </row>
+    <row r="1020" spans="7:8" s="2" customFormat="1">
+      <c r="H1020" s="7"/>
+    </row>
+    <row r="1021" spans="7:8" s="2" customFormat="1">
+      <c r="H1021" s="7"/>
+    </row>
+    <row r="1022" spans="7:8" s="2" customFormat="1">
+      <c r="G1022" s="1"/>
+      <c r="H1022" s="7"/>
+    </row>
+    <row r="1023" spans="7:8" s="2" customFormat="1">
+      <c r="G1023" s="1"/>
+      <c r="H1023" s="7"/>
+    </row>
+    <row r="1024" spans="7:8" s="2" customFormat="1">
+      <c r="G1024" s="1"/>
+      <c r="H1024" s="7"/>
     </row>
     <row r="1025" spans="7:8" s="2" customFormat="1">
       <c r="G1025" s="1"/>
@@ -7018,45 +6446,59 @@
       <c r="H1037" s="7"/>
     </row>
     <row r="1038" spans="7:8" s="2" customFormat="1">
+      <c r="G1038" s="1"/>
       <c r="H1038" s="7"/>
     </row>
     <row r="1039" spans="7:8" s="2" customFormat="1">
+      <c r="G1039" s="1"/>
       <c r="H1039" s="7"/>
     </row>
     <row r="1040" spans="7:8" s="2" customFormat="1">
+      <c r="G1040" s="1"/>
       <c r="H1040" s="7"/>
     </row>
     <row r="1041" spans="7:8" s="2" customFormat="1">
+      <c r="G1041" s="1"/>
       <c r="H1041" s="7"/>
     </row>
     <row r="1042" spans="7:8" s="2" customFormat="1">
+      <c r="G1042" s="1"/>
       <c r="H1042" s="7"/>
     </row>
     <row r="1043" spans="7:8" s="2" customFormat="1">
+      <c r="G1043" s="1"/>
       <c r="H1043" s="7"/>
     </row>
     <row r="1044" spans="7:8" s="2" customFormat="1">
+      <c r="G1044" s="1"/>
       <c r="H1044" s="7"/>
     </row>
     <row r="1045" spans="7:8" s="2" customFormat="1">
+      <c r="G1045" s="1"/>
       <c r="H1045" s="7"/>
     </row>
     <row r="1046" spans="7:8" s="2" customFormat="1">
+      <c r="G1046" s="1"/>
       <c r="H1046" s="7"/>
     </row>
     <row r="1047" spans="7:8" s="2" customFormat="1">
+      <c r="G1047" s="1"/>
       <c r="H1047" s="7"/>
     </row>
     <row r="1048" spans="7:8" s="2" customFormat="1">
+      <c r="G1048" s="1"/>
       <c r="H1048" s="7"/>
     </row>
     <row r="1049" spans="7:8" s="2" customFormat="1">
+      <c r="G1049" s="1"/>
       <c r="H1049" s="7"/>
     </row>
     <row r="1050" spans="7:8" s="2" customFormat="1">
+      <c r="G1050" s="1"/>
       <c r="H1050" s="7"/>
     </row>
     <row r="1051" spans="7:8" s="2" customFormat="1">
+      <c r="G1051" s="1"/>
       <c r="H1051" s="7"/>
     </row>
     <row r="1052" spans="7:8" s="2" customFormat="1">
@@ -7096,59 +6538,45 @@
       <c r="H1060" s="7"/>
     </row>
     <row r="1061" spans="7:8" s="2" customFormat="1">
-      <c r="G1061" s="1"/>
       <c r="H1061" s="7"/>
     </row>
     <row r="1062" spans="7:8" s="2" customFormat="1">
-      <c r="G1062" s="1"/>
       <c r="H1062" s="7"/>
     </row>
     <row r="1063" spans="7:8" s="2" customFormat="1">
-      <c r="G1063" s="1"/>
       <c r="H1063" s="7"/>
     </row>
     <row r="1064" spans="7:8" s="2" customFormat="1">
-      <c r="G1064" s="1"/>
       <c r="H1064" s="7"/>
     </row>
     <row r="1065" spans="7:8" s="2" customFormat="1">
-      <c r="G1065" s="1"/>
       <c r="H1065" s="7"/>
     </row>
     <row r="1066" spans="7:8" s="2" customFormat="1">
-      <c r="G1066" s="1"/>
       <c r="H1066" s="7"/>
     </row>
     <row r="1067" spans="7:8" s="2" customFormat="1">
-      <c r="G1067" s="1"/>
       <c r="H1067" s="7"/>
     </row>
     <row r="1068" spans="7:8" s="2" customFormat="1">
-      <c r="G1068" s="1"/>
       <c r="H1068" s="7"/>
     </row>
     <row r="1069" spans="7:8" s="2" customFormat="1">
-      <c r="G1069" s="1"/>
       <c r="H1069" s="7"/>
     </row>
     <row r="1070" spans="7:8" s="2" customFormat="1">
-      <c r="G1070" s="1"/>
       <c r="H1070" s="7"/>
     </row>
     <row r="1071" spans="7:8" s="2" customFormat="1">
-      <c r="G1071" s="1"/>
       <c r="H1071" s="7"/>
     </row>
     <row r="1072" spans="7:8" s="2" customFormat="1">
-      <c r="G1072" s="1"/>
       <c r="H1072" s="7"/>
     </row>
     <row r="1073" spans="7:8" s="2" customFormat="1">
-      <c r="G1073" s="1"/>
       <c r="H1073" s="7"/>
     </row>
     <row r="1074" spans="7:8" s="2" customFormat="1">
-      <c r="G1074" s="1"/>
       <c r="H1074" s="7"/>
     </row>
     <row r="1075" spans="7:8" s="2" customFormat="1">
@@ -7216,45 +6644,59 @@
       <c r="H1090" s="7"/>
     </row>
     <row r="1091" spans="7:8" s="2" customFormat="1">
+      <c r="G1091" s="1"/>
       <c r="H1091" s="7"/>
     </row>
     <row r="1092" spans="7:8" s="2" customFormat="1">
+      <c r="G1092" s="1"/>
       <c r="H1092" s="7"/>
     </row>
     <row r="1093" spans="7:8" s="2" customFormat="1">
+      <c r="G1093" s="1"/>
       <c r="H1093" s="7"/>
     </row>
     <row r="1094" spans="7:8" s="2" customFormat="1">
+      <c r="G1094" s="1"/>
       <c r="H1094" s="7"/>
     </row>
     <row r="1095" spans="7:8" s="2" customFormat="1">
+      <c r="G1095" s="1"/>
       <c r="H1095" s="7"/>
     </row>
     <row r="1096" spans="7:8" s="2" customFormat="1">
+      <c r="G1096" s="1"/>
       <c r="H1096" s="7"/>
     </row>
     <row r="1097" spans="7:8" s="2" customFormat="1">
+      <c r="G1097" s="1"/>
       <c r="H1097" s="7"/>
     </row>
     <row r="1098" spans="7:8" s="2" customFormat="1">
+      <c r="G1098" s="1"/>
       <c r="H1098" s="7"/>
     </row>
     <row r="1099" spans="7:8" s="2" customFormat="1">
+      <c r="G1099" s="1"/>
       <c r="H1099" s="7"/>
     </row>
     <row r="1100" spans="7:8" s="2" customFormat="1">
+      <c r="G1100" s="1"/>
       <c r="H1100" s="7"/>
     </row>
     <row r="1101" spans="7:8" s="2" customFormat="1">
+      <c r="G1101" s="1"/>
       <c r="H1101" s="7"/>
     </row>
     <row r="1102" spans="7:8" s="2" customFormat="1">
+      <c r="G1102" s="1"/>
       <c r="H1102" s="7"/>
     </row>
     <row r="1103" spans="7:8" s="2" customFormat="1">
+      <c r="G1103" s="1"/>
       <c r="H1103" s="7"/>
     </row>
     <row r="1104" spans="7:8" s="2" customFormat="1">
+      <c r="G1104" s="1"/>
       <c r="H1104" s="7"/>
     </row>
     <row r="1105" spans="7:8" s="2" customFormat="1">
@@ -7294,59 +6736,45 @@
       <c r="H1113" s="7"/>
     </row>
     <row r="1114" spans="7:8" s="2" customFormat="1">
-      <c r="G1114" s="1"/>
       <c r="H1114" s="7"/>
     </row>
     <row r="1115" spans="7:8" s="2" customFormat="1">
-      <c r="G1115" s="1"/>
       <c r="H1115" s="7"/>
     </row>
     <row r="1116" spans="7:8" s="2" customFormat="1">
-      <c r="G1116" s="1"/>
       <c r="H1116" s="7"/>
     </row>
     <row r="1117" spans="7:8" s="2" customFormat="1">
-      <c r="G1117" s="1"/>
       <c r="H1117" s="7"/>
     </row>
     <row r="1118" spans="7:8" s="2" customFormat="1">
-      <c r="G1118" s="1"/>
       <c r="H1118" s="7"/>
     </row>
     <row r="1119" spans="7:8" s="2" customFormat="1">
-      <c r="G1119" s="1"/>
       <c r="H1119" s="7"/>
     </row>
     <row r="1120" spans="7:8" s="2" customFormat="1">
-      <c r="G1120" s="1"/>
       <c r="H1120" s="7"/>
     </row>
     <row r="1121" spans="7:8" s="2" customFormat="1">
-      <c r="G1121" s="1"/>
       <c r="H1121" s="7"/>
     </row>
     <row r="1122" spans="7:8" s="2" customFormat="1">
-      <c r="G1122" s="1"/>
       <c r="H1122" s="7"/>
     </row>
     <row r="1123" spans="7:8" s="2" customFormat="1">
-      <c r="G1123" s="1"/>
       <c r="H1123" s="7"/>
     </row>
     <row r="1124" spans="7:8" s="2" customFormat="1">
-      <c r="G1124" s="1"/>
       <c r="H1124" s="7"/>
     </row>
     <row r="1125" spans="7:8" s="2" customFormat="1">
-      <c r="G1125" s="1"/>
       <c r="H1125" s="7"/>
     </row>
     <row r="1126" spans="7:8" s="2" customFormat="1">
-      <c r="G1126" s="1"/>
       <c r="H1126" s="7"/>
     </row>
     <row r="1127" spans="7:8" s="2" customFormat="1">
-      <c r="G1127" s="1"/>
       <c r="H1127" s="7"/>
     </row>
     <row r="1128" spans="7:8" s="2" customFormat="1">
@@ -7414,45 +6842,59 @@
       <c r="H1143" s="7"/>
     </row>
     <row r="1144" spans="7:8" s="2" customFormat="1">
+      <c r="G1144" s="1"/>
       <c r="H1144" s="7"/>
     </row>
     <row r="1145" spans="7:8" s="2" customFormat="1">
+      <c r="G1145" s="1"/>
       <c r="H1145" s="7"/>
     </row>
     <row r="1146" spans="7:8" s="2" customFormat="1">
+      <c r="G1146" s="1"/>
       <c r="H1146" s="7"/>
     </row>
     <row r="1147" spans="7:8" s="2" customFormat="1">
+      <c r="G1147" s="1"/>
       <c r="H1147" s="7"/>
     </row>
     <row r="1148" spans="7:8" s="2" customFormat="1">
+      <c r="G1148" s="1"/>
       <c r="H1148" s="7"/>
     </row>
     <row r="1149" spans="7:8" s="2" customFormat="1">
+      <c r="G1149" s="1"/>
       <c r="H1149" s="7"/>
     </row>
     <row r="1150" spans="7:8" s="2" customFormat="1">
+      <c r="G1150" s="1"/>
       <c r="H1150" s="7"/>
     </row>
     <row r="1151" spans="7:8" s="2" customFormat="1">
+      <c r="G1151" s="1"/>
       <c r="H1151" s="7"/>
     </row>
     <row r="1152" spans="7:8" s="2" customFormat="1">
+      <c r="G1152" s="1"/>
       <c r="H1152" s="7"/>
     </row>
     <row r="1153" spans="7:8" s="2" customFormat="1">
+      <c r="G1153" s="1"/>
       <c r="H1153" s="7"/>
     </row>
     <row r="1154" spans="7:8" s="2" customFormat="1">
+      <c r="G1154" s="1"/>
       <c r="H1154" s="7"/>
     </row>
     <row r="1155" spans="7:8" s="2" customFormat="1">
+      <c r="G1155" s="1"/>
       <c r="H1155" s="7"/>
     </row>
     <row r="1156" spans="7:8" s="2" customFormat="1">
+      <c r="G1156" s="1"/>
       <c r="H1156" s="7"/>
     </row>
     <row r="1157" spans="7:8" s="2" customFormat="1">
+      <c r="G1157" s="1"/>
       <c r="H1157" s="7"/>
     </row>
     <row r="1158" spans="7:8" s="2" customFormat="1">
@@ -7520,31 +6962,24 @@
       <c r="H1173" s="7"/>
     </row>
     <row r="1174" spans="7:8" s="2" customFormat="1">
-      <c r="G1174" s="1"/>
       <c r="H1174" s="7"/>
     </row>
     <row r="1175" spans="7:8" s="2" customFormat="1">
-      <c r="G1175" s="1"/>
       <c r="H1175" s="7"/>
     </row>
     <row r="1176" spans="7:8" s="2" customFormat="1">
-      <c r="G1176" s="1"/>
       <c r="H1176" s="7"/>
     </row>
     <row r="1177" spans="7:8" s="2" customFormat="1">
-      <c r="G1177" s="1"/>
       <c r="H1177" s="7"/>
     </row>
     <row r="1178" spans="7:8" s="2" customFormat="1">
-      <c r="G1178" s="1"/>
       <c r="H1178" s="7"/>
     </row>
     <row r="1179" spans="7:8" s="2" customFormat="1">
-      <c r="G1179" s="1"/>
       <c r="H1179" s="7"/>
     </row>
     <row r="1180" spans="7:8" s="2" customFormat="1">
-      <c r="G1180" s="1"/>
       <c r="H1180" s="7"/>
     </row>
     <row r="1181" spans="7:8" s="2" customFormat="1">
@@ -7640,24 +7075,31 @@
       <c r="H1203" s="7"/>
     </row>
     <row r="1204" spans="7:8" s="2" customFormat="1">
+      <c r="G1204" s="1"/>
       <c r="H1204" s="7"/>
     </row>
     <row r="1205" spans="7:8" s="2" customFormat="1">
+      <c r="G1205" s="1"/>
       <c r="H1205" s="7"/>
     </row>
     <row r="1206" spans="7:8" s="2" customFormat="1">
+      <c r="G1206" s="1"/>
       <c r="H1206" s="7"/>
     </row>
     <row r="1207" spans="7:8" s="2" customFormat="1">
+      <c r="G1207" s="1"/>
       <c r="H1207" s="7"/>
     </row>
     <row r="1208" spans="7:8" s="2" customFormat="1">
+      <c r="G1208" s="1"/>
       <c r="H1208" s="7"/>
     </row>
     <row r="1209" spans="7:8" s="2" customFormat="1">
+      <c r="G1209" s="1"/>
       <c r="H1209" s="7"/>
     </row>
     <row r="1210" spans="7:8" s="2" customFormat="1">
+      <c r="G1210" s="1"/>
       <c r="H1210" s="7"/>
     </row>
     <row r="1211" spans="7:8" s="2" customFormat="1">
@@ -7697,59 +7139,45 @@
       <c r="H1219" s="7"/>
     </row>
     <row r="1220" spans="7:8" s="2" customFormat="1">
-      <c r="G1220" s="1"/>
       <c r="H1220" s="7"/>
     </row>
     <row r="1221" spans="7:8" s="2" customFormat="1">
-      <c r="G1221" s="1"/>
       <c r="H1221" s="7"/>
     </row>
     <row r="1222" spans="7:8" s="2" customFormat="1">
-      <c r="G1222" s="1"/>
       <c r="H1222" s="7"/>
     </row>
     <row r="1223" spans="7:8" s="2" customFormat="1">
-      <c r="G1223" s="1"/>
       <c r="H1223" s="7"/>
     </row>
     <row r="1224" spans="7:8" s="2" customFormat="1">
-      <c r="G1224" s="1"/>
       <c r="H1224" s="7"/>
     </row>
     <row r="1225" spans="7:8" s="2" customFormat="1">
-      <c r="G1225" s="1"/>
       <c r="H1225" s="7"/>
     </row>
     <row r="1226" spans="7:8" s="2" customFormat="1">
-      <c r="G1226" s="1"/>
       <c r="H1226" s="7"/>
     </row>
     <row r="1227" spans="7:8" s="2" customFormat="1">
-      <c r="G1227" s="1"/>
       <c r="H1227" s="7"/>
     </row>
     <row r="1228" spans="7:8" s="2" customFormat="1">
-      <c r="G1228" s="1"/>
       <c r="H1228" s="7"/>
     </row>
     <row r="1229" spans="7:8" s="2" customFormat="1">
-      <c r="G1229" s="1"/>
       <c r="H1229" s="7"/>
     </row>
     <row r="1230" spans="7:8" s="2" customFormat="1">
-      <c r="G1230" s="1"/>
       <c r="H1230" s="7"/>
     </row>
     <row r="1231" spans="7:8" s="2" customFormat="1">
-      <c r="G1231" s="1"/>
       <c r="H1231" s="7"/>
     </row>
     <row r="1232" spans="7:8" s="2" customFormat="1">
-      <c r="G1232" s="1"/>
       <c r="H1232" s="7"/>
     </row>
     <row r="1233" spans="7:8" s="2" customFormat="1">
-      <c r="G1233" s="1"/>
       <c r="H1233" s="7"/>
     </row>
     <row r="1234" spans="7:8" s="2" customFormat="1">
@@ -7817,45 +7245,59 @@
       <c r="H1249" s="7"/>
     </row>
     <row r="1250" spans="7:8" s="2" customFormat="1">
+      <c r="G1250" s="1"/>
       <c r="H1250" s="7"/>
     </row>
     <row r="1251" spans="7:8" s="2" customFormat="1">
+      <c r="G1251" s="1"/>
       <c r="H1251" s="7"/>
     </row>
     <row r="1252" spans="7:8" s="2" customFormat="1">
+      <c r="G1252" s="1"/>
       <c r="H1252" s="7"/>
     </row>
     <row r="1253" spans="7:8" s="2" customFormat="1">
+      <c r="G1253" s="1"/>
       <c r="H1253" s="7"/>
     </row>
     <row r="1254" spans="7:8" s="2" customFormat="1">
+      <c r="G1254" s="1"/>
       <c r="H1254" s="7"/>
     </row>
     <row r="1255" spans="7:8" s="2" customFormat="1">
+      <c r="G1255" s="1"/>
       <c r="H1255" s="7"/>
     </row>
     <row r="1256" spans="7:8" s="2" customFormat="1">
+      <c r="G1256" s="1"/>
       <c r="H1256" s="7"/>
     </row>
     <row r="1257" spans="7:8" s="2" customFormat="1">
+      <c r="G1257" s="1"/>
       <c r="H1257" s="7"/>
     </row>
     <row r="1258" spans="7:8" s="2" customFormat="1">
+      <c r="G1258" s="1"/>
       <c r="H1258" s="7"/>
     </row>
     <row r="1259" spans="7:8" s="2" customFormat="1">
+      <c r="G1259" s="1"/>
       <c r="H1259" s="7"/>
     </row>
     <row r="1260" spans="7:8" s="2" customFormat="1">
+      <c r="G1260" s="1"/>
       <c r="H1260" s="7"/>
     </row>
     <row r="1261" spans="7:8" s="2" customFormat="1">
+      <c r="G1261" s="1"/>
       <c r="H1261" s="7"/>
     </row>
     <row r="1262" spans="7:8" s="2" customFormat="1">
+      <c r="G1262" s="1"/>
       <c r="H1262" s="7"/>
     </row>
     <row r="1263" spans="7:8" s="2" customFormat="1">
+      <c r="G1263" s="1"/>
       <c r="H1263" s="7"/>
     </row>
     <row r="1264" spans="7:8" s="2" customFormat="1">
@@ -8267,162 +7709,132 @@
       <c r="H1365" s="7"/>
     </row>
     <row r="1366" spans="7:8" s="2" customFormat="1">
-      <c r="G1366" s="1"/>
       <c r="H1366" s="7"/>
     </row>
     <row r="1367" spans="7:8" s="2" customFormat="1">
-      <c r="G1367" s="1"/>
       <c r="H1367" s="7"/>
     </row>
     <row r="1368" spans="7:8" s="2" customFormat="1">
-      <c r="G1368" s="1"/>
       <c r="H1368" s="7"/>
     </row>
     <row r="1369" spans="7:8" s="2" customFormat="1">
-      <c r="G1369" s="1"/>
       <c r="H1369" s="7"/>
     </row>
     <row r="1370" spans="7:8" s="2" customFormat="1">
-      <c r="G1370" s="1"/>
       <c r="H1370" s="7"/>
     </row>
     <row r="1371" spans="7:8" s="2" customFormat="1">
-      <c r="G1371" s="1"/>
       <c r="H1371" s="7"/>
     </row>
     <row r="1372" spans="7:8" s="2" customFormat="1">
-      <c r="G1372" s="1"/>
       <c r="H1372" s="7"/>
     </row>
     <row r="1373" spans="7:8" s="2" customFormat="1">
-      <c r="G1373" s="1"/>
       <c r="H1373" s="7"/>
     </row>
     <row r="1374" spans="7:8" s="2" customFormat="1">
-      <c r="G1374" s="1"/>
       <c r="H1374" s="7"/>
     </row>
     <row r="1375" spans="7:8" s="2" customFormat="1">
-      <c r="G1375" s="1"/>
       <c r="H1375" s="7"/>
     </row>
     <row r="1376" spans="7:8" s="2" customFormat="1">
-      <c r="G1376" s="1"/>
       <c r="H1376" s="7"/>
     </row>
-    <row r="1377" spans="7:8" s="2" customFormat="1">
-      <c r="G1377" s="1"/>
+    <row r="1377" spans="8:8" s="2" customFormat="1">
       <c r="H1377" s="7"/>
     </row>
-    <row r="1378" spans="7:8" s="2" customFormat="1">
-      <c r="G1378" s="1"/>
+    <row r="1378" spans="8:8" s="2" customFormat="1">
       <c r="H1378" s="7"/>
     </row>
-    <row r="1379" spans="7:8" s="2" customFormat="1">
-      <c r="G1379" s="1"/>
+    <row r="1379" spans="8:8" s="2" customFormat="1">
       <c r="H1379" s="7"/>
     </row>
-    <row r="1380" spans="7:8" s="2" customFormat="1">
-      <c r="G1380" s="1"/>
+    <row r="1380" spans="8:8" s="2" customFormat="1">
       <c r="H1380" s="7"/>
     </row>
-    <row r="1381" spans="7:8" s="2" customFormat="1">
-      <c r="G1381" s="1"/>
+    <row r="1381" spans="8:8" s="2" customFormat="1">
       <c r="H1381" s="7"/>
     </row>
-    <row r="1382" spans="7:8" s="2" customFormat="1">
-      <c r="G1382" s="1"/>
+    <row r="1382" spans="8:8" s="2" customFormat="1">
       <c r="H1382" s="7"/>
     </row>
-    <row r="1383" spans="7:8" s="2" customFormat="1">
-      <c r="G1383" s="1"/>
+    <row r="1383" spans="8:8" s="2" customFormat="1">
       <c r="H1383" s="7"/>
     </row>
-    <row r="1384" spans="7:8" s="2" customFormat="1">
-      <c r="G1384" s="1"/>
+    <row r="1384" spans="8:8" s="2" customFormat="1">
       <c r="H1384" s="7"/>
     </row>
-    <row r="1385" spans="7:8" s="2" customFormat="1">
-      <c r="G1385" s="1"/>
+    <row r="1385" spans="8:8" s="2" customFormat="1">
       <c r="H1385" s="7"/>
     </row>
-    <row r="1386" spans="7:8" s="2" customFormat="1">
-      <c r="G1386" s="1"/>
+    <row r="1386" spans="8:8" s="2" customFormat="1">
       <c r="H1386" s="7"/>
     </row>
-    <row r="1387" spans="7:8" s="2" customFormat="1">
-      <c r="G1387" s="1"/>
+    <row r="1387" spans="8:8" s="2" customFormat="1">
       <c r="H1387" s="7"/>
     </row>
-    <row r="1388" spans="7:8" s="2" customFormat="1">
-      <c r="G1388" s="1"/>
+    <row r="1388" spans="8:8" s="2" customFormat="1">
       <c r="H1388" s="7"/>
     </row>
-    <row r="1389" spans="7:8" s="2" customFormat="1">
-      <c r="G1389" s="1"/>
+    <row r="1389" spans="8:8" s="2" customFormat="1">
       <c r="H1389" s="7"/>
     </row>
-    <row r="1390" spans="7:8" s="2" customFormat="1">
-      <c r="G1390" s="1"/>
+    <row r="1390" spans="8:8" s="2" customFormat="1">
       <c r="H1390" s="7"/>
     </row>
-    <row r="1391" spans="7:8" s="2" customFormat="1">
-      <c r="G1391" s="1"/>
+    <row r="1391" spans="8:8" s="2" customFormat="1">
       <c r="H1391" s="7"/>
     </row>
-    <row r="1392" spans="7:8" s="2" customFormat="1">
-      <c r="G1392" s="1"/>
+    <row r="1392" spans="8:8" s="2" customFormat="1">
       <c r="H1392" s="7"/>
     </row>
-    <row r="1393" spans="7:8" s="2" customFormat="1">
-      <c r="G1393" s="1"/>
+    <row r="1393" spans="8:8" s="2" customFormat="1">
       <c r="H1393" s="7"/>
     </row>
-    <row r="1394" spans="7:8" s="2" customFormat="1">
-      <c r="G1394" s="1"/>
+    <row r="1394" spans="8:8" s="2" customFormat="1">
       <c r="H1394" s="7"/>
     </row>
-    <row r="1395" spans="7:8" s="2" customFormat="1">
-      <c r="G1395" s="1"/>
+    <row r="1395" spans="8:8" s="2" customFormat="1">
       <c r="H1395" s="7"/>
     </row>
-    <row r="1396" spans="7:8" s="2" customFormat="1">
+    <row r="1396" spans="8:8" s="2" customFormat="1">
       <c r="H1396" s="7"/>
     </row>
-    <row r="1397" spans="7:8" s="2" customFormat="1">
+    <row r="1397" spans="8:8" s="2" customFormat="1">
       <c r="H1397" s="7"/>
     </row>
-    <row r="1398" spans="7:8" s="2" customFormat="1">
+    <row r="1398" spans="8:8" s="2" customFormat="1">
       <c r="H1398" s="7"/>
     </row>
-    <row r="1399" spans="7:8" s="2" customFormat="1">
+    <row r="1399" spans="8:8" s="2" customFormat="1">
       <c r="H1399" s="7"/>
     </row>
-    <row r="1400" spans="7:8" s="2" customFormat="1">
+    <row r="1400" spans="8:8" s="2" customFormat="1">
       <c r="H1400" s="7"/>
     </row>
-    <row r="1401" spans="7:8" s="2" customFormat="1">
+    <row r="1401" spans="8:8" s="2" customFormat="1">
       <c r="H1401" s="7"/>
     </row>
-    <row r="1402" spans="7:8" s="2" customFormat="1">
+    <row r="1402" spans="8:8" s="2" customFormat="1">
       <c r="H1402" s="7"/>
     </row>
-    <row r="1403" spans="7:8" s="2" customFormat="1">
+    <row r="1403" spans="8:8" s="2" customFormat="1">
       <c r="H1403" s="7"/>
     </row>
-    <row r="1404" spans="7:8" s="2" customFormat="1">
+    <row r="1404" spans="8:8" s="2" customFormat="1">
       <c r="H1404" s="7"/>
     </row>
-    <row r="1405" spans="7:8" s="2" customFormat="1">
+    <row r="1405" spans="8:8" s="2" customFormat="1">
       <c r="H1405" s="7"/>
     </row>
-    <row r="1406" spans="7:8" s="2" customFormat="1">
+    <row r="1406" spans="8:8" s="2" customFormat="1">
       <c r="H1406" s="7"/>
     </row>
-    <row r="1407" spans="7:8" s="2" customFormat="1">
+    <row r="1407" spans="8:8" s="2" customFormat="1">
       <c r="H1407" s="7"/>
     </row>
-    <row r="1408" spans="7:8" s="2" customFormat="1">
+    <row r="1408" spans="8:8" s="2" customFormat="1">
       <c r="H1408" s="7"/>
     </row>
     <row r="1409" spans="8:8" s="2" customFormat="1">
@@ -8905,127 +8317,150 @@
     <row r="1568" spans="8:8" s="2" customFormat="1">
       <c r="H1568" s="7"/>
     </row>
-    <row r="1569" spans="8:8" s="2" customFormat="1">
+    <row r="1569" spans="7:8" s="2" customFormat="1">
       <c r="H1569" s="7"/>
     </row>
-    <row r="1570" spans="8:8" s="2" customFormat="1">
+    <row r="1570" spans="7:8" s="2" customFormat="1">
       <c r="H1570" s="7"/>
     </row>
-    <row r="1571" spans="8:8" s="2" customFormat="1">
+    <row r="1571" spans="7:8" s="2" customFormat="1">
       <c r="H1571" s="7"/>
     </row>
-    <row r="1572" spans="8:8" s="2" customFormat="1">
+    <row r="1572" spans="7:8" s="2" customFormat="1">
       <c r="H1572" s="7"/>
     </row>
-    <row r="1573" spans="8:8" s="2" customFormat="1">
+    <row r="1573" spans="7:8" s="2" customFormat="1">
       <c r="H1573" s="7"/>
     </row>
-    <row r="1574" spans="8:8" s="2" customFormat="1">
+    <row r="1574" spans="7:8" s="2" customFormat="1">
       <c r="H1574" s="7"/>
     </row>
-    <row r="1575" spans="8:8" s="2" customFormat="1">
+    <row r="1575" spans="7:8" s="2" customFormat="1">
       <c r="H1575" s="7"/>
     </row>
-    <row r="1576" spans="8:8" s="2" customFormat="1">
+    <row r="1576" spans="7:8" s="2" customFormat="1">
       <c r="H1576" s="7"/>
     </row>
-    <row r="1577" spans="8:8" s="2" customFormat="1">
+    <row r="1577" spans="7:8" s="2" customFormat="1">
       <c r="H1577" s="7"/>
     </row>
-    <row r="1578" spans="8:8" s="2" customFormat="1">
+    <row r="1578" spans="7:8" s="2" customFormat="1">
       <c r="H1578" s="7"/>
     </row>
-    <row r="1579" spans="8:8" s="2" customFormat="1">
+    <row r="1579" spans="7:8" s="2" customFormat="1">
       <c r="H1579" s="7"/>
     </row>
-    <row r="1580" spans="8:8" s="2" customFormat="1">
+    <row r="1580" spans="7:8" s="2" customFormat="1">
+      <c r="G1580" s="1"/>
       <c r="H1580" s="7"/>
     </row>
-    <row r="1581" spans="8:8" s="2" customFormat="1">
+    <row r="1581" spans="7:8" s="2" customFormat="1">
+      <c r="G1581" s="1"/>
       <c r="H1581" s="7"/>
     </row>
-    <row r="1582" spans="8:8" s="2" customFormat="1">
+    <row r="1582" spans="7:8" s="2" customFormat="1">
+      <c r="G1582" s="1"/>
       <c r="H1582" s="7"/>
     </row>
-    <row r="1583" spans="8:8" s="2" customFormat="1">
+    <row r="1583" spans="7:8" s="2" customFormat="1">
+      <c r="G1583" s="1"/>
       <c r="H1583" s="7"/>
     </row>
-    <row r="1584" spans="8:8" s="2" customFormat="1">
+    <row r="1584" spans="7:8" s="2" customFormat="1">
+      <c r="G1584" s="1"/>
       <c r="H1584" s="7"/>
     </row>
-    <row r="1585" spans="8:8" s="2" customFormat="1">
+    <row r="1585" spans="7:8" s="2" customFormat="1">
+      <c r="G1585" s="1"/>
       <c r="H1585" s="7"/>
     </row>
-    <row r="1586" spans="8:8" s="2" customFormat="1">
+    <row r="1586" spans="7:8" s="2" customFormat="1">
+      <c r="G1586" s="1"/>
       <c r="H1586" s="7"/>
     </row>
-    <row r="1587" spans="8:8" s="2" customFormat="1">
+    <row r="1587" spans="7:8" s="2" customFormat="1">
+      <c r="G1587" s="1"/>
       <c r="H1587" s="7"/>
     </row>
-    <row r="1588" spans="8:8" s="2" customFormat="1">
+    <row r="1588" spans="7:8" s="2" customFormat="1">
+      <c r="G1588" s="1"/>
       <c r="H1588" s="7"/>
     </row>
-    <row r="1589" spans="8:8" s="2" customFormat="1">
+    <row r="1589" spans="7:8" s="2" customFormat="1">
+      <c r="G1589" s="1"/>
       <c r="H1589" s="7"/>
     </row>
-    <row r="1590" spans="8:8" s="2" customFormat="1">
+    <row r="1590" spans="7:8" s="2" customFormat="1">
+      <c r="G1590" s="1"/>
       <c r="H1590" s="7"/>
     </row>
-    <row r="1591" spans="8:8" s="2" customFormat="1">
+    <row r="1591" spans="7:8" s="2" customFormat="1">
+      <c r="G1591" s="1"/>
       <c r="H1591" s="7"/>
     </row>
-    <row r="1592" spans="8:8" s="2" customFormat="1">
+    <row r="1592" spans="7:8" s="2" customFormat="1">
+      <c r="G1592" s="1"/>
       <c r="H1592" s="7"/>
     </row>
-    <row r="1593" spans="8:8" s="2" customFormat="1">
+    <row r="1593" spans="7:8" s="2" customFormat="1">
       <c r="H1593" s="7"/>
     </row>
-    <row r="1594" spans="8:8" s="2" customFormat="1">
+    <row r="1594" spans="7:8" s="2" customFormat="1">
       <c r="H1594" s="7"/>
     </row>
-    <row r="1595" spans="8:8" s="2" customFormat="1">
+    <row r="1595" spans="7:8" s="2" customFormat="1">
       <c r="H1595" s="7"/>
     </row>
-    <row r="1596" spans="8:8" s="2" customFormat="1">
+    <row r="1596" spans="7:8" s="2" customFormat="1">
       <c r="H1596" s="7"/>
     </row>
-    <row r="1597" spans="8:8" s="2" customFormat="1">
+    <row r="1597" spans="7:8" s="2" customFormat="1">
       <c r="H1597" s="7"/>
     </row>
-    <row r="1598" spans="8:8" s="2" customFormat="1">
+    <row r="1598" spans="7:8" s="2" customFormat="1">
       <c r="H1598" s="7"/>
     </row>
-    <row r="1599" spans="8:8" s="2" customFormat="1">
+    <row r="1599" spans="7:8" s="2" customFormat="1">
       <c r="H1599" s="7"/>
     </row>
-    <row r="1600" spans="8:8" s="2" customFormat="1">
+    <row r="1600" spans="7:8" s="2" customFormat="1">
+      <c r="G1600" s="1"/>
       <c r="H1600" s="7"/>
     </row>
     <row r="1601" spans="7:8" s="2" customFormat="1">
+      <c r="G1601" s="1"/>
       <c r="H1601" s="7"/>
     </row>
     <row r="1602" spans="7:8" s="2" customFormat="1">
+      <c r="G1602" s="1"/>
       <c r="H1602" s="7"/>
     </row>
     <row r="1603" spans="7:8" s="2" customFormat="1">
+      <c r="G1603" s="1"/>
       <c r="H1603" s="7"/>
     </row>
     <row r="1604" spans="7:8" s="2" customFormat="1">
+      <c r="G1604" s="1"/>
       <c r="H1604" s="7"/>
     </row>
     <row r="1605" spans="7:8" s="2" customFormat="1">
+      <c r="G1605" s="1"/>
       <c r="H1605" s="7"/>
     </row>
     <row r="1606" spans="7:8" s="2" customFormat="1">
+      <c r="G1606" s="1"/>
       <c r="H1606" s="7"/>
     </row>
     <row r="1607" spans="7:8" s="2" customFormat="1">
+      <c r="G1607" s="1"/>
       <c r="H1607" s="7"/>
     </row>
     <row r="1608" spans="7:8" s="2" customFormat="1">
+      <c r="G1608" s="1"/>
       <c r="H1608" s="7"/>
     </row>
     <row r="1609" spans="7:8" s="2" customFormat="1">
+      <c r="G1609" s="1"/>
       <c r="H1609" s="7"/>
     </row>
     <row r="1610" spans="7:8" s="2" customFormat="1">
@@ -9081,24 +8516,31 @@
       <c r="H1622" s="7"/>
     </row>
     <row r="1623" spans="7:8" s="2" customFormat="1">
+      <c r="G1623" s="1"/>
       <c r="H1623" s="7"/>
     </row>
     <row r="1624" spans="7:8" s="2" customFormat="1">
+      <c r="G1624" s="1"/>
       <c r="H1624" s="7"/>
     </row>
     <row r="1625" spans="7:8" s="2" customFormat="1">
+      <c r="G1625" s="1"/>
       <c r="H1625" s="7"/>
     </row>
     <row r="1626" spans="7:8" s="2" customFormat="1">
+      <c r="G1626" s="1"/>
       <c r="H1626" s="7"/>
     </row>
     <row r="1627" spans="7:8" s="2" customFormat="1">
+      <c r="G1627" s="1"/>
       <c r="H1627" s="7"/>
     </row>
     <row r="1628" spans="7:8" s="2" customFormat="1">
+      <c r="G1628" s="1"/>
       <c r="H1628" s="7"/>
     </row>
     <row r="1629" spans="7:8" s="2" customFormat="1">
+      <c r="G1629" s="1"/>
       <c r="H1629" s="7"/>
     </row>
     <row r="1630" spans="7:8" s="2" customFormat="1">
@@ -9561,612 +9003,492 @@
       <c r="G1744" s="1"/>
       <c r="H1744" s="7"/>
     </row>
-    <row r="1745" spans="7:8" s="2" customFormat="1">
-      <c r="G1745" s="1"/>
-      <c r="H1745" s="7"/>
-    </row>
-    <row r="1746" spans="7:8" s="2" customFormat="1">
-      <c r="G1746" s="1"/>
-      <c r="H1746" s="7"/>
-    </row>
-    <row r="1747" spans="7:8" s="2" customFormat="1">
-      <c r="G1747" s="1"/>
-      <c r="H1747" s="7"/>
-    </row>
-    <row r="1748" spans="7:8" s="2" customFormat="1">
-      <c r="G1748" s="1"/>
-      <c r="H1748" s="7"/>
-    </row>
-    <row r="1749" spans="7:8" s="2" customFormat="1">
-      <c r="G1749" s="1"/>
-      <c r="H1749" s="7"/>
-    </row>
-    <row r="1750" spans="7:8" s="2" customFormat="1">
-      <c r="G1750" s="1"/>
-      <c r="H1750" s="7"/>
-    </row>
-    <row r="1751" spans="7:8" s="2" customFormat="1">
-      <c r="G1751" s="1"/>
-      <c r="H1751" s="7"/>
-    </row>
-    <row r="1752" spans="7:8" s="2" customFormat="1">
-      <c r="G1752" s="1"/>
-      <c r="H1752" s="7"/>
-    </row>
-    <row r="1753" spans="7:8" s="2" customFormat="1">
-      <c r="G1753" s="1"/>
-      <c r="H1753" s="7"/>
-    </row>
-    <row r="1754" spans="7:8" s="2" customFormat="1">
-      <c r="G1754" s="1"/>
-      <c r="H1754" s="7"/>
-    </row>
-    <row r="1755" spans="7:8" s="2" customFormat="1">
-      <c r="G1755" s="1"/>
-      <c r="H1755" s="7"/>
-    </row>
-    <row r="1756" spans="7:8" s="2" customFormat="1">
-      <c r="G1756" s="1"/>
-      <c r="H1756" s="7"/>
-    </row>
-    <row r="1757" spans="7:8" s="2" customFormat="1">
-      <c r="G1757" s="1"/>
-      <c r="H1757" s="7"/>
-    </row>
-    <row r="1758" spans="7:8" s="2" customFormat="1">
-      <c r="G1758" s="1"/>
-      <c r="H1758" s="7"/>
-    </row>
-    <row r="1759" spans="7:8" s="2" customFormat="1">
-      <c r="G1759" s="1"/>
-      <c r="H1759" s="7"/>
-    </row>
-    <row r="1760" spans="7:8" s="2" customFormat="1">
-      <c r="G1760" s="1"/>
-      <c r="H1760" s="7"/>
-    </row>
-    <row r="1761" spans="7:8" s="2" customFormat="1">
-      <c r="G1761" s="1"/>
-      <c r="H1761" s="7"/>
-    </row>
-    <row r="1762" spans="7:8" s="2" customFormat="1">
-      <c r="G1762" s="1"/>
-      <c r="H1762" s="7"/>
-    </row>
-    <row r="1763" spans="7:8" s="2" customFormat="1">
-      <c r="G1763" s="1"/>
-      <c r="H1763" s="7"/>
-    </row>
-    <row r="1764" spans="7:8" s="2" customFormat="1">
-      <c r="G1764" s="1"/>
-      <c r="H1764" s="7"/>
-    </row>
-    <row r="1765" spans="7:8" s="2" customFormat="1">
-      <c r="G1765" s="1"/>
-      <c r="H1765" s="7"/>
-    </row>
-    <row r="1766" spans="7:8" s="2" customFormat="1">
-      <c r="G1766" s="1"/>
-      <c r="H1766" s="7"/>
-    </row>
-    <row r="1767" spans="7:8" s="2" customFormat="1">
-      <c r="G1767" s="1"/>
-      <c r="H1767" s="7"/>
-    </row>
-    <row r="1768" spans="7:8" s="2" customFormat="1">
-      <c r="G1768" s="1"/>
-      <c r="H1768" s="7"/>
-    </row>
-    <row r="1769" spans="7:8" s="2" customFormat="1">
-      <c r="G1769" s="1"/>
-      <c r="H1769" s="7"/>
-    </row>
-    <row r="1770" spans="7:8" s="2" customFormat="1">
-      <c r="G1770" s="1"/>
-      <c r="H1770" s="7"/>
-    </row>
-    <row r="1771" spans="7:8" s="2" customFormat="1">
-      <c r="G1771" s="1"/>
-      <c r="H1771" s="7"/>
-    </row>
-    <row r="1772" spans="7:8" s="2" customFormat="1">
-      <c r="G1772" s="1"/>
-      <c r="H1772" s="7"/>
-    </row>
-    <row r="1773" spans="7:8" s="2" customFormat="1">
-      <c r="G1773" s="1"/>
-      <c r="H1773" s="7"/>
-    </row>
-    <row r="1774" spans="7:8" s="2" customFormat="1">
-      <c r="G1774" s="1"/>
-      <c r="H1774" s="7"/>
-    </row>
-    <row r="1775" spans="7:8" s="13" customFormat="1">
-      <c r="H1775" s="25"/>
-    </row>
-    <row r="1776" spans="7:8" s="13" customFormat="1">
-      <c r="H1776" s="25"/>
-    </row>
-    <row r="1777" spans="8:8" s="13" customFormat="1">
-      <c r="H1777" s="25"/>
-    </row>
-    <row r="1778" spans="8:8" s="13" customFormat="1">
-      <c r="H1778" s="25"/>
-    </row>
-    <row r="1779" spans="8:8" s="13" customFormat="1">
-      <c r="H1779" s="25"/>
-    </row>
-    <row r="1780" spans="8:8" s="13" customFormat="1">
-      <c r="H1780" s="25"/>
-    </row>
-    <row r="1781" spans="8:8" s="13" customFormat="1">
-      <c r="H1781" s="25"/>
-    </row>
-    <row r="1782" spans="8:8" s="13" customFormat="1">
-      <c r="H1782" s="25"/>
-    </row>
-    <row r="1783" spans="8:8" s="13" customFormat="1">
-      <c r="H1783" s="25"/>
-    </row>
-    <row r="1784" spans="8:8" s="13" customFormat="1">
-      <c r="H1784" s="25"/>
-    </row>
-    <row r="1785" spans="8:8" s="13" customFormat="1">
-      <c r="H1785" s="25"/>
-    </row>
-    <row r="1786" spans="8:8" s="13" customFormat="1">
-      <c r="H1786" s="25"/>
-    </row>
-    <row r="1787" spans="8:8" s="13" customFormat="1">
-      <c r="H1787" s="25"/>
-    </row>
-    <row r="1788" spans="8:8" s="13" customFormat="1">
-      <c r="H1788" s="25"/>
-    </row>
-    <row r="1789" spans="8:8" s="13" customFormat="1">
-      <c r="H1789" s="25"/>
-    </row>
-    <row r="1790" spans="8:8" s="13" customFormat="1">
-      <c r="H1790" s="25"/>
-    </row>
-    <row r="1791" spans="8:8" s="13" customFormat="1">
-      <c r="H1791" s="25"/>
-    </row>
-    <row r="1792" spans="8:8" s="13" customFormat="1">
-      <c r="H1792" s="25"/>
-    </row>
-    <row r="1793" spans="7:8" s="13" customFormat="1">
-      <c r="H1793" s="25"/>
-    </row>
-    <row r="1794" spans="7:8" s="13" customFormat="1">
-      <c r="H1794" s="25"/>
-    </row>
-    <row r="1795" spans="7:8" s="13" customFormat="1">
-      <c r="H1795" s="25"/>
-    </row>
-    <row r="1796" spans="7:8" s="13" customFormat="1">
-      <c r="H1796" s="25"/>
-    </row>
-    <row r="1797" spans="7:8" s="13" customFormat="1">
-      <c r="H1797" s="25"/>
-    </row>
-    <row r="1798" spans="7:8" s="13" customFormat="1">
-      <c r="H1798" s="25"/>
-    </row>
-    <row r="1799" spans="7:8" s="11" customFormat="1">
-      <c r="G1799" s="13"/>
-      <c r="H1799" s="24"/>
-    </row>
-    <row r="1800" spans="7:8" s="11" customFormat="1">
-      <c r="G1800" s="13"/>
-      <c r="H1800" s="24"/>
-    </row>
-    <row r="1801" spans="7:8" s="11" customFormat="1">
-      <c r="G1801" s="13"/>
-      <c r="H1801" s="24"/>
-    </row>
-    <row r="1802" spans="7:8" s="11" customFormat="1">
-      <c r="G1802" s="13"/>
-      <c r="H1802" s="24"/>
-    </row>
-    <row r="1803" spans="7:8" s="11" customFormat="1">
-      <c r="G1803" s="13"/>
-      <c r="H1803" s="24"/>
-    </row>
-    <row r="1804" spans="7:8" s="11" customFormat="1">
-      <c r="G1804" s="13"/>
-      <c r="H1804" s="24"/>
-    </row>
-    <row r="1805" spans="7:8" s="11" customFormat="1">
-      <c r="G1805" s="13"/>
-      <c r="H1805" s="24"/>
-    </row>
-    <row r="1806" spans="7:8" s="11" customFormat="1">
-      <c r="G1806" s="13"/>
-      <c r="H1806" s="24"/>
-    </row>
-    <row r="1807" spans="7:8" s="11" customFormat="1">
-      <c r="G1807" s="13"/>
-      <c r="H1807" s="24"/>
-    </row>
-    <row r="1808" spans="7:8" s="11" customFormat="1">
-      <c r="G1808" s="13"/>
-      <c r="H1808" s="24"/>
-    </row>
-    <row r="1809" spans="3:8" s="11" customFormat="1">
-      <c r="G1809" s="13"/>
-      <c r="H1809" s="24"/>
-    </row>
-    <row r="1810" spans="3:8" s="11" customFormat="1">
-      <c r="G1810" s="13"/>
-      <c r="H1810" s="24"/>
-    </row>
-    <row r="1811" spans="3:8" s="11" customFormat="1">
-      <c r="G1811" s="13"/>
-      <c r="H1811" s="24"/>
-    </row>
-    <row r="1812" spans="3:8" s="11" customFormat="1">
-      <c r="G1812" s="13"/>
-      <c r="H1812" s="24"/>
-    </row>
-    <row r="1813" spans="3:8" s="11" customFormat="1">
-      <c r="G1813" s="13"/>
-      <c r="H1813" s="24"/>
-    </row>
-    <row r="1814" spans="3:8" s="2" customFormat="1">
-      <c r="C1814" s="11"/>
-      <c r="D1814" s="11"/>
-      <c r="F1814" s="11"/>
-      <c r="G1814" s="13"/>
+    <row r="1745" spans="8:8" s="13" customFormat="1">
+      <c r="H1745" s="25"/>
+    </row>
+    <row r="1746" spans="8:8" s="13" customFormat="1">
+      <c r="H1746" s="25"/>
+    </row>
+    <row r="1747" spans="8:8" s="13" customFormat="1">
+      <c r="H1747" s="25"/>
+    </row>
+    <row r="1748" spans="8:8" s="13" customFormat="1">
+      <c r="H1748" s="25"/>
+    </row>
+    <row r="1749" spans="8:8" s="13" customFormat="1">
+      <c r="H1749" s="25"/>
+    </row>
+    <row r="1750" spans="8:8" s="13" customFormat="1">
+      <c r="H1750" s="25"/>
+    </row>
+    <row r="1751" spans="8:8" s="13" customFormat="1">
+      <c r="H1751" s="25"/>
+    </row>
+    <row r="1752" spans="8:8" s="13" customFormat="1">
+      <c r="H1752" s="25"/>
+    </row>
+    <row r="1753" spans="8:8" s="13" customFormat="1">
+      <c r="H1753" s="25"/>
+    </row>
+    <row r="1754" spans="8:8" s="13" customFormat="1">
+      <c r="H1754" s="25"/>
+    </row>
+    <row r="1755" spans="8:8" s="13" customFormat="1">
+      <c r="H1755" s="25"/>
+    </row>
+    <row r="1756" spans="8:8" s="13" customFormat="1">
+      <c r="H1756" s="25"/>
+    </row>
+    <row r="1757" spans="8:8" s="13" customFormat="1">
+      <c r="H1757" s="25"/>
+    </row>
+    <row r="1758" spans="8:8" s="13" customFormat="1">
+      <c r="H1758" s="25"/>
+    </row>
+    <row r="1759" spans="8:8" s="13" customFormat="1">
+      <c r="H1759" s="25"/>
+    </row>
+    <row r="1760" spans="8:8" s="13" customFormat="1">
+      <c r="H1760" s="25"/>
+    </row>
+    <row r="1761" spans="7:8" s="13" customFormat="1">
+      <c r="H1761" s="25"/>
+    </row>
+    <row r="1762" spans="7:8" s="13" customFormat="1">
+      <c r="H1762" s="25"/>
+    </row>
+    <row r="1763" spans="7:8" s="13" customFormat="1">
+      <c r="H1763" s="25"/>
+    </row>
+    <row r="1764" spans="7:8" s="13" customFormat="1">
+      <c r="H1764" s="25"/>
+    </row>
+    <row r="1765" spans="7:8" s="13" customFormat="1">
+      <c r="H1765" s="25"/>
+    </row>
+    <row r="1766" spans="7:8" s="13" customFormat="1">
+      <c r="H1766" s="25"/>
+    </row>
+    <row r="1767" spans="7:8" s="13" customFormat="1">
+      <c r="H1767" s="25"/>
+    </row>
+    <row r="1768" spans="7:8" s="13" customFormat="1">
+      <c r="H1768" s="25"/>
+    </row>
+    <row r="1769" spans="7:8" s="11" customFormat="1">
+      <c r="G1769" s="13"/>
+      <c r="H1769" s="24"/>
+    </row>
+    <row r="1770" spans="7:8" s="11" customFormat="1">
+      <c r="G1770" s="13"/>
+      <c r="H1770" s="24"/>
+    </row>
+    <row r="1771" spans="7:8" s="11" customFormat="1">
+      <c r="G1771" s="13"/>
+      <c r="H1771" s="24"/>
+    </row>
+    <row r="1772" spans="7:8" s="11" customFormat="1">
+      <c r="G1772" s="13"/>
+      <c r="H1772" s="24"/>
+    </row>
+    <row r="1773" spans="7:8" s="11" customFormat="1">
+      <c r="G1773" s="13"/>
+      <c r="H1773" s="24"/>
+    </row>
+    <row r="1774" spans="7:8" s="11" customFormat="1">
+      <c r="G1774" s="13"/>
+      <c r="H1774" s="24"/>
+    </row>
+    <row r="1775" spans="7:8" s="11" customFormat="1">
+      <c r="G1775" s="13"/>
+      <c r="H1775" s="24"/>
+    </row>
+    <row r="1776" spans="7:8" s="11" customFormat="1">
+      <c r="G1776" s="13"/>
+      <c r="H1776" s="24"/>
+    </row>
+    <row r="1777" spans="3:8" s="11" customFormat="1">
+      <c r="G1777" s="13"/>
+      <c r="H1777" s="24"/>
+    </row>
+    <row r="1778" spans="3:8" s="11" customFormat="1">
+      <c r="G1778" s="13"/>
+      <c r="H1778" s="24"/>
+    </row>
+    <row r="1779" spans="3:8" s="11" customFormat="1">
+      <c r="G1779" s="13"/>
+      <c r="H1779" s="24"/>
+    </row>
+    <row r="1780" spans="3:8" s="11" customFormat="1">
+      <c r="G1780" s="13"/>
+      <c r="H1780" s="24"/>
+    </row>
+    <row r="1781" spans="3:8" s="11" customFormat="1">
+      <c r="G1781" s="13"/>
+      <c r="H1781" s="24"/>
+    </row>
+    <row r="1782" spans="3:8" s="11" customFormat="1">
+      <c r="G1782" s="13"/>
+      <c r="H1782" s="24"/>
+    </row>
+    <row r="1783" spans="3:8" s="11" customFormat="1">
+      <c r="G1783" s="13"/>
+      <c r="H1783" s="24"/>
+    </row>
+    <row r="1784" spans="3:8" s="2" customFormat="1">
+      <c r="C1784" s="11"/>
+      <c r="D1784" s="11"/>
+      <c r="F1784" s="11"/>
+      <c r="G1784" s="13"/>
+      <c r="H1784" s="7"/>
+    </row>
+    <row r="1785" spans="3:8" s="2" customFormat="1">
+      <c r="C1785" s="11"/>
+      <c r="D1785" s="11"/>
+      <c r="F1785" s="11"/>
+      <c r="G1785" s="13"/>
+      <c r="H1785" s="7"/>
+    </row>
+    <row r="1786" spans="3:8" s="2" customFormat="1">
+      <c r="C1786" s="11"/>
+      <c r="D1786" s="11"/>
+      <c r="F1786" s="11"/>
+      <c r="G1786" s="13"/>
+      <c r="H1786" s="7"/>
+    </row>
+    <row r="1787" spans="3:8" s="2" customFormat="1">
+      <c r="H1787" s="7"/>
+    </row>
+    <row r="1788" spans="3:8" s="2" customFormat="1">
+      <c r="H1788" s="7"/>
+    </row>
+    <row r="1789" spans="3:8" s="2" customFormat="1">
+      <c r="H1789" s="7"/>
+    </row>
+    <row r="1790" spans="3:8" s="2" customFormat="1">
+      <c r="H1790" s="7"/>
+    </row>
+    <row r="1791" spans="3:8" s="2" customFormat="1">
+      <c r="H1791" s="7"/>
+    </row>
+    <row r="1792" spans="3:8" s="2" customFormat="1">
+      <c r="H1792" s="7"/>
+    </row>
+    <row r="1793" spans="8:8" s="2" customFormat="1">
+      <c r="H1793" s="7"/>
+    </row>
+    <row r="1794" spans="8:8" s="2" customFormat="1">
+      <c r="H1794" s="7"/>
+    </row>
+    <row r="1795" spans="8:8" s="2" customFormat="1">
+      <c r="H1795" s="7"/>
+    </row>
+    <row r="1796" spans="8:8" s="2" customFormat="1">
+      <c r="H1796" s="7"/>
+    </row>
+    <row r="1797" spans="8:8" s="2" customFormat="1">
+      <c r="H1797" s="7"/>
+    </row>
+    <row r="1798" spans="8:8" s="2" customFormat="1">
+      <c r="H1798" s="7"/>
+    </row>
+    <row r="1799" spans="8:8" s="2" customFormat="1">
+      <c r="H1799" s="7"/>
+    </row>
+    <row r="1800" spans="8:8" s="2" customFormat="1">
+      <c r="H1800" s="7"/>
+    </row>
+    <row r="1801" spans="8:8" s="2" customFormat="1">
+      <c r="H1801" s="7"/>
+    </row>
+    <row r="1802" spans="8:8" s="2" customFormat="1">
+      <c r="H1802" s="7"/>
+    </row>
+    <row r="1803" spans="8:8" s="2" customFormat="1">
+      <c r="H1803" s="7"/>
+    </row>
+    <row r="1804" spans="8:8" s="2" customFormat="1">
+      <c r="H1804" s="7"/>
+    </row>
+    <row r="1805" spans="8:8" s="2" customFormat="1">
+      <c r="H1805" s="7"/>
+    </row>
+    <row r="1806" spans="8:8" s="2" customFormat="1">
+      <c r="H1806" s="7"/>
+    </row>
+    <row r="1807" spans="8:8" s="2" customFormat="1">
+      <c r="H1807" s="7"/>
+    </row>
+    <row r="1808" spans="8:8" s="2" customFormat="1">
+      <c r="H1808" s="7"/>
+    </row>
+    <row r="1809" spans="8:8" s="2" customFormat="1">
+      <c r="H1809" s="7"/>
+    </row>
+    <row r="1810" spans="8:8" s="2" customFormat="1">
+      <c r="H1810" s="7"/>
+    </row>
+    <row r="1811" spans="8:8" s="2" customFormat="1">
+      <c r="H1811" s="7"/>
+    </row>
+    <row r="1812" spans="8:8" s="2" customFormat="1">
+      <c r="H1812" s="7"/>
+    </row>
+    <row r="1813" spans="8:8" s="2" customFormat="1">
+      <c r="H1813" s="7"/>
+    </row>
+    <row r="1814" spans="8:8" s="2" customFormat="1">
       <c r="H1814" s="7"/>
     </row>
-    <row r="1815" spans="3:8" s="2" customFormat="1">
-      <c r="C1815" s="11"/>
-      <c r="D1815" s="11"/>
-      <c r="F1815" s="11"/>
-      <c r="G1815" s="13"/>
+    <row r="1815" spans="8:8" s="2" customFormat="1">
       <c r="H1815" s="7"/>
     </row>
-    <row r="1816" spans="3:8" s="2" customFormat="1">
-      <c r="C1816" s="11"/>
-      <c r="D1816" s="11"/>
-      <c r="F1816" s="11"/>
-      <c r="G1816" s="13"/>
+    <row r="1816" spans="8:8" s="2" customFormat="1">
       <c r="H1816" s="7"/>
     </row>
-    <row r="1817" spans="3:8" s="2" customFormat="1">
+    <row r="1817" spans="8:8" s="2" customFormat="1">
       <c r="H1817" s="7"/>
     </row>
-    <row r="1818" spans="3:8" s="2" customFormat="1">
+    <row r="1818" spans="8:8" s="2" customFormat="1">
       <c r="H1818" s="7"/>
     </row>
-    <row r="1819" spans="3:8" s="2" customFormat="1">
+    <row r="1819" spans="8:8" s="2" customFormat="1">
       <c r="H1819" s="7"/>
     </row>
-    <row r="1820" spans="3:8" s="2" customFormat="1">
+    <row r="1820" spans="8:8" s="2" customFormat="1">
       <c r="H1820" s="7"/>
     </row>
-    <row r="1821" spans="3:8" s="2" customFormat="1">
+    <row r="1821" spans="8:8" s="2" customFormat="1">
       <c r="H1821" s="7"/>
     </row>
-    <row r="1822" spans="3:8" s="2" customFormat="1">
+    <row r="1822" spans="8:8" s="2" customFormat="1">
       <c r="H1822" s="7"/>
     </row>
-    <row r="1823" spans="3:8" s="2" customFormat="1">
+    <row r="1823" spans="8:8" s="2" customFormat="1">
       <c r="H1823" s="7"/>
     </row>
-    <row r="1824" spans="3:8" s="2" customFormat="1">
+    <row r="1824" spans="8:8" s="2" customFormat="1">
       <c r="H1824" s="7"/>
     </row>
-    <row r="1825" spans="8:8" s="2" customFormat="1">
+    <row r="1825" spans="7:8" s="2" customFormat="1">
       <c r="H1825" s="7"/>
     </row>
-    <row r="1826" spans="8:8" s="2" customFormat="1">
+    <row r="1826" spans="7:8" s="2" customFormat="1">
       <c r="H1826" s="7"/>
     </row>
-    <row r="1827" spans="8:8" s="2" customFormat="1">
+    <row r="1827" spans="7:8" s="2" customFormat="1">
       <c r="H1827" s="7"/>
     </row>
-    <row r="1828" spans="8:8" s="2" customFormat="1">
+    <row r="1828" spans="7:8" s="2" customFormat="1">
       <c r="H1828" s="7"/>
     </row>
-    <row r="1829" spans="8:8" s="2" customFormat="1">
+    <row r="1829" spans="7:8" s="2" customFormat="1">
       <c r="H1829" s="7"/>
     </row>
-    <row r="1830" spans="8:8" s="2" customFormat="1">
+    <row r="1830" spans="7:8" s="2" customFormat="1">
       <c r="H1830" s="7"/>
     </row>
-    <row r="1831" spans="8:8" s="2" customFormat="1">
+    <row r="1831" spans="7:8" s="2" customFormat="1">
       <c r="H1831" s="7"/>
     </row>
-    <row r="1832" spans="8:8" s="2" customFormat="1">
+    <row r="1832" spans="7:8" s="2" customFormat="1">
       <c r="H1832" s="7"/>
     </row>
-    <row r="1833" spans="8:8" s="2" customFormat="1">
+    <row r="1833" spans="7:8" s="2" customFormat="1">
+      <c r="G1833" s="11"/>
       <c r="H1833" s="7"/>
     </row>
-    <row r="1834" spans="8:8" s="2" customFormat="1">
+    <row r="1834" spans="7:8" s="2" customFormat="1">
+      <c r="G1834" s="11"/>
       <c r="H1834" s="7"/>
     </row>
-    <row r="1835" spans="8:8" s="2" customFormat="1">
+    <row r="1835" spans="7:8" s="2" customFormat="1">
+      <c r="G1835" s="11"/>
       <c r="H1835" s="7"/>
     </row>
-    <row r="1836" spans="8:8" s="2" customFormat="1">
+    <row r="1836" spans="7:8" s="2" customFormat="1">
+      <c r="G1836" s="11"/>
       <c r="H1836" s="7"/>
     </row>
-    <row r="1837" spans="8:8" s="2" customFormat="1">
+    <row r="1837" spans="7:8" s="2" customFormat="1">
+      <c r="G1837" s="11"/>
       <c r="H1837" s="7"/>
     </row>
-    <row r="1838" spans="8:8" s="2" customFormat="1">
+    <row r="1838" spans="7:8" s="2" customFormat="1">
+      <c r="G1838" s="11"/>
       <c r="H1838" s="7"/>
     </row>
-    <row r="1839" spans="8:8" s="2" customFormat="1">
+    <row r="1839" spans="7:8" s="2" customFormat="1">
+      <c r="G1839" s="11"/>
       <c r="H1839" s="7"/>
     </row>
-    <row r="1840" spans="8:8" s="2" customFormat="1">
+    <row r="1840" spans="7:8" s="2" customFormat="1">
+      <c r="G1840" s="11"/>
       <c r="H1840" s="7"/>
     </row>
-    <row r="1841" spans="8:8" s="2" customFormat="1">
+    <row r="1841" spans="7:8" s="2" customFormat="1">
+      <c r="G1841" s="11"/>
       <c r="H1841" s="7"/>
     </row>
-    <row r="1842" spans="8:8" s="2" customFormat="1">
+    <row r="1842" spans="7:8" s="2" customFormat="1">
+      <c r="G1842" s="11"/>
       <c r="H1842" s="7"/>
     </row>
-    <row r="1843" spans="8:8" s="2" customFormat="1">
+    <row r="1843" spans="7:8" s="2" customFormat="1">
+      <c r="G1843" s="11"/>
       <c r="H1843" s="7"/>
     </row>
-    <row r="1844" spans="8:8" s="2" customFormat="1">
+    <row r="1844" spans="7:8" s="2" customFormat="1">
+      <c r="G1844" s="11"/>
       <c r="H1844" s="7"/>
     </row>
-    <row r="1845" spans="8:8" s="2" customFormat="1">
+    <row r="1845" spans="7:8" s="2" customFormat="1">
+      <c r="G1845" s="11"/>
       <c r="H1845" s="7"/>
     </row>
-    <row r="1846" spans="8:8" s="2" customFormat="1">
+    <row r="1846" spans="7:8" s="2" customFormat="1">
+      <c r="G1846" s="11"/>
       <c r="H1846" s="7"/>
     </row>
-    <row r="1847" spans="8:8" s="2" customFormat="1">
+    <row r="1847" spans="7:8" s="2" customFormat="1">
+      <c r="G1847" s="11"/>
       <c r="H1847" s="7"/>
     </row>
-    <row r="1848" spans="8:8" s="2" customFormat="1">
+    <row r="1848" spans="7:8" s="2" customFormat="1">
+      <c r="G1848" s="11"/>
       <c r="H1848" s="7"/>
     </row>
-    <row r="1849" spans="8:8" s="2" customFormat="1">
+    <row r="1849" spans="7:8" s="2" customFormat="1">
+      <c r="G1849" s="11"/>
       <c r="H1849" s="7"/>
     </row>
-    <row r="1850" spans="8:8" s="2" customFormat="1">
+    <row r="1850" spans="7:8" s="2" customFormat="1">
+      <c r="G1850" s="11"/>
       <c r="H1850" s="7"/>
     </row>
-    <row r="1851" spans="8:8" s="2" customFormat="1">
+    <row r="1851" spans="7:8" s="2" customFormat="1">
+      <c r="G1851" s="11"/>
       <c r="H1851" s="7"/>
     </row>
-    <row r="1852" spans="8:8" s="2" customFormat="1">
+    <row r="1852" spans="7:8" s="2" customFormat="1">
+      <c r="G1852" s="11"/>
       <c r="H1852" s="7"/>
     </row>
-    <row r="1853" spans="8:8" s="2" customFormat="1">
-      <c r="H1853" s="7"/>
-    </row>
-    <row r="1854" spans="8:8" s="2" customFormat="1">
-      <c r="H1854" s="7"/>
-    </row>
-    <row r="1855" spans="8:8" s="2" customFormat="1">
-      <c r="H1855" s="7"/>
-    </row>
-    <row r="1856" spans="8:8" s="2" customFormat="1">
-      <c r="H1856" s="7"/>
-    </row>
-    <row r="1857" spans="7:8" s="2" customFormat="1">
-      <c r="H1857" s="7"/>
-    </row>
-    <row r="1858" spans="7:8" s="2" customFormat="1">
-      <c r="H1858" s="7"/>
-    </row>
-    <row r="1859" spans="7:8" s="2" customFormat="1">
-      <c r="H1859" s="7"/>
-    </row>
-    <row r="1860" spans="7:8" s="2" customFormat="1">
-      <c r="H1860" s="7"/>
-    </row>
-    <row r="1861" spans="7:8" s="2" customFormat="1">
-      <c r="H1861" s="7"/>
-    </row>
-    <row r="1862" spans="7:8" s="2" customFormat="1">
-      <c r="H1862" s="7"/>
-    </row>
-    <row r="1863" spans="7:8" s="2" customFormat="1">
-      <c r="G1863" s="11"/>
-      <c r="H1863" s="7"/>
-    </row>
-    <row r="1864" spans="7:8" s="2" customFormat="1">
-      <c r="G1864" s="11"/>
-      <c r="H1864" s="7"/>
-    </row>
-    <row r="1865" spans="7:8" s="2" customFormat="1">
-      <c r="G1865" s="11"/>
-      <c r="H1865" s="7"/>
-    </row>
-    <row r="1866" spans="7:8" s="2" customFormat="1">
-      <c r="G1866" s="11"/>
-      <c r="H1866" s="7"/>
-    </row>
-    <row r="1867" spans="7:8" s="2" customFormat="1">
-      <c r="G1867" s="11"/>
-      <c r="H1867" s="7"/>
-    </row>
-    <row r="1868" spans="7:8" s="2" customFormat="1">
-      <c r="G1868" s="11"/>
-      <c r="H1868" s="7"/>
-    </row>
-    <row r="1869" spans="7:8" s="2" customFormat="1">
-      <c r="G1869" s="11"/>
-      <c r="H1869" s="7"/>
-    </row>
-    <row r="1870" spans="7:8" s="2" customFormat="1">
-      <c r="G1870" s="11"/>
-      <c r="H1870" s="7"/>
-    </row>
-    <row r="1871" spans="7:8" s="2" customFormat="1">
-      <c r="G1871" s="11"/>
-      <c r="H1871" s="7"/>
-    </row>
-    <row r="1872" spans="7:8" s="2" customFormat="1">
-      <c r="G1872" s="11"/>
+    <row r="1853" spans="7:8" s="5" customFormat="1">
+      <c r="H1853" s="26"/>
+    </row>
+    <row r="1854" spans="7:8" s="5" customFormat="1">
+      <c r="H1854" s="26"/>
+    </row>
+    <row r="1855" spans="7:8" s="5" customFormat="1">
+      <c r="H1855" s="27"/>
+    </row>
+    <row r="1856" spans="7:8" s="5" customFormat="1">
+      <c r="H1856" s="27"/>
+    </row>
+    <row r="1857" spans="3:9" s="5" customFormat="1">
+      <c r="C1857" s="1"/>
+      <c r="D1857" s="1"/>
+      <c r="F1857" s="1"/>
+      <c r="H1857" s="27"/>
+    </row>
+    <row r="1858" spans="3:9" s="5" customFormat="1">
+      <c r="C1858" s="1"/>
+      <c r="D1858" s="1"/>
+      <c r="F1858" s="1"/>
+      <c r="H1858" s="27"/>
+    </row>
+    <row r="1859" spans="3:9" s="5" customFormat="1">
+      <c r="G1859" s="4"/>
+      <c r="H1859" s="20"/>
+      <c r="I1859" s="6"/>
+    </row>
+    <row r="1860" spans="3:9" s="5" customFormat="1">
+      <c r="G1860" s="4"/>
+      <c r="H1860" s="20"/>
+      <c r="I1860" s="6"/>
+    </row>
+    <row r="1861" spans="3:9" s="5" customFormat="1">
+      <c r="C1861" s="1"/>
+      <c r="D1861" s="1"/>
+      <c r="F1861" s="1"/>
+      <c r="G1861" s="4"/>
+      <c r="H1861" s="20"/>
+      <c r="I1861" s="6"/>
+    </row>
+    <row r="1862" spans="3:9" s="5" customFormat="1">
+      <c r="C1862" s="1"/>
+      <c r="D1862" s="1"/>
+      <c r="F1862" s="1"/>
+      <c r="G1862" s="4"/>
+      <c r="H1862" s="20"/>
+      <c r="I1862" s="6"/>
+    </row>
+    <row r="1863" spans="3:9" s="5" customFormat="1">
+      <c r="C1863" s="1"/>
+      <c r="D1863" s="1"/>
+      <c r="F1863" s="1"/>
+      <c r="G1863" s="4"/>
+      <c r="H1863" s="20"/>
+      <c r="I1863" s="6"/>
+    </row>
+    <row r="1864" spans="3:9" s="5" customFormat="1">
+      <c r="G1864" s="4"/>
+      <c r="H1864" s="20"/>
+      <c r="I1864" s="6"/>
+    </row>
+    <row r="1865" spans="3:9" s="5" customFormat="1">
+      <c r="G1865" s="4"/>
+      <c r="H1865" s="20"/>
+      <c r="I1865" s="6"/>
+    </row>
+    <row r="1866" spans="3:9" s="5" customFormat="1">
+      <c r="G1866" s="4"/>
+      <c r="H1866" s="20"/>
+      <c r="I1866" s="6"/>
+    </row>
+    <row r="1867" spans="3:9" s="5" customFormat="1">
+      <c r="G1867" s="4"/>
+      <c r="H1867" s="20"/>
+      <c r="I1867" s="6"/>
+    </row>
+    <row r="1868" spans="3:9" s="5" customFormat="1">
+      <c r="G1868" s="4"/>
+      <c r="H1868" s="20"/>
+      <c r="I1868" s="6"/>
+    </row>
+    <row r="1869" spans="3:9" s="5" customFormat="1">
+      <c r="G1869" s="4"/>
+      <c r="I1869" s="6"/>
+    </row>
+    <row r="1870" spans="3:9" s="5" customFormat="1">
+      <c r="G1870" s="4"/>
+      <c r="I1870" s="6"/>
+    </row>
+    <row r="1871" spans="3:9" s="5" customFormat="1">
+      <c r="G1871" s="4"/>
+      <c r="I1871" s="6"/>
+    </row>
+    <row r="1872" spans="3:9" s="2" customFormat="1">
+      <c r="G1872" s="6"/>
       <c r="H1872" s="7"/>
-    </row>
-    <row r="1873" spans="3:8" s="2" customFormat="1">
-      <c r="G1873" s="11"/>
+      <c r="I1872" s="6"/>
+    </row>
+    <row r="1873" spans="7:9" s="2" customFormat="1">
+      <c r="G1873" s="6"/>
       <c r="H1873" s="7"/>
-    </row>
-    <row r="1874" spans="3:8" s="2" customFormat="1">
-      <c r="G1874" s="11"/>
+      <c r="I1873" s="6"/>
+    </row>
+    <row r="1874" spans="7:9" s="2" customFormat="1">
+      <c r="G1874" s="6"/>
       <c r="H1874" s="7"/>
-    </row>
-    <row r="1875" spans="3:8" s="2" customFormat="1">
-      <c r="G1875" s="11"/>
-      <c r="H1875" s="7"/>
-    </row>
-    <row r="1876" spans="3:8" s="2" customFormat="1">
-      <c r="G1876" s="11"/>
-      <c r="H1876" s="7"/>
-    </row>
-    <row r="1877" spans="3:8" s="2" customFormat="1">
-      <c r="G1877" s="11"/>
-      <c r="H1877" s="7"/>
-    </row>
-    <row r="1878" spans="3:8" s="2" customFormat="1">
-      <c r="G1878" s="11"/>
-      <c r="H1878" s="7"/>
-    </row>
-    <row r="1879" spans="3:8" s="2" customFormat="1">
-      <c r="G1879" s="11"/>
-      <c r="H1879" s="7"/>
-    </row>
-    <row r="1880" spans="3:8" s="2" customFormat="1">
-      <c r="G1880" s="11"/>
-      <c r="H1880" s="7"/>
-    </row>
-    <row r="1881" spans="3:8" s="2" customFormat="1">
-      <c r="G1881" s="11"/>
-      <c r="H1881" s="7"/>
-    </row>
-    <row r="1882" spans="3:8" s="2" customFormat="1">
-      <c r="G1882" s="11"/>
-      <c r="H1882" s="7"/>
-    </row>
-    <row r="1883" spans="3:8" s="5" customFormat="1">
-      <c r="H1883" s="26"/>
-    </row>
-    <row r="1884" spans="3:8" s="5" customFormat="1">
-      <c r="H1884" s="26"/>
-    </row>
-    <row r="1885" spans="3:8" s="5" customFormat="1">
-      <c r="H1885" s="27"/>
-    </row>
-    <row r="1886" spans="3:8" s="5" customFormat="1">
-      <c r="H1886" s="27"/>
-    </row>
-    <row r="1887" spans="3:8" s="5" customFormat="1">
-      <c r="C1887" s="1"/>
-      <c r="D1887" s="1"/>
-      <c r="F1887" s="1"/>
-      <c r="H1887" s="27"/>
-    </row>
-    <row r="1888" spans="3:8" s="5" customFormat="1">
-      <c r="C1888" s="1"/>
-      <c r="D1888" s="1"/>
-      <c r="F1888" s="1"/>
-      <c r="H1888" s="27"/>
-    </row>
-    <row r="1889" spans="3:9" s="5" customFormat="1">
-      <c r="G1889" s="4"/>
-      <c r="H1889" s="20"/>
-      <c r="I1889" s="6"/>
-    </row>
-    <row r="1890" spans="3:9" s="5" customFormat="1">
-      <c r="G1890" s="4"/>
-      <c r="H1890" s="20"/>
-      <c r="I1890" s="6"/>
-    </row>
-    <row r="1891" spans="3:9" s="5" customFormat="1">
-      <c r="C1891" s="1"/>
-      <c r="D1891" s="1"/>
-      <c r="F1891" s="1"/>
-      <c r="G1891" s="4"/>
-      <c r="H1891" s="20"/>
-      <c r="I1891" s="6"/>
-    </row>
-    <row r="1892" spans="3:9" s="5" customFormat="1">
-      <c r="C1892" s="1"/>
-      <c r="D1892" s="1"/>
-      <c r="F1892" s="1"/>
-      <c r="G1892" s="4"/>
-      <c r="H1892" s="20"/>
-      <c r="I1892" s="6"/>
-    </row>
-    <row r="1893" spans="3:9" s="5" customFormat="1">
-      <c r="C1893" s="1"/>
-      <c r="D1893" s="1"/>
-      <c r="F1893" s="1"/>
-      <c r="G1893" s="4"/>
-      <c r="H1893" s="20"/>
-      <c r="I1893" s="6"/>
-    </row>
-    <row r="1894" spans="3:9" s="5" customFormat="1">
-      <c r="G1894" s="4"/>
-      <c r="H1894" s="20"/>
-      <c r="I1894" s="6"/>
-    </row>
-    <row r="1895" spans="3:9" s="5" customFormat="1">
-      <c r="G1895" s="4"/>
-      <c r="H1895" s="20"/>
-      <c r="I1895" s="6"/>
-    </row>
-    <row r="1896" spans="3:9" s="5" customFormat="1">
-      <c r="G1896" s="4"/>
-      <c r="H1896" s="20"/>
-      <c r="I1896" s="6"/>
-    </row>
-    <row r="1897" spans="3:9" s="5" customFormat="1">
-      <c r="G1897" s="4"/>
-      <c r="H1897" s="20"/>
-      <c r="I1897" s="6"/>
-    </row>
-    <row r="1898" spans="3:9" s="5" customFormat="1">
-      <c r="G1898" s="4"/>
-      <c r="H1898" s="20"/>
-      <c r="I1898" s="6"/>
-    </row>
-    <row r="1899" spans="3:9" s="5" customFormat="1">
-      <c r="G1899" s="4"/>
-      <c r="I1899" s="6"/>
-    </row>
-    <row r="1900" spans="3:9" s="5" customFormat="1">
-      <c r="G1900" s="4"/>
-      <c r="I1900" s="6"/>
-    </row>
-    <row r="1901" spans="3:9" s="5" customFormat="1">
-      <c r="G1901" s="4"/>
-      <c r="I1901" s="6"/>
-    </row>
-    <row r="1902" spans="3:9" s="2" customFormat="1">
-      <c r="G1902" s="6"/>
-      <c r="H1902" s="7"/>
-      <c r="I1902" s="6"/>
-    </row>
-    <row r="1903" spans="3:9" s="2" customFormat="1">
-      <c r="G1903" s="6"/>
-      <c r="H1903" s="7"/>
-      <c r="I1903" s="6"/>
-    </row>
-    <row r="1904" spans="3:9" s="2" customFormat="1">
-      <c r="G1904" s="6"/>
-      <c r="H1904" s="7"/>
-      <c r="I1904" s="6"/>
-    </row>
-    <row r="1905" spans="9:9" s="5" customFormat="1">
-      <c r="I1905" s="6"/>
+      <c r="I1874" s="6"/>
+    </row>
+    <row r="1875" spans="7:9" s="5" customFormat="1">
+      <c r="I1875" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:I1884"/>
+  <autoFilter ref="C2:I1854"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>

--- a/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫配置_cat.xlsx
+++ b/王者喵喵/配置表（差科技-随机事件-搞事情配置表）/猫配置_cat.xlsx
@@ -1523,7 +1523,7 @@
   <dimension ref="A1:K1875"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1624,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -1651,8 +1651,7 @@
         <v>0.02</v>
       </c>
       <c r="F5" s="6">
-        <f>F4*2</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
@@ -1679,8 +1678,7 @@
         <v>0.04</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" ref="F6:F53" si="0">F5*2</f>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
@@ -1707,8 +1705,7 @@
         <v>0.08</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3">
         <v>4</v>
@@ -1735,8 +1732,7 @@
         <v>0.16</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -1763,8 +1759,7 @@
         <v>0.32</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="G9" s="4">
         <v>6</v>
@@ -1791,8 +1786,7 @@
         <v>0.64</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="G10" s="4">
         <v>7</v>
@@ -1819,8 +1813,7 @@
         <v>1.28</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>640</v>
+        <v>128</v>
       </c>
       <c r="G11" s="4">
         <v>8</v>
@@ -1847,8 +1840,7 @@
         <v>2.56</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>1280</v>
+        <v>256</v>
       </c>
       <c r="G12" s="4">
         <v>9</v>
@@ -1875,8 +1867,7 @@
         <v>5.12</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="0"/>
-        <v>2560</v>
+        <v>512</v>
       </c>
       <c r="G13" s="4">
         <v>10</v>
@@ -1903,8 +1894,7 @@
         <v>10.24</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="0"/>
-        <v>5120</v>
+        <v>1024</v>
       </c>
       <c r="G14" s="4">
         <v>11</v>
@@ -1931,8 +1921,7 @@
         <v>20.48</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>10240</v>
+        <v>2048</v>
       </c>
       <c r="G15" s="4">
         <v>12</v>
@@ -1959,8 +1948,7 @@
         <v>40.96</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
-        <v>20480</v>
+        <v>4096</v>
       </c>
       <c r="G16" s="4">
         <v>13</v>
@@ -1987,8 +1975,7 @@
         <v>81.92</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
-        <v>40960</v>
+        <v>8192</v>
       </c>
       <c r="G17" s="4">
         <v>14</v>
@@ -2015,8 +2002,7 @@
         <v>163.84</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>81920</v>
+        <v>16384</v>
       </c>
       <c r="G18" s="4">
         <v>15</v>
@@ -2043,8 +2029,7 @@
         <v>327.68</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>163840</v>
+        <v>32768</v>
       </c>
       <c r="G19" s="4">
         <v>16</v>
@@ -2071,8 +2056,7 @@
         <v>655.36</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>327680</v>
+        <v>65536</v>
       </c>
       <c r="G20" s="4">
         <v>17</v>
@@ -2099,8 +2083,7 @@
         <v>1310.72</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>655360</v>
+        <v>131072</v>
       </c>
       <c r="G21" s="4">
         <v>18</v>
@@ -2127,8 +2110,7 @@
         <v>2621.44</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>1310720</v>
+        <v>262144</v>
       </c>
       <c r="G22" s="4">
         <v>19</v>
@@ -2155,8 +2137,7 @@
         <v>5242.88</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>2621440</v>
+        <v>524288</v>
       </c>
       <c r="G23" s="4">
         <v>20</v>
@@ -2183,8 +2164,7 @@
         <v>10485.76</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>5242880</v>
+        <v>1048576</v>
       </c>
       <c r="G24" s="4">
         <v>21</v>
@@ -2211,8 +2191,7 @@
         <v>20971.52</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="0"/>
-        <v>10485760</v>
+        <v>2097152</v>
       </c>
       <c r="G25" s="4">
         <v>22</v>
@@ -2239,8 +2218,7 @@
         <v>41943.040000000001</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="0"/>
-        <v>20971520</v>
+        <v>4194304</v>
       </c>
       <c r="G26" s="4">
         <v>23</v>
@@ -2267,8 +2245,7 @@
         <v>83886.080000000002</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>41943040</v>
+        <v>8388608</v>
       </c>
       <c r="G27" s="4">
         <v>24</v>
@@ -2295,8 +2272,7 @@
         <v>167772.16</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="0"/>
-        <v>83886080</v>
+        <v>16777216</v>
       </c>
       <c r="G28" s="4">
         <v>25</v>
@@ -2323,8 +2299,7 @@
         <v>335544.32000000001</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="0"/>
-        <v>167772160</v>
+        <v>33554432</v>
       </c>
       <c r="G29" s="4">
         <v>26</v>
@@ -2351,8 +2326,7 @@
         <v>671088.64000000001</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="0"/>
-        <v>335544320</v>
+        <v>67108864</v>
       </c>
       <c r="G30" s="4">
         <v>27</v>
@@ -2379,8 +2353,7 @@
         <v>1342177.28</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="0"/>
-        <v>671088640</v>
+        <v>134217728</v>
       </c>
       <c r="G31" s="4">
         <v>28</v>
@@ -2407,8 +2380,7 @@
         <v>2684354.5600000001</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="0"/>
-        <v>1342177280</v>
+        <v>268435456</v>
       </c>
       <c r="G32" s="4">
         <v>29</v>
@@ -2435,8 +2407,7 @@
         <v>5368709.1200000001</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="0"/>
-        <v>2684354560</v>
+        <v>536870912</v>
       </c>
       <c r="G33" s="4">
         <v>30</v>
@@ -2463,8 +2434,7 @@
         <v>10737418.24</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="0"/>
-        <v>5368709120</v>
+        <v>1073741824</v>
       </c>
       <c r="G34" s="4">
         <v>31</v>
@@ -2491,8 +2461,7 @@
         <v>21474836.48</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="0"/>
-        <v>10737418240</v>
+        <v>2147483648</v>
       </c>
       <c r="G35" s="4">
         <v>32</v>
@@ -2519,8 +2488,7 @@
         <v>42949672.960000001</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="0"/>
-        <v>21474836480</v>
+        <v>4294967296</v>
       </c>
       <c r="G36" s="4">
         <v>33</v>
@@ -2547,8 +2515,7 @@
         <v>85899345.920000002</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="0"/>
-        <v>42949672960</v>
+        <v>8589934592</v>
       </c>
       <c r="G37" s="4">
         <v>34</v>
@@ -2575,8 +2542,7 @@
         <v>171798691.84</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="0"/>
-        <v>85899345920</v>
+        <v>17179869184</v>
       </c>
       <c r="G38" s="4">
         <v>35</v>
@@ -2603,8 +2569,7 @@
         <v>343597383.68000001</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="0"/>
-        <v>171798691840</v>
+        <v>34359738368</v>
       </c>
       <c r="G39" s="4">
         <v>36</v>
@@ -2631,8 +2596,7 @@
         <v>687194767.36000001</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="0"/>
-        <v>343597383680</v>
+        <v>68719476736</v>
       </c>
       <c r="G40" s="4">
         <v>37</v>
@@ -2659,8 +2623,7 @@
         <v>1374389534.72</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="0"/>
-        <v>687194767360</v>
+        <v>137438953472</v>
       </c>
       <c r="G41" s="4">
         <v>38</v>
@@ -2687,8 +2650,7 @@
         <v>2748779069.4400001</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="0"/>
-        <v>1374389534720</v>
+        <v>274877906944</v>
       </c>
       <c r="G42" s="4">
         <v>39</v>
@@ -2715,8 +2677,7 @@
         <v>5497558138.8800001</v>
       </c>
       <c r="F43" s="4">
-        <f t="shared" si="0"/>
-        <v>2748779069440</v>
+        <v>549755813888</v>
       </c>
       <c r="G43" s="4">
         <v>40</v>
@@ -2743,8 +2704,7 @@
         <v>10995116277.76</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" si="0"/>
-        <v>5497558138880</v>
+        <v>1099511627776</v>
       </c>
       <c r="G44" s="4">
         <v>41</v>
@@ -2771,8 +2731,7 @@
         <v>21990232555.52</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="0"/>
-        <v>10995116277760</v>
+        <v>2199023255552</v>
       </c>
       <c r="G45" s="4">
         <v>42</v>
@@ -2799,8 +2758,7 @@
         <v>43980465111.040001</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="0"/>
-        <v>21990232555520</v>
+        <v>4398046511104</v>
       </c>
       <c r="G46" s="4">
         <v>43</v>
@@ -2827,8 +2785,7 @@
         <v>87960930222.080002</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="0"/>
-        <v>43980465111040</v>
+        <v>8796093022208</v>
       </c>
       <c r="G47" s="4">
         <v>44</v>
@@ -2855,8 +2812,7 @@
         <v>175921860444.16</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="0"/>
-        <v>87960930222080</v>
+        <v>17592186044416</v>
       </c>
       <c r="G48" s="4">
         <v>45</v>
@@ -2883,8 +2839,7 @@
         <v>351843720888.32001</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="0"/>
-        <v>175921860444160</v>
+        <v>35184372088832</v>
       </c>
       <c r="G49" s="4">
         <v>46</v>
@@ -2911,8 +2866,7 @@
         <v>703687441776.64001</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="0"/>
-        <v>351843720888320</v>
+        <v>70368744177664</v>
       </c>
       <c r="G50" s="4">
         <v>47</v>
@@ -2939,8 +2893,7 @@
         <v>1407374883553.28</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="0"/>
-        <v>703687441776640</v>
+        <v>140737488355328</v>
       </c>
       <c r="G51" s="4">
         <v>48</v>
@@ -2967,8 +2920,7 @@
         <v>2814749767106.5601</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="0"/>
-        <v>1407374883553280</v>
+        <v>281474976710656</v>
       </c>
       <c r="G52" s="4">
         <v>49</v>
@@ -2995,8 +2947,7 @@
         <v>5629499534213.1201</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="0"/>
-        <v>2814749767106560</v>
+        <v>562949953421312</v>
       </c>
       <c r="G53" s="4">
         <v>50</v>
